--- a/main_data.xlsx
+++ b/main_data.xlsx
@@ -8,36 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thijsstuyver/Desktop/Perovskite_my_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A1F141-23D7-B947-B022-B9B2FB3F3655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F524A59-7BD6-4241-A3A4-9DC9FF640343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4520" yWindow="760" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_07_15_film" sheetId="2" r:id="rId1"/>
     <sheet name="2022_07_15_device" sheetId="1" r:id="rId2"/>
+    <sheet name="2022_07_21_film-new" sheetId="3" r:id="rId3"/>
+    <sheet name="2022_07_21_device-new" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +48,9 @@
   <si>
     <t>Perovskite concentration(M)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success or Fail</t>
   </si>
   <si>
     <r>
@@ -140,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +200,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +218,102 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -306,6 +403,58 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818772C1-67C5-46EA-96C0-CC43F6E125F3}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -624,22 +773,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1365,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N268"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1403,31 +1552,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3640,7 +3789,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
@@ -3656,7 +3805,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -4059,4 +4208,4603 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A65D9E5-E9A1-44E3-AE81-2E14CAF610C7}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2" s="17">
+        <v>25</v>
+      </c>
+      <c r="J2" s="17">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2">
+        <v>25</v>
+      </c>
+      <c r="I3" s="17">
+        <v>25</v>
+      </c>
+      <c r="J3" s="17">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>125</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
+        <v>23</v>
+      </c>
+      <c r="I4" s="17">
+        <v>25</v>
+      </c>
+      <c r="J4" s="17">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>115</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17">
+        <v>25</v>
+      </c>
+      <c r="J5" s="17">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>110</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2">
+        <v>21</v>
+      </c>
+      <c r="I6" s="17">
+        <v>25</v>
+      </c>
+      <c r="J6" s="17">
+        <v>30</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>90</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>110</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2">
+        <v>11</v>
+      </c>
+      <c r="I7" s="17">
+        <v>25</v>
+      </c>
+      <c r="J7" s="17">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>85</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>125</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" s="17">
+        <v>25</v>
+      </c>
+      <c r="J8" s="17">
+        <v>30</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2">
+        <v>33</v>
+      </c>
+      <c r="I9" s="17">
+        <v>25</v>
+      </c>
+      <c r="J9" s="17">
+        <v>30</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <v>21</v>
+      </c>
+      <c r="I10" s="17">
+        <v>25</v>
+      </c>
+      <c r="J10" s="17">
+        <v>30</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>110</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11" s="17">
+        <v>25</v>
+      </c>
+      <c r="J11" s="17">
+        <v>30</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F12" s="2">
+        <v>120</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2">
+        <v>23</v>
+      </c>
+      <c r="I12" s="17">
+        <v>25</v>
+      </c>
+      <c r="J12" s="17">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>120</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2">
+        <v>21</v>
+      </c>
+      <c r="I13" s="17">
+        <v>25</v>
+      </c>
+      <c r="J13" s="17">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>120</v>
+      </c>
+      <c r="G14" s="2">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" s="17">
+        <v>25</v>
+      </c>
+      <c r="J14" s="17">
+        <v>30</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>110</v>
+      </c>
+      <c r="G15" s="2">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
+        <v>23</v>
+      </c>
+      <c r="I15" s="17">
+        <v>25</v>
+      </c>
+      <c r="J15" s="17">
+        <v>30</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>85</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>110</v>
+      </c>
+      <c r="G16" s="2">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2">
+        <v>23</v>
+      </c>
+      <c r="I16" s="17">
+        <v>25</v>
+      </c>
+      <c r="J16" s="17">
+        <v>30</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F17" s="2">
+        <v>120</v>
+      </c>
+      <c r="G17" s="2">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2">
+        <v>25</v>
+      </c>
+      <c r="I17" s="17">
+        <v>25</v>
+      </c>
+      <c r="J17" s="17">
+        <v>30</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>110</v>
+      </c>
+      <c r="G18" s="2">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2">
+        <v>15</v>
+      </c>
+      <c r="I18" s="17">
+        <v>25</v>
+      </c>
+      <c r="J18" s="17">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>120</v>
+      </c>
+      <c r="G19" s="2">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2">
+        <v>25</v>
+      </c>
+      <c r="I19" s="17">
+        <v>25</v>
+      </c>
+      <c r="J19" s="17">
+        <v>30</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>95</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>115</v>
+      </c>
+      <c r="G20" s="2">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2">
+        <v>15</v>
+      </c>
+      <c r="I20" s="17">
+        <v>25</v>
+      </c>
+      <c r="J20" s="17">
+        <v>30</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F21" s="2">
+        <v>115</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2">
+        <v>21</v>
+      </c>
+      <c r="I21" s="17">
+        <v>25</v>
+      </c>
+      <c r="J21" s="17">
+        <v>30</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEF5206-2E45-40BA-94F5-2F790E97DCF8}">
+  <dimension ref="A1:N211"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16" style="4" customWidth="1"/>
+    <col min="11" max="11" width="37" style="7" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>21</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20">
+        <v>85</v>
+      </c>
+      <c r="D2" s="20">
+        <v>10</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="F2" s="20">
+        <v>125</v>
+      </c>
+      <c r="G2" s="20">
+        <v>20</v>
+      </c>
+      <c r="H2" s="20">
+        <v>25</v>
+      </c>
+      <c r="I2" s="20">
+        <v>25</v>
+      </c>
+      <c r="J2" s="20">
+        <v>30</v>
+      </c>
+      <c r="K2" s="19">
+        <v>1.1023000000000001</v>
+      </c>
+      <c r="L2" s="19">
+        <v>74.9405</v>
+      </c>
+      <c r="M2" s="19">
+        <v>20.940899999999999</v>
+      </c>
+      <c r="N2" s="19">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>21</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>85</v>
+      </c>
+      <c r="D3" s="20">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="F3" s="20">
+        <v>125</v>
+      </c>
+      <c r="G3" s="20">
+        <v>20</v>
+      </c>
+      <c r="H3" s="20">
+        <v>25</v>
+      </c>
+      <c r="I3" s="20">
+        <v>25</v>
+      </c>
+      <c r="J3" s="20">
+        <v>30</v>
+      </c>
+      <c r="K3" s="19">
+        <v>1.09196</v>
+      </c>
+      <c r="L3" s="19">
+        <v>75.270899999999997</v>
+      </c>
+      <c r="M3" s="19">
+        <v>20.8322</v>
+      </c>
+      <c r="N3" s="19">
+        <v>25.345400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>21</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>85</v>
+      </c>
+      <c r="D4" s="20">
+        <v>10</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="F4" s="20">
+        <v>125</v>
+      </c>
+      <c r="G4" s="20">
+        <v>20</v>
+      </c>
+      <c r="H4" s="20">
+        <v>25</v>
+      </c>
+      <c r="I4" s="20">
+        <v>25</v>
+      </c>
+      <c r="J4" s="20">
+        <v>30</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1.13635</v>
+      </c>
+      <c r="L4" s="19">
+        <v>73.661199999999994</v>
+      </c>
+      <c r="M4" s="19">
+        <v>21.516200000000001</v>
+      </c>
+      <c r="N4" s="19">
+        <v>25.704699999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>85</v>
+      </c>
+      <c r="D5" s="20">
+        <v>10</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="F5" s="20">
+        <v>125</v>
+      </c>
+      <c r="G5" s="20">
+        <v>20</v>
+      </c>
+      <c r="H5" s="20">
+        <v>25</v>
+      </c>
+      <c r="I5" s="20">
+        <v>25</v>
+      </c>
+      <c r="J5" s="20">
+        <v>30</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1.103</v>
+      </c>
+      <c r="L5" s="19">
+        <v>77.9191</v>
+      </c>
+      <c r="M5" s="19">
+        <v>21.912199999999999</v>
+      </c>
+      <c r="N5" s="19">
+        <v>25.4956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>22</v>
+      </c>
+      <c r="B6" s="21">
+        <v>5</v>
+      </c>
+      <c r="C6" s="21">
+        <v>85</v>
+      </c>
+      <c r="D6" s="21">
+        <v>5</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="F6" s="21">
+        <v>120</v>
+      </c>
+      <c r="G6" s="21">
+        <v>30</v>
+      </c>
+      <c r="H6" s="21">
+        <v>25</v>
+      </c>
+      <c r="I6" s="21">
+        <v>25</v>
+      </c>
+      <c r="J6" s="21">
+        <v>30</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1.0910200000000001</v>
+      </c>
+      <c r="L6" s="19">
+        <v>79.043000000000006</v>
+      </c>
+      <c r="M6" s="19">
+        <v>21.923100000000002</v>
+      </c>
+      <c r="N6" s="19">
+        <v>25.421800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>22</v>
+      </c>
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>85</v>
+      </c>
+      <c r="D7" s="21">
+        <v>5</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="F7" s="21">
+        <v>120</v>
+      </c>
+      <c r="G7" s="21">
+        <v>30</v>
+      </c>
+      <c r="H7" s="21">
+        <v>25</v>
+      </c>
+      <c r="I7" s="21">
+        <v>25</v>
+      </c>
+      <c r="J7" s="21">
+        <v>30</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1.1036600000000001</v>
+      </c>
+      <c r="L7" s="19">
+        <v>71.473299999999995</v>
+      </c>
+      <c r="M7" s="19">
+        <v>20.096</v>
+      </c>
+      <c r="N7" s="19">
+        <v>25.476099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>22</v>
+      </c>
+      <c r="B8" s="21">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21">
+        <v>85</v>
+      </c>
+      <c r="D8" s="21">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="F8" s="21">
+        <v>120</v>
+      </c>
+      <c r="G8" s="21">
+        <v>30</v>
+      </c>
+      <c r="H8" s="21">
+        <v>25</v>
+      </c>
+      <c r="I8" s="21">
+        <v>25</v>
+      </c>
+      <c r="J8" s="21">
+        <v>30</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1.09399</v>
+      </c>
+      <c r="L8" s="19">
+        <v>71.772099999999995</v>
+      </c>
+      <c r="M8" s="19">
+        <v>20.011600000000001</v>
+      </c>
+      <c r="N8" s="19">
+        <v>25.486799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>22</v>
+      </c>
+      <c r="B9" s="21">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21">
+        <v>85</v>
+      </c>
+      <c r="D9" s="21">
+        <v>5</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="F9" s="21">
+        <v>120</v>
+      </c>
+      <c r="G9" s="21">
+        <v>30</v>
+      </c>
+      <c r="H9" s="21">
+        <v>25</v>
+      </c>
+      <c r="I9" s="21">
+        <v>25</v>
+      </c>
+      <c r="J9" s="21">
+        <v>30</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1.12002</v>
+      </c>
+      <c r="L9" s="19">
+        <v>75.712199999999996</v>
+      </c>
+      <c r="M9" s="19">
+        <v>21.397099999999998</v>
+      </c>
+      <c r="N9" s="19">
+        <v>25.232600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>23</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>85</v>
+      </c>
+      <c r="D10" s="22">
+        <v>10</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="F10" s="22">
+        <v>125</v>
+      </c>
+      <c r="G10" s="22">
+        <v>20</v>
+      </c>
+      <c r="H10" s="22">
+        <v>23</v>
+      </c>
+      <c r="I10" s="22">
+        <v>25</v>
+      </c>
+      <c r="J10" s="22">
+        <v>30</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1.1047199999999999</v>
+      </c>
+      <c r="L10" s="19">
+        <v>78.040899999999993</v>
+      </c>
+      <c r="M10" s="19">
+        <v>21.878599999999999</v>
+      </c>
+      <c r="N10" s="19">
+        <v>25.377099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>23</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <v>85</v>
+      </c>
+      <c r="D11" s="22">
+        <v>10</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="F11" s="22">
+        <v>125</v>
+      </c>
+      <c r="G11" s="22">
+        <v>20</v>
+      </c>
+      <c r="H11" s="22">
+        <v>23</v>
+      </c>
+      <c r="I11" s="22">
+        <v>25</v>
+      </c>
+      <c r="J11" s="22">
+        <v>30</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1.1043700000000001</v>
+      </c>
+      <c r="L11" s="19">
+        <v>77.993600000000001</v>
+      </c>
+      <c r="M11" s="19">
+        <v>21.8613</v>
+      </c>
+      <c r="N11" s="19">
+        <v>25.380700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>23</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <v>85</v>
+      </c>
+      <c r="D12" s="22">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="F12" s="22">
+        <v>125</v>
+      </c>
+      <c r="G12" s="22">
+        <v>20</v>
+      </c>
+      <c r="H12" s="22">
+        <v>23</v>
+      </c>
+      <c r="I12" s="22">
+        <v>25</v>
+      </c>
+      <c r="J12" s="22">
+        <v>30</v>
+      </c>
+      <c r="K12" s="19">
+        <v>1.10486</v>
+      </c>
+      <c r="L12" s="19">
+        <v>78.618899999999996</v>
+      </c>
+      <c r="M12" s="19">
+        <v>22.155100000000001</v>
+      </c>
+      <c r="N12" s="19">
+        <v>25.505700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>23</v>
+      </c>
+      <c r="B13" s="22">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>85</v>
+      </c>
+      <c r="D13" s="22">
+        <v>10</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="F13" s="22">
+        <v>125</v>
+      </c>
+      <c r="G13" s="22">
+        <v>20</v>
+      </c>
+      <c r="H13" s="22">
+        <v>23</v>
+      </c>
+      <c r="I13" s="22">
+        <v>25</v>
+      </c>
+      <c r="J13" s="22">
+        <v>30</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1.10334</v>
+      </c>
+      <c r="L13" s="19">
+        <v>81.084000000000003</v>
+      </c>
+      <c r="M13" s="19">
+        <v>22.701000000000001</v>
+      </c>
+      <c r="N13" s="19">
+        <v>25.3748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <v>24</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="23">
+        <v>85</v>
+      </c>
+      <c r="D14" s="23">
+        <v>10</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F14" s="23">
+        <v>115</v>
+      </c>
+      <c r="G14" s="23">
+        <v>30</v>
+      </c>
+      <c r="H14" s="23">
+        <v>23</v>
+      </c>
+      <c r="I14" s="23">
+        <v>25</v>
+      </c>
+      <c r="J14" s="23">
+        <v>30</v>
+      </c>
+      <c r="K14" s="19">
+        <v>1.13384</v>
+      </c>
+      <c r="L14" s="19">
+        <v>75.855900000000005</v>
+      </c>
+      <c r="M14" s="19">
+        <v>21.0657</v>
+      </c>
+      <c r="N14" s="19">
+        <v>24.492599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>24</v>
+      </c>
+      <c r="B15" s="23">
+        <v>0</v>
+      </c>
+      <c r="C15" s="23">
+        <v>85</v>
+      </c>
+      <c r="D15" s="23">
+        <v>10</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F15" s="23">
+        <v>115</v>
+      </c>
+      <c r="G15" s="23">
+        <v>30</v>
+      </c>
+      <c r="H15" s="23">
+        <v>23</v>
+      </c>
+      <c r="I15" s="23">
+        <v>25</v>
+      </c>
+      <c r="J15" s="23">
+        <v>30</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1.1328499999999999</v>
+      </c>
+      <c r="L15" s="19">
+        <v>74.361099999999993</v>
+      </c>
+      <c r="M15" s="19">
+        <v>21.191099999999999</v>
+      </c>
+      <c r="N15" s="19">
+        <v>25.1557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>24</v>
+      </c>
+      <c r="B16" s="23">
+        <v>0</v>
+      </c>
+      <c r="C16" s="23">
+        <v>85</v>
+      </c>
+      <c r="D16" s="23">
+        <v>10</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F16" s="23">
+        <v>115</v>
+      </c>
+      <c r="G16" s="23">
+        <v>30</v>
+      </c>
+      <c r="H16" s="23">
+        <v>23</v>
+      </c>
+      <c r="I16" s="23">
+        <v>25</v>
+      </c>
+      <c r="J16" s="23">
+        <v>30</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1.1122399999999999</v>
+      </c>
+      <c r="L16" s="19">
+        <v>78.217299999999994</v>
+      </c>
+      <c r="M16" s="19">
+        <v>22.177299999999999</v>
+      </c>
+      <c r="N16" s="19">
+        <v>25.4922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>24</v>
+      </c>
+      <c r="B17" s="23">
+        <v>0</v>
+      </c>
+      <c r="C17" s="23">
+        <v>85</v>
+      </c>
+      <c r="D17" s="23">
+        <v>10</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F17" s="23">
+        <v>115</v>
+      </c>
+      <c r="G17" s="23">
+        <v>30</v>
+      </c>
+      <c r="H17" s="23">
+        <v>23</v>
+      </c>
+      <c r="I17" s="23">
+        <v>25</v>
+      </c>
+      <c r="J17" s="23">
+        <v>30</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1.1123400000000001</v>
+      </c>
+      <c r="L17" s="19">
+        <v>79.9285</v>
+      </c>
+      <c r="M17" s="19">
+        <v>22.7546</v>
+      </c>
+      <c r="N17" s="19">
+        <v>25.593599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>25</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0</v>
+      </c>
+      <c r="C18" s="25">
+        <v>85</v>
+      </c>
+      <c r="D18" s="25">
+        <v>10</v>
+      </c>
+      <c r="E18" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="25">
+        <v>110</v>
+      </c>
+      <c r="G18" s="25">
+        <v>20</v>
+      </c>
+      <c r="H18" s="25">
+        <v>21</v>
+      </c>
+      <c r="I18" s="25">
+        <v>25</v>
+      </c>
+      <c r="J18" s="25">
+        <v>30</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1.1178399999999999</v>
+      </c>
+      <c r="L18" s="19">
+        <v>79.903899999999993</v>
+      </c>
+      <c r="M18" s="19">
+        <v>22.580400000000001</v>
+      </c>
+      <c r="N18" s="19">
+        <v>25.2804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>25</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0</v>
+      </c>
+      <c r="C19" s="25">
+        <v>85</v>
+      </c>
+      <c r="D19" s="25">
+        <v>10</v>
+      </c>
+      <c r="E19" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="25">
+        <v>110</v>
+      </c>
+      <c r="G19" s="25">
+        <v>20</v>
+      </c>
+      <c r="H19" s="25">
+        <v>21</v>
+      </c>
+      <c r="I19" s="25">
+        <v>25</v>
+      </c>
+      <c r="J19" s="25">
+        <v>30</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1.1370499999999999</v>
+      </c>
+      <c r="L19" s="19">
+        <v>78.496899999999997</v>
+      </c>
+      <c r="M19" s="19">
+        <v>22.680199999999999</v>
+      </c>
+      <c r="N19" s="19">
+        <v>25.410599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="25">
+        <v>25</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0</v>
+      </c>
+      <c r="C20" s="25">
+        <v>85</v>
+      </c>
+      <c r="D20" s="25">
+        <v>10</v>
+      </c>
+      <c r="E20" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="25">
+        <v>110</v>
+      </c>
+      <c r="G20" s="25">
+        <v>20</v>
+      </c>
+      <c r="H20" s="25">
+        <v>21</v>
+      </c>
+      <c r="I20" s="25">
+        <v>25</v>
+      </c>
+      <c r="J20" s="25">
+        <v>30</v>
+      </c>
+      <c r="K20" s="19">
+        <v>1.12209</v>
+      </c>
+      <c r="L20" s="19">
+        <v>75.402799999999999</v>
+      </c>
+      <c r="M20" s="19">
+        <v>21.5152</v>
+      </c>
+      <c r="N20" s="19">
+        <v>25.428999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
+        <v>25</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25">
+        <v>85</v>
+      </c>
+      <c r="D21" s="25">
+        <v>10</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="25">
+        <v>110</v>
+      </c>
+      <c r="G21" s="25">
+        <v>20</v>
+      </c>
+      <c r="H21" s="25">
+        <v>21</v>
+      </c>
+      <c r="I21" s="25">
+        <v>25</v>
+      </c>
+      <c r="J21" s="25">
+        <v>30</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1.1293299999999999</v>
+      </c>
+      <c r="L21" s="19">
+        <v>80.927599999999998</v>
+      </c>
+      <c r="M21" s="19">
+        <v>22.7318</v>
+      </c>
+      <c r="N21" s="19">
+        <v>24.872399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>26</v>
+      </c>
+      <c r="B22" s="23">
+        <v>35</v>
+      </c>
+      <c r="C22" s="23">
+        <v>25</v>
+      </c>
+      <c r="D22" s="23">
+        <v>90</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F22" s="23">
+        <v>110</v>
+      </c>
+      <c r="G22" s="23">
+        <v>20</v>
+      </c>
+      <c r="H22" s="23">
+        <v>11</v>
+      </c>
+      <c r="I22" s="23">
+        <v>25</v>
+      </c>
+      <c r="J22" s="23">
+        <v>30</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="L22" s="19">
+        <v>75.981099999999998</v>
+      </c>
+      <c r="M22" s="19">
+        <v>17.743200000000002</v>
+      </c>
+      <c r="N22" s="19">
+        <v>24.581167000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>26</v>
+      </c>
+      <c r="B23" s="23">
+        <v>35</v>
+      </c>
+      <c r="C23" s="23">
+        <v>25</v>
+      </c>
+      <c r="D23" s="23">
+        <v>90</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F23" s="23">
+        <v>110</v>
+      </c>
+      <c r="G23" s="23">
+        <v>20</v>
+      </c>
+      <c r="H23" s="23">
+        <v>11</v>
+      </c>
+      <c r="I23" s="23">
+        <v>25</v>
+      </c>
+      <c r="J23" s="23">
+        <v>30</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="L23" s="19">
+        <v>80.679699999999997</v>
+      </c>
+      <c r="M23" s="19">
+        <v>16.8565</v>
+      </c>
+      <c r="N23" s="19">
+        <v>23.214490000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>26</v>
+      </c>
+      <c r="B24" s="23">
+        <v>35</v>
+      </c>
+      <c r="C24" s="23">
+        <v>25</v>
+      </c>
+      <c r="D24" s="23">
+        <v>90</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F24" s="23">
+        <v>110</v>
+      </c>
+      <c r="G24" s="23">
+        <v>20</v>
+      </c>
+      <c r="H24" s="23">
+        <v>11</v>
+      </c>
+      <c r="I24" s="23">
+        <v>25</v>
+      </c>
+      <c r="J24" s="23">
+        <v>30</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="L24" s="19">
+        <v>77.093000000000004</v>
+      </c>
+      <c r="M24" s="19">
+        <v>17.869900000000001</v>
+      </c>
+      <c r="N24" s="19">
+        <v>24.399598000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>26</v>
+      </c>
+      <c r="B25" s="23">
+        <v>35</v>
+      </c>
+      <c r="C25" s="23">
+        <v>25</v>
+      </c>
+      <c r="D25" s="23">
+        <v>90</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F25" s="23">
+        <v>110</v>
+      </c>
+      <c r="G25" s="23">
+        <v>20</v>
+      </c>
+      <c r="H25" s="23">
+        <v>11</v>
+      </c>
+      <c r="I25" s="23">
+        <v>25</v>
+      </c>
+      <c r="J25" s="23">
+        <v>30</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="L25" s="19">
+        <v>77.835599999999999</v>
+      </c>
+      <c r="M25" s="19">
+        <v>18.031300000000002</v>
+      </c>
+      <c r="N25" s="19">
+        <v>24.385147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
+        <v>27</v>
+      </c>
+      <c r="B26" s="26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="26">
+        <v>85</v>
+      </c>
+      <c r="D26" s="26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="F26" s="26">
+        <v>125</v>
+      </c>
+      <c r="G26" s="26">
+        <v>30</v>
+      </c>
+      <c r="H26" s="26">
+        <v>17</v>
+      </c>
+      <c r="I26" s="26">
+        <v>25</v>
+      </c>
+      <c r="J26" s="26">
+        <v>30</v>
+      </c>
+      <c r="K26" s="19">
+        <v>1.08</v>
+      </c>
+      <c r="L26" s="19">
+        <v>73.994900000000001</v>
+      </c>
+      <c r="M26" s="19">
+        <v>20.1143</v>
+      </c>
+      <c r="N26" s="19">
+        <v>25.169786999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
+        <v>27</v>
+      </c>
+      <c r="B27" s="26">
+        <v>0</v>
+      </c>
+      <c r="C27" s="26">
+        <v>85</v>
+      </c>
+      <c r="D27" s="26">
+        <v>10</v>
+      </c>
+      <c r="E27" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="F27" s="26">
+        <v>125</v>
+      </c>
+      <c r="G27" s="26">
+        <v>30</v>
+      </c>
+      <c r="H27" s="26">
+        <v>17</v>
+      </c>
+      <c r="I27" s="26">
+        <v>25</v>
+      </c>
+      <c r="J27" s="26">
+        <v>30</v>
+      </c>
+      <c r="K27" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="L27" s="19">
+        <v>76.291899999999998</v>
+      </c>
+      <c r="M27" s="19">
+        <v>20.451499999999999</v>
+      </c>
+      <c r="N27" s="19">
+        <v>25.530342999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26">
+        <v>0</v>
+      </c>
+      <c r="C28" s="26">
+        <v>85</v>
+      </c>
+      <c r="D28" s="26">
+        <v>10</v>
+      </c>
+      <c r="E28" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="F28" s="26">
+        <v>125</v>
+      </c>
+      <c r="G28" s="26">
+        <v>30</v>
+      </c>
+      <c r="H28" s="26">
+        <v>17</v>
+      </c>
+      <c r="I28" s="26">
+        <v>25</v>
+      </c>
+      <c r="J28" s="26">
+        <v>30</v>
+      </c>
+      <c r="K28" s="19">
+        <v>1.13263</v>
+      </c>
+      <c r="L28" s="19">
+        <v>73.132300000000001</v>
+      </c>
+      <c r="M28" s="19">
+        <v>21.219100000000001</v>
+      </c>
+      <c r="N28" s="19">
+        <v>25.6172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
+        <v>27</v>
+      </c>
+      <c r="B29" s="26">
+        <v>0</v>
+      </c>
+      <c r="C29" s="26">
+        <v>85</v>
+      </c>
+      <c r="D29" s="26">
+        <v>10</v>
+      </c>
+      <c r="E29" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="F29" s="26">
+        <v>125</v>
+      </c>
+      <c r="G29" s="26">
+        <v>30</v>
+      </c>
+      <c r="H29" s="26">
+        <v>17</v>
+      </c>
+      <c r="I29" s="26">
+        <v>25</v>
+      </c>
+      <c r="J29" s="26">
+        <v>30</v>
+      </c>
+      <c r="K29" s="19">
+        <v>1.1115900000000001</v>
+      </c>
+      <c r="L29" s="19">
+        <v>79.650300000000001</v>
+      </c>
+      <c r="M29" s="19">
+        <v>22.430099999999999</v>
+      </c>
+      <c r="N29" s="19">
+        <v>25.3337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22">
+        <v>45</v>
+      </c>
+      <c r="C30" s="22">
+        <v>55</v>
+      </c>
+      <c r="D30" s="22">
+        <v>5</v>
+      </c>
+      <c r="E30" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="F30" s="22">
+        <v>100</v>
+      </c>
+      <c r="G30" s="22">
+        <v>20</v>
+      </c>
+      <c r="H30" s="22">
+        <v>33</v>
+      </c>
+      <c r="I30" s="22">
+        <v>25</v>
+      </c>
+      <c r="J30" s="22">
+        <v>30</v>
+      </c>
+      <c r="K30" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L30" s="19">
+        <v>72.385499999999993</v>
+      </c>
+      <c r="M30" s="19">
+        <v>18.0261</v>
+      </c>
+      <c r="N30" s="19">
+        <v>22.639047999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
+        <v>28</v>
+      </c>
+      <c r="B31" s="22">
+        <v>45</v>
+      </c>
+      <c r="C31" s="22">
+        <v>55</v>
+      </c>
+      <c r="D31" s="22">
+        <v>5</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="22">
+        <v>100</v>
+      </c>
+      <c r="G31" s="22">
+        <v>20</v>
+      </c>
+      <c r="H31" s="22">
+        <v>33</v>
+      </c>
+      <c r="I31" s="22">
+        <v>25</v>
+      </c>
+      <c r="J31" s="22">
+        <v>30</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L31" s="19">
+        <v>73.120699999999999</v>
+      </c>
+      <c r="M31" s="19">
+        <v>18.072099999999999</v>
+      </c>
+      <c r="N31" s="19">
+        <v>22.468630000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
+        <v>28</v>
+      </c>
+      <c r="B32" s="22">
+        <v>45</v>
+      </c>
+      <c r="C32" s="22">
+        <v>55</v>
+      </c>
+      <c r="D32" s="22">
+        <v>5</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="F32" s="22">
+        <v>100</v>
+      </c>
+      <c r="G32" s="22">
+        <v>20</v>
+      </c>
+      <c r="H32" s="22">
+        <v>33</v>
+      </c>
+      <c r="I32" s="22">
+        <v>25</v>
+      </c>
+      <c r="J32" s="22">
+        <v>30</v>
+      </c>
+      <c r="K32" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L32" s="19">
+        <v>71.5227</v>
+      </c>
+      <c r="M32" s="19">
+        <v>17.732500000000002</v>
+      </c>
+      <c r="N32" s="19">
+        <v>22.538906999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
+        <v>28</v>
+      </c>
+      <c r="B33" s="22">
+        <v>45</v>
+      </c>
+      <c r="C33" s="22">
+        <v>55</v>
+      </c>
+      <c r="D33" s="22">
+        <v>5</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="F33" s="22">
+        <v>100</v>
+      </c>
+      <c r="G33" s="22">
+        <v>20</v>
+      </c>
+      <c r="H33" s="22">
+        <v>33</v>
+      </c>
+      <c r="I33" s="22">
+        <v>25</v>
+      </c>
+      <c r="J33" s="22">
+        <v>30</v>
+      </c>
+      <c r="K33" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L33" s="19">
+        <v>72.655100000000004</v>
+      </c>
+      <c r="M33" s="19">
+        <v>18.075399999999998</v>
+      </c>
+      <c r="N33" s="19">
+        <v>22.616651999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="25">
+        <v>29</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0</v>
+      </c>
+      <c r="C34" s="25">
+        <v>85</v>
+      </c>
+      <c r="D34" s="25">
+        <v>10</v>
+      </c>
+      <c r="E34" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="25">
+        <v>100</v>
+      </c>
+      <c r="G34" s="25">
+        <v>50</v>
+      </c>
+      <c r="H34" s="25">
+        <v>21</v>
+      </c>
+      <c r="I34" s="25">
+        <v>25</v>
+      </c>
+      <c r="J34" s="25">
+        <v>30</v>
+      </c>
+      <c r="K34" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L34" s="19">
+        <v>73.814800000000005</v>
+      </c>
+      <c r="M34" s="19">
+        <v>19.0867</v>
+      </c>
+      <c r="N34" s="19">
+        <v>23.506898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <v>29</v>
+      </c>
+      <c r="B35" s="25">
+        <v>0</v>
+      </c>
+      <c r="C35" s="25">
+        <v>85</v>
+      </c>
+      <c r="D35" s="25">
+        <v>10</v>
+      </c>
+      <c r="E35" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="25">
+        <v>100</v>
+      </c>
+      <c r="G35" s="25">
+        <v>50</v>
+      </c>
+      <c r="H35" s="25">
+        <v>21</v>
+      </c>
+      <c r="I35" s="25">
+        <v>25</v>
+      </c>
+      <c r="J35" s="25">
+        <v>30</v>
+      </c>
+      <c r="K35" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L35" s="19">
+        <v>71.621799999999993</v>
+      </c>
+      <c r="M35" s="19">
+        <v>18.4191</v>
+      </c>
+      <c r="N35" s="19">
+        <v>23.379290999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>29</v>
+      </c>
+      <c r="B36" s="25">
+        <v>0</v>
+      </c>
+      <c r="C36" s="25">
+        <v>85</v>
+      </c>
+      <c r="D36" s="25">
+        <v>10</v>
+      </c>
+      <c r="E36" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="25">
+        <v>100</v>
+      </c>
+      <c r="G36" s="25">
+        <v>50</v>
+      </c>
+      <c r="H36" s="25">
+        <v>21</v>
+      </c>
+      <c r="I36" s="25">
+        <v>25</v>
+      </c>
+      <c r="J36" s="25">
+        <v>30</v>
+      </c>
+      <c r="K36" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L36" s="19">
+        <v>71.750600000000006</v>
+      </c>
+      <c r="M36" s="19">
+        <v>17.983699999999999</v>
+      </c>
+      <c r="N36" s="19">
+        <v>22.785584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
+        <v>29</v>
+      </c>
+      <c r="B37" s="25">
+        <v>0</v>
+      </c>
+      <c r="C37" s="25">
+        <v>85</v>
+      </c>
+      <c r="D37" s="25">
+        <v>10</v>
+      </c>
+      <c r="E37" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F37" s="25">
+        <v>100</v>
+      </c>
+      <c r="G37" s="25">
+        <v>50</v>
+      </c>
+      <c r="H37" s="25">
+        <v>21</v>
+      </c>
+      <c r="I37" s="25">
+        <v>25</v>
+      </c>
+      <c r="J37" s="25">
+        <v>30</v>
+      </c>
+      <c r="K37" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L37" s="19">
+        <v>74.239000000000004</v>
+      </c>
+      <c r="M37" s="19">
+        <v>19.1358</v>
+      </c>
+      <c r="N37" s="19">
+        <v>23.432658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="27">
+        <v>30</v>
+      </c>
+      <c r="B38" s="27">
+        <v>10</v>
+      </c>
+      <c r="C38" s="27">
+        <v>20</v>
+      </c>
+      <c r="D38" s="27">
+        <v>95</v>
+      </c>
+      <c r="E38" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="F38" s="27">
+        <v>110</v>
+      </c>
+      <c r="G38" s="27">
+        <v>20</v>
+      </c>
+      <c r="H38" s="27">
+        <v>7</v>
+      </c>
+      <c r="I38" s="27">
+        <v>25</v>
+      </c>
+      <c r="J38" s="27">
+        <v>30</v>
+      </c>
+      <c r="K38" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L38" s="19">
+        <v>68.917199999999994</v>
+      </c>
+      <c r="M38" s="19">
+        <v>16.736999999999998</v>
+      </c>
+      <c r="N38" s="19">
+        <v>22.077921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>30</v>
+      </c>
+      <c r="B39" s="27">
+        <v>10</v>
+      </c>
+      <c r="C39" s="27">
+        <v>20</v>
+      </c>
+      <c r="D39" s="27">
+        <v>95</v>
+      </c>
+      <c r="E39" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="F39" s="27">
+        <v>110</v>
+      </c>
+      <c r="G39" s="27">
+        <v>20</v>
+      </c>
+      <c r="H39" s="27">
+        <v>7</v>
+      </c>
+      <c r="I39" s="27">
+        <v>25</v>
+      </c>
+      <c r="J39" s="27">
+        <v>30</v>
+      </c>
+      <c r="K39" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L39" s="19">
+        <v>72.299099999999996</v>
+      </c>
+      <c r="M39" s="19">
+        <v>17.988099999999999</v>
+      </c>
+      <c r="N39" s="19">
+        <v>22.618312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
+        <v>30</v>
+      </c>
+      <c r="B40" s="27">
+        <v>10</v>
+      </c>
+      <c r="C40" s="27">
+        <v>20</v>
+      </c>
+      <c r="D40" s="27">
+        <v>95</v>
+      </c>
+      <c r="E40" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="F40" s="27">
+        <v>110</v>
+      </c>
+      <c r="G40" s="27">
+        <v>20</v>
+      </c>
+      <c r="H40" s="27">
+        <v>7</v>
+      </c>
+      <c r="I40" s="27">
+        <v>25</v>
+      </c>
+      <c r="J40" s="27">
+        <v>30</v>
+      </c>
+      <c r="K40" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L40" s="19">
+        <v>66.368499999999997</v>
+      </c>
+      <c r="M40" s="19">
+        <v>16.872499999999999</v>
+      </c>
+      <c r="N40" s="19">
+        <v>23.111321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>30</v>
+      </c>
+      <c r="B41" s="27">
+        <v>10</v>
+      </c>
+      <c r="C41" s="27">
+        <v>20</v>
+      </c>
+      <c r="D41" s="27">
+        <v>95</v>
+      </c>
+      <c r="E41" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="F41" s="27">
+        <v>110</v>
+      </c>
+      <c r="G41" s="27">
+        <v>20</v>
+      </c>
+      <c r="H41" s="27">
+        <v>7</v>
+      </c>
+      <c r="I41" s="27">
+        <v>25</v>
+      </c>
+      <c r="J41" s="27">
+        <v>30</v>
+      </c>
+      <c r="K41" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="L41" s="19">
+        <v>65.462800000000001</v>
+      </c>
+      <c r="M41" s="19">
+        <v>15.6363</v>
+      </c>
+      <c r="N41" s="19">
+        <v>22.748429000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="28">
+        <v>31</v>
+      </c>
+      <c r="B42" s="28">
+        <v>0</v>
+      </c>
+      <c r="C42" s="28">
+        <v>85</v>
+      </c>
+      <c r="D42" s="28">
+        <v>10</v>
+      </c>
+      <c r="E42" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="F42" s="28">
+        <v>120</v>
+      </c>
+      <c r="G42" s="28">
+        <v>20</v>
+      </c>
+      <c r="H42" s="28">
+        <v>23</v>
+      </c>
+      <c r="I42" s="28">
+        <v>25</v>
+      </c>
+      <c r="J42" s="28">
+        <v>30</v>
+      </c>
+      <c r="K42" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L42" s="19">
+        <v>74.169300000000007</v>
+      </c>
+      <c r="M42" s="19">
+        <v>20.1465</v>
+      </c>
+      <c r="N42" s="19">
+        <v>24.693441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="28">
+        <v>31</v>
+      </c>
+      <c r="B43" s="28">
+        <v>0</v>
+      </c>
+      <c r="C43" s="28">
+        <v>85</v>
+      </c>
+      <c r="D43" s="28">
+        <v>10</v>
+      </c>
+      <c r="E43" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="F43" s="28">
+        <v>120</v>
+      </c>
+      <c r="G43" s="28">
+        <v>20</v>
+      </c>
+      <c r="H43" s="28">
+        <v>23</v>
+      </c>
+      <c r="I43" s="28">
+        <v>25</v>
+      </c>
+      <c r="J43" s="28">
+        <v>30</v>
+      </c>
+      <c r="K43" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L43" s="19">
+        <v>74.799099999999996</v>
+      </c>
+      <c r="M43" s="19">
+        <v>20.283300000000001</v>
+      </c>
+      <c r="N43" s="19">
+        <v>24.651814999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="28">
+        <v>31</v>
+      </c>
+      <c r="B44" s="28">
+        <v>0</v>
+      </c>
+      <c r="C44" s="28">
+        <v>85</v>
+      </c>
+      <c r="D44" s="28">
+        <v>10</v>
+      </c>
+      <c r="E44" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="F44" s="28">
+        <v>120</v>
+      </c>
+      <c r="G44" s="28">
+        <v>20</v>
+      </c>
+      <c r="H44" s="28">
+        <v>23</v>
+      </c>
+      <c r="I44" s="28">
+        <v>25</v>
+      </c>
+      <c r="J44" s="28">
+        <v>30</v>
+      </c>
+      <c r="K44" s="19">
+        <v>1.11015</v>
+      </c>
+      <c r="L44" s="19">
+        <v>75.514099999999999</v>
+      </c>
+      <c r="M44" s="19">
+        <v>21.299600000000002</v>
+      </c>
+      <c r="N44" s="19">
+        <v>25.407599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="28">
+        <v>31</v>
+      </c>
+      <c r="B45" s="28">
+        <v>0</v>
+      </c>
+      <c r="C45" s="28">
+        <v>85</v>
+      </c>
+      <c r="D45" s="28">
+        <v>10</v>
+      </c>
+      <c r="E45" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="F45" s="28">
+        <v>120</v>
+      </c>
+      <c r="G45" s="28">
+        <v>20</v>
+      </c>
+      <c r="H45" s="28">
+        <v>23</v>
+      </c>
+      <c r="I45" s="28">
+        <v>25</v>
+      </c>
+      <c r="J45" s="28">
+        <v>30</v>
+      </c>
+      <c r="K45" s="19">
+        <v>1.12175</v>
+      </c>
+      <c r="L45" s="19">
+        <v>77.289100000000005</v>
+      </c>
+      <c r="M45" s="19">
+        <v>22.029499999999999</v>
+      </c>
+      <c r="N45" s="19">
+        <v>25.409199999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="29">
+        <v>32</v>
+      </c>
+      <c r="B46" s="29">
+        <v>0</v>
+      </c>
+      <c r="C46" s="29">
+        <v>85</v>
+      </c>
+      <c r="D46" s="29">
+        <v>10</v>
+      </c>
+      <c r="E46" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="F46" s="29">
+        <v>120</v>
+      </c>
+      <c r="G46" s="29">
+        <v>20</v>
+      </c>
+      <c r="H46" s="29">
+        <v>21</v>
+      </c>
+      <c r="I46" s="29">
+        <v>25</v>
+      </c>
+      <c r="J46" s="29">
+        <v>30</v>
+      </c>
+      <c r="K46" s="19">
+        <v>1.1290199999999999</v>
+      </c>
+      <c r="L46" s="19">
+        <v>77.399100000000004</v>
+      </c>
+      <c r="M46" s="19">
+        <v>22.202300000000001</v>
+      </c>
+      <c r="N46" s="19">
+        <v>25.407299999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="29">
+        <v>32</v>
+      </c>
+      <c r="B47" s="29">
+        <v>0</v>
+      </c>
+      <c r="C47" s="29">
+        <v>85</v>
+      </c>
+      <c r="D47" s="29">
+        <v>10</v>
+      </c>
+      <c r="E47" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="F47" s="29">
+        <v>120</v>
+      </c>
+      <c r="G47" s="29">
+        <v>20</v>
+      </c>
+      <c r="H47" s="29">
+        <v>21</v>
+      </c>
+      <c r="I47" s="29">
+        <v>25</v>
+      </c>
+      <c r="J47" s="29">
+        <v>30</v>
+      </c>
+      <c r="K47" s="19">
+        <v>1.1112200000000001</v>
+      </c>
+      <c r="L47" s="19">
+        <v>78.103200000000001</v>
+      </c>
+      <c r="M47" s="19">
+        <v>22.0502</v>
+      </c>
+      <c r="N47" s="19">
+        <v>25.406600000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="29">
+        <v>32</v>
+      </c>
+      <c r="B48" s="29">
+        <v>0</v>
+      </c>
+      <c r="C48" s="29">
+        <v>85</v>
+      </c>
+      <c r="D48" s="29">
+        <v>10</v>
+      </c>
+      <c r="E48" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="F48" s="29">
+        <v>120</v>
+      </c>
+      <c r="G48" s="29">
+        <v>20</v>
+      </c>
+      <c r="H48" s="29">
+        <v>21</v>
+      </c>
+      <c r="I48" s="29">
+        <v>25</v>
+      </c>
+      <c r="J48" s="29">
+        <v>30</v>
+      </c>
+      <c r="K48" s="19">
+        <v>1.1319699999999999</v>
+      </c>
+      <c r="L48" s="19">
+        <v>78.996200000000002</v>
+      </c>
+      <c r="M48" s="19">
+        <v>23.0259</v>
+      </c>
+      <c r="N48" s="19">
+        <v>25.7499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="29">
+        <v>32</v>
+      </c>
+      <c r="B49" s="29">
+        <v>0</v>
+      </c>
+      <c r="C49" s="29">
+        <v>85</v>
+      </c>
+      <c r="D49" s="29">
+        <v>10</v>
+      </c>
+      <c r="E49" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="F49" s="29">
+        <v>120</v>
+      </c>
+      <c r="G49" s="29">
+        <v>20</v>
+      </c>
+      <c r="H49" s="29">
+        <v>21</v>
+      </c>
+      <c r="I49" s="29">
+        <v>25</v>
+      </c>
+      <c r="J49" s="29">
+        <v>30</v>
+      </c>
+      <c r="K49" s="19">
+        <v>1.13741</v>
+      </c>
+      <c r="L49" s="19">
+        <v>80.202699999999993</v>
+      </c>
+      <c r="M49" s="19">
+        <v>23.223199999999999</v>
+      </c>
+      <c r="N49" s="19">
+        <v>25.4575</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="30">
+        <v>33</v>
+      </c>
+      <c r="B50" s="30">
+        <v>0</v>
+      </c>
+      <c r="C50" s="30">
+        <v>85</v>
+      </c>
+      <c r="D50" s="30">
+        <v>10</v>
+      </c>
+      <c r="E50" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="F50" s="30">
+        <v>120</v>
+      </c>
+      <c r="G50" s="30">
+        <v>20</v>
+      </c>
+      <c r="H50" s="30">
+        <v>17</v>
+      </c>
+      <c r="I50" s="30">
+        <v>25</v>
+      </c>
+      <c r="J50" s="30">
+        <v>30</v>
+      </c>
+      <c r="K50" s="19">
+        <v>1.11155</v>
+      </c>
+      <c r="L50" s="19">
+        <v>75.902199999999993</v>
+      </c>
+      <c r="M50" s="19">
+        <v>21.2639</v>
+      </c>
+      <c r="N50" s="19">
+        <v>25.203499999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="30">
+        <v>33</v>
+      </c>
+      <c r="B51" s="30">
+        <v>0</v>
+      </c>
+      <c r="C51" s="30">
+        <v>85</v>
+      </c>
+      <c r="D51" s="30">
+        <v>10</v>
+      </c>
+      <c r="E51" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="F51" s="30">
+        <v>120</v>
+      </c>
+      <c r="G51" s="30">
+        <v>20</v>
+      </c>
+      <c r="H51" s="30">
+        <v>17</v>
+      </c>
+      <c r="I51" s="30">
+        <v>25</v>
+      </c>
+      <c r="J51" s="30">
+        <v>30</v>
+      </c>
+      <c r="K51" s="19">
+        <v>1.10816</v>
+      </c>
+      <c r="L51" s="19">
+        <v>75.875900000000001</v>
+      </c>
+      <c r="M51" s="19">
+        <v>21.182099999999998</v>
+      </c>
+      <c r="N51" s="19">
+        <v>25.192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="30">
+        <v>33</v>
+      </c>
+      <c r="B52" s="30">
+        <v>0</v>
+      </c>
+      <c r="C52" s="30">
+        <v>85</v>
+      </c>
+      <c r="D52" s="30">
+        <v>10</v>
+      </c>
+      <c r="E52" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="F52" s="30">
+        <v>120</v>
+      </c>
+      <c r="G52" s="30">
+        <v>20</v>
+      </c>
+      <c r="H52" s="30">
+        <v>17</v>
+      </c>
+      <c r="I52" s="30">
+        <v>25</v>
+      </c>
+      <c r="J52" s="30">
+        <v>30</v>
+      </c>
+      <c r="K52" s="19">
+        <v>1.10067</v>
+      </c>
+      <c r="L52" s="19">
+        <v>75.348299999999995</v>
+      </c>
+      <c r="M52" s="19">
+        <v>20.886600000000001</v>
+      </c>
+      <c r="N52" s="19">
+        <v>25.184699999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="30">
+        <v>33</v>
+      </c>
+      <c r="B53" s="30">
+        <v>0</v>
+      </c>
+      <c r="C53" s="30">
+        <v>85</v>
+      </c>
+      <c r="D53" s="30">
+        <v>10</v>
+      </c>
+      <c r="E53" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="F53" s="30">
+        <v>120</v>
+      </c>
+      <c r="G53" s="30">
+        <v>20</v>
+      </c>
+      <c r="H53" s="30">
+        <v>17</v>
+      </c>
+      <c r="I53" s="30">
+        <v>25</v>
+      </c>
+      <c r="J53" s="30">
+        <v>30</v>
+      </c>
+      <c r="K53" s="19">
+        <v>1.1061099999999999</v>
+      </c>
+      <c r="L53" s="19">
+        <v>78.085800000000006</v>
+      </c>
+      <c r="M53" s="19">
+        <v>21.928999999999998</v>
+      </c>
+      <c r="N53" s="19">
+        <v>25.388999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="31">
+        <v>34</v>
+      </c>
+      <c r="B54" s="31">
+        <v>0</v>
+      </c>
+      <c r="C54" s="31">
+        <v>85</v>
+      </c>
+      <c r="D54" s="31">
+        <v>10</v>
+      </c>
+      <c r="E54" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F54" s="31">
+        <v>110</v>
+      </c>
+      <c r="G54" s="31">
+        <v>30</v>
+      </c>
+      <c r="H54" s="31">
+        <v>23</v>
+      </c>
+      <c r="I54" s="31">
+        <v>25</v>
+      </c>
+      <c r="J54" s="31">
+        <v>30</v>
+      </c>
+      <c r="K54" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L54" s="19">
+        <v>71.875100000000003</v>
+      </c>
+      <c r="M54" s="19">
+        <v>20.227900000000002</v>
+      </c>
+      <c r="N54" s="19">
+        <v>25.584609</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="31">
+        <v>34</v>
+      </c>
+      <c r="B55" s="31">
+        <v>0</v>
+      </c>
+      <c r="C55" s="31">
+        <v>85</v>
+      </c>
+      <c r="D55" s="31">
+        <v>10</v>
+      </c>
+      <c r="E55" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F55" s="31">
+        <v>110</v>
+      </c>
+      <c r="G55" s="31">
+        <v>30</v>
+      </c>
+      <c r="H55" s="31">
+        <v>23</v>
+      </c>
+      <c r="I55" s="31">
+        <v>25</v>
+      </c>
+      <c r="J55" s="31">
+        <v>30</v>
+      </c>
+      <c r="K55" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="L55" s="19">
+        <v>76.003699999999995</v>
+      </c>
+      <c r="M55" s="19">
+        <v>20.734300000000001</v>
+      </c>
+      <c r="N55" s="19">
+        <v>25.981589</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="31">
+        <v>34</v>
+      </c>
+      <c r="B56" s="31">
+        <v>0</v>
+      </c>
+      <c r="C56" s="31">
+        <v>85</v>
+      </c>
+      <c r="D56" s="31">
+        <v>10</v>
+      </c>
+      <c r="E56" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F56" s="31">
+        <v>110</v>
+      </c>
+      <c r="G56" s="31">
+        <v>30</v>
+      </c>
+      <c r="H56" s="31">
+        <v>23</v>
+      </c>
+      <c r="I56" s="31">
+        <v>25</v>
+      </c>
+      <c r="J56" s="31">
+        <v>30</v>
+      </c>
+      <c r="K56" s="19">
+        <v>1.09857</v>
+      </c>
+      <c r="L56" s="19">
+        <v>70.096900000000005</v>
+      </c>
+      <c r="M56" s="19">
+        <v>20.060500000000001</v>
+      </c>
+      <c r="N56" s="19">
+        <v>26.0505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="31">
+        <v>34</v>
+      </c>
+      <c r="B57" s="31">
+        <v>0</v>
+      </c>
+      <c r="C57" s="31">
+        <v>85</v>
+      </c>
+      <c r="D57" s="31">
+        <v>10</v>
+      </c>
+      <c r="E57" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F57" s="31">
+        <v>110</v>
+      </c>
+      <c r="G57" s="31">
+        <v>30</v>
+      </c>
+      <c r="H57" s="31">
+        <v>23</v>
+      </c>
+      <c r="I57" s="31">
+        <v>25</v>
+      </c>
+      <c r="J57" s="31">
+        <v>30</v>
+      </c>
+      <c r="K57" s="19">
+        <v>1.10809</v>
+      </c>
+      <c r="L57" s="19">
+        <v>78.077100000000002</v>
+      </c>
+      <c r="M57" s="19">
+        <v>21.977900000000002</v>
+      </c>
+      <c r="N57" s="19">
+        <v>25.403099999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="32">
+        <v>35</v>
+      </c>
+      <c r="B58" s="32">
+        <v>0</v>
+      </c>
+      <c r="C58" s="32">
+        <v>85</v>
+      </c>
+      <c r="D58" s="32">
+        <v>10</v>
+      </c>
+      <c r="E58" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="F58" s="32">
+        <v>110</v>
+      </c>
+      <c r="G58" s="32">
+        <v>20</v>
+      </c>
+      <c r="H58" s="32">
+        <v>23</v>
+      </c>
+      <c r="I58" s="32">
+        <v>25</v>
+      </c>
+      <c r="J58" s="32">
+        <v>30</v>
+      </c>
+      <c r="K58" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L58" s="19">
+        <v>73.6892</v>
+      </c>
+      <c r="M58" s="19">
+        <v>19.555499999999999</v>
+      </c>
+      <c r="N58" s="19">
+        <v>24.125308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="32">
+        <v>35</v>
+      </c>
+      <c r="B59" s="32">
+        <v>0</v>
+      </c>
+      <c r="C59" s="32">
+        <v>85</v>
+      </c>
+      <c r="D59" s="32">
+        <v>10</v>
+      </c>
+      <c r="E59" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="F59" s="32">
+        <v>110</v>
+      </c>
+      <c r="G59" s="32">
+        <v>20</v>
+      </c>
+      <c r="H59" s="32">
+        <v>23</v>
+      </c>
+      <c r="I59" s="32">
+        <v>25</v>
+      </c>
+      <c r="J59" s="32">
+        <v>30</v>
+      </c>
+      <c r="K59" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L59" s="19">
+        <v>76.614900000000006</v>
+      </c>
+      <c r="M59" s="19">
+        <v>20.4849</v>
+      </c>
+      <c r="N59" s="19">
+        <v>24.306823000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="32">
+        <v>35</v>
+      </c>
+      <c r="B60" s="32">
+        <v>0</v>
+      </c>
+      <c r="C60" s="32">
+        <v>85</v>
+      </c>
+      <c r="D60" s="32">
+        <v>10</v>
+      </c>
+      <c r="E60" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="F60" s="32">
+        <v>110</v>
+      </c>
+      <c r="G60" s="32">
+        <v>20</v>
+      </c>
+      <c r="H60" s="32">
+        <v>23</v>
+      </c>
+      <c r="I60" s="32">
+        <v>25</v>
+      </c>
+      <c r="J60" s="32">
+        <v>30</v>
+      </c>
+      <c r="K60" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L60" s="19">
+        <v>74.802700000000002</v>
+      </c>
+      <c r="M60" s="19">
+        <v>20.146999999999998</v>
+      </c>
+      <c r="N60" s="19">
+        <v>24.485067000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="32">
+        <v>35</v>
+      </c>
+      <c r="B61" s="32">
+        <v>0</v>
+      </c>
+      <c r="C61" s="32">
+        <v>85</v>
+      </c>
+      <c r="D61" s="32">
+        <v>10</v>
+      </c>
+      <c r="E61" s="32">
+        <v>1.6</v>
+      </c>
+      <c r="F61" s="32">
+        <v>110</v>
+      </c>
+      <c r="G61" s="32">
+        <v>20</v>
+      </c>
+      <c r="H61" s="32">
+        <v>23</v>
+      </c>
+      <c r="I61" s="32">
+        <v>25</v>
+      </c>
+      <c r="J61" s="32">
+        <v>30</v>
+      </c>
+      <c r="K61" s="19">
+        <v>1.10538</v>
+      </c>
+      <c r="L61" s="19">
+        <v>77.898700000000005</v>
+      </c>
+      <c r="M61" s="19">
+        <v>21.8613</v>
+      </c>
+      <c r="N61" s="19">
+        <v>25.388400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="24">
+        <v>36</v>
+      </c>
+      <c r="B62" s="24">
+        <v>0</v>
+      </c>
+      <c r="C62" s="24">
+        <v>85</v>
+      </c>
+      <c r="D62" s="24">
+        <v>10</v>
+      </c>
+      <c r="E62" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="F62" s="24">
+        <v>120</v>
+      </c>
+      <c r="G62" s="24">
+        <v>20</v>
+      </c>
+      <c r="H62" s="24">
+        <v>25</v>
+      </c>
+      <c r="I62" s="24">
+        <v>25</v>
+      </c>
+      <c r="J62" s="24">
+        <v>30</v>
+      </c>
+      <c r="K62" s="19">
+        <v>1.09131</v>
+      </c>
+      <c r="L62" s="19">
+        <v>75.569800000000001</v>
+      </c>
+      <c r="M62" s="19">
+        <v>20.9025</v>
+      </c>
+      <c r="N62" s="19">
+        <v>25.345600000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="24">
+        <v>36</v>
+      </c>
+      <c r="B63" s="24">
+        <v>0</v>
+      </c>
+      <c r="C63" s="24">
+        <v>85</v>
+      </c>
+      <c r="D63" s="24">
+        <v>10</v>
+      </c>
+      <c r="E63" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="F63" s="24">
+        <v>120</v>
+      </c>
+      <c r="G63" s="24">
+        <v>20</v>
+      </c>
+      <c r="H63" s="24">
+        <v>25</v>
+      </c>
+      <c r="I63" s="24">
+        <v>25</v>
+      </c>
+      <c r="J63" s="24">
+        <v>30</v>
+      </c>
+      <c r="K63" s="19">
+        <v>1.0904700000000001</v>
+      </c>
+      <c r="L63" s="19">
+        <v>74.841099999999997</v>
+      </c>
+      <c r="M63" s="19">
+        <v>20.677900000000001</v>
+      </c>
+      <c r="N63" s="19">
+        <v>25.337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="24">
+        <v>36</v>
+      </c>
+      <c r="B64" s="24">
+        <v>0</v>
+      </c>
+      <c r="C64" s="24">
+        <v>85</v>
+      </c>
+      <c r="D64" s="24">
+        <v>10</v>
+      </c>
+      <c r="E64" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="F64" s="24">
+        <v>120</v>
+      </c>
+      <c r="G64" s="24">
+        <v>20</v>
+      </c>
+      <c r="H64" s="24">
+        <v>25</v>
+      </c>
+      <c r="I64" s="24">
+        <v>25</v>
+      </c>
+      <c r="J64" s="24">
+        <v>30</v>
+      </c>
+      <c r="K64" s="19">
+        <v>1.1341699999999999</v>
+      </c>
+      <c r="L64" s="19">
+        <v>74.4953</v>
+      </c>
+      <c r="M64" s="19">
+        <v>21.258099999999999</v>
+      </c>
+      <c r="N64" s="19">
+        <v>25.160399999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="24">
+        <v>36</v>
+      </c>
+      <c r="B65" s="24">
+        <v>0</v>
+      </c>
+      <c r="C65" s="24">
+        <v>85</v>
+      </c>
+      <c r="D65" s="24">
+        <v>10</v>
+      </c>
+      <c r="E65" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="F65" s="24">
+        <v>120</v>
+      </c>
+      <c r="G65" s="24">
+        <v>20</v>
+      </c>
+      <c r="H65" s="24">
+        <v>25</v>
+      </c>
+      <c r="I65" s="24">
+        <v>25</v>
+      </c>
+      <c r="J65" s="24">
+        <v>30</v>
+      </c>
+      <c r="K65" s="19">
+        <v>1.1326000000000001</v>
+      </c>
+      <c r="L65" s="19">
+        <v>79.594499999999996</v>
+      </c>
+      <c r="M65" s="19">
+        <v>23.1355</v>
+      </c>
+      <c r="N65" s="19">
+        <v>25.663699999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="29">
+        <v>37</v>
+      </c>
+      <c r="B66" s="29">
+        <v>15</v>
+      </c>
+      <c r="C66" s="29">
+        <v>20</v>
+      </c>
+      <c r="D66" s="29">
+        <v>95</v>
+      </c>
+      <c r="E66" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F66" s="29">
+        <v>110</v>
+      </c>
+      <c r="G66" s="29">
+        <v>30</v>
+      </c>
+      <c r="H66" s="29">
+        <v>15</v>
+      </c>
+      <c r="I66" s="29">
+        <v>25</v>
+      </c>
+      <c r="J66" s="29">
+        <v>30</v>
+      </c>
+      <c r="K66" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="L66" s="19">
+        <v>68.885499999999993</v>
+      </c>
+      <c r="M66" s="19">
+        <v>15.9755</v>
+      </c>
+      <c r="N66" s="19">
+        <v>22.087018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="29">
+        <v>37</v>
+      </c>
+      <c r="B67" s="29">
+        <v>15</v>
+      </c>
+      <c r="C67" s="29">
+        <v>20</v>
+      </c>
+      <c r="D67" s="29">
+        <v>95</v>
+      </c>
+      <c r="E67" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F67" s="29">
+        <v>110</v>
+      </c>
+      <c r="G67" s="29">
+        <v>30</v>
+      </c>
+      <c r="H67" s="29">
+        <v>15</v>
+      </c>
+      <c r="I67" s="29">
+        <v>25</v>
+      </c>
+      <c r="J67" s="29">
+        <v>30</v>
+      </c>
+      <c r="K67" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L67" s="19">
+        <v>65.563100000000006</v>
+      </c>
+      <c r="M67" s="19">
+        <v>16.618300000000001</v>
+      </c>
+      <c r="N67" s="19">
+        <v>23.042804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="29">
+        <v>37</v>
+      </c>
+      <c r="B68" s="29">
+        <v>15</v>
+      </c>
+      <c r="C68" s="29">
+        <v>20</v>
+      </c>
+      <c r="D68" s="29">
+        <v>95</v>
+      </c>
+      <c r="E68" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F68" s="29">
+        <v>110</v>
+      </c>
+      <c r="G68" s="29">
+        <v>30</v>
+      </c>
+      <c r="H68" s="29">
+        <v>15</v>
+      </c>
+      <c r="I68" s="29">
+        <v>25</v>
+      </c>
+      <c r="J68" s="29">
+        <v>30</v>
+      </c>
+      <c r="K68" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="L68" s="19">
+        <v>70.223399999999998</v>
+      </c>
+      <c r="M68" s="19">
+        <v>17.315200000000001</v>
+      </c>
+      <c r="N68" s="19">
+        <v>23.483152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="29">
+        <v>37</v>
+      </c>
+      <c r="B69" s="29">
+        <v>15</v>
+      </c>
+      <c r="C69" s="29">
+        <v>20</v>
+      </c>
+      <c r="D69" s="29">
+        <v>95</v>
+      </c>
+      <c r="E69" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F69" s="29">
+        <v>110</v>
+      </c>
+      <c r="G69" s="29">
+        <v>30</v>
+      </c>
+      <c r="H69" s="29">
+        <v>15</v>
+      </c>
+      <c r="I69" s="29">
+        <v>25</v>
+      </c>
+      <c r="J69" s="29">
+        <v>30</v>
+      </c>
+      <c r="K69" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L69" s="19">
+        <v>65.645600000000002</v>
+      </c>
+      <c r="M69" s="19">
+        <v>16.916899999999998</v>
+      </c>
+      <c r="N69" s="19">
+        <v>23.427295999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="33">
+        <v>38</v>
+      </c>
+      <c r="B70" s="33">
+        <v>0</v>
+      </c>
+      <c r="C70" s="33">
+        <v>85</v>
+      </c>
+      <c r="D70" s="33">
+        <v>10</v>
+      </c>
+      <c r="E70" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="F70" s="33">
+        <v>120</v>
+      </c>
+      <c r="G70" s="33">
+        <v>20</v>
+      </c>
+      <c r="H70" s="33">
+        <v>25</v>
+      </c>
+      <c r="I70" s="33">
+        <v>25</v>
+      </c>
+      <c r="J70" s="33">
+        <v>30</v>
+      </c>
+      <c r="K70" s="19">
+        <v>1.1067499999999999</v>
+      </c>
+      <c r="L70" s="19">
+        <v>76.075699999999998</v>
+      </c>
+      <c r="M70" s="19">
+        <v>21.433800000000002</v>
+      </c>
+      <c r="N70" s="19">
+        <v>25.456900000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="33">
+        <v>38</v>
+      </c>
+      <c r="B71" s="33">
+        <v>0</v>
+      </c>
+      <c r="C71" s="33">
+        <v>85</v>
+      </c>
+      <c r="D71" s="33">
+        <v>10</v>
+      </c>
+      <c r="E71" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="F71" s="33">
+        <v>120</v>
+      </c>
+      <c r="G71" s="33">
+        <v>20</v>
+      </c>
+      <c r="H71" s="33">
+        <v>25</v>
+      </c>
+      <c r="I71" s="33">
+        <v>25</v>
+      </c>
+      <c r="J71" s="33">
+        <v>30</v>
+      </c>
+      <c r="K71" s="19">
+        <v>1.1076999999999999</v>
+      </c>
+      <c r="L71" s="19">
+        <v>79.732500000000002</v>
+      </c>
+      <c r="M71" s="19">
+        <v>22.389099999999999</v>
+      </c>
+      <c r="N71" s="19">
+        <v>25.350100000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="33">
+        <v>38</v>
+      </c>
+      <c r="B72" s="33">
+        <v>0</v>
+      </c>
+      <c r="C72" s="33">
+        <v>85</v>
+      </c>
+      <c r="D72" s="33">
+        <v>10</v>
+      </c>
+      <c r="E72" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="F72" s="33">
+        <v>120</v>
+      </c>
+      <c r="G72" s="33">
+        <v>20</v>
+      </c>
+      <c r="H72" s="33">
+        <v>25</v>
+      </c>
+      <c r="I72" s="33">
+        <v>25</v>
+      </c>
+      <c r="J72" s="33">
+        <v>30</v>
+      </c>
+      <c r="K72" s="19">
+        <v>1.1084799999999999</v>
+      </c>
+      <c r="L72" s="19">
+        <v>79.835499999999996</v>
+      </c>
+      <c r="M72" s="19">
+        <v>22.424600000000002</v>
+      </c>
+      <c r="N72" s="19">
+        <v>25.339600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="33">
+        <v>38</v>
+      </c>
+      <c r="B73" s="33">
+        <v>0</v>
+      </c>
+      <c r="C73" s="33">
+        <v>85</v>
+      </c>
+      <c r="D73" s="33">
+        <v>10</v>
+      </c>
+      <c r="E73" s="33">
+        <v>1.6</v>
+      </c>
+      <c r="F73" s="33">
+        <v>120</v>
+      </c>
+      <c r="G73" s="33">
+        <v>20</v>
+      </c>
+      <c r="H73" s="33">
+        <v>25</v>
+      </c>
+      <c r="I73" s="33">
+        <v>25</v>
+      </c>
+      <c r="J73" s="33">
+        <v>30</v>
+      </c>
+      <c r="K73" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="L73" s="19">
+        <v>73.807900000000004</v>
+      </c>
+      <c r="M73" s="19">
+        <v>21.132400000000001</v>
+      </c>
+      <c r="N73" s="19">
+        <v>27.268211999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="34">
+        <v>39</v>
+      </c>
+      <c r="B74" s="34">
+        <v>40</v>
+      </c>
+      <c r="C74" s="34">
+        <v>20</v>
+      </c>
+      <c r="D74" s="34">
+        <v>95</v>
+      </c>
+      <c r="E74" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="F74" s="34">
+        <v>115</v>
+      </c>
+      <c r="G74" s="34">
+        <v>20</v>
+      </c>
+      <c r="H74" s="34">
+        <v>15</v>
+      </c>
+      <c r="I74" s="34">
+        <v>25</v>
+      </c>
+      <c r="J74" s="34">
+        <v>30</v>
+      </c>
+      <c r="K74" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L74" s="19">
+        <v>67.729699999999994</v>
+      </c>
+      <c r="M74" s="19">
+        <v>16.880299999999998</v>
+      </c>
+      <c r="N74" s="19">
+        <v>22.657353000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="34">
+        <v>39</v>
+      </c>
+      <c r="B75" s="34">
+        <v>40</v>
+      </c>
+      <c r="C75" s="34">
+        <v>20</v>
+      </c>
+      <c r="D75" s="34">
+        <v>95</v>
+      </c>
+      <c r="E75" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="F75" s="34">
+        <v>115</v>
+      </c>
+      <c r="G75" s="34">
+        <v>20</v>
+      </c>
+      <c r="H75" s="34">
+        <v>15</v>
+      </c>
+      <c r="I75" s="34">
+        <v>25</v>
+      </c>
+      <c r="J75" s="34">
+        <v>30</v>
+      </c>
+      <c r="K75" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L75" s="19">
+        <v>65.817899999999995</v>
+      </c>
+      <c r="M75" s="19">
+        <v>15.7774</v>
+      </c>
+      <c r="N75" s="19">
+        <v>21.79204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="34">
+        <v>39</v>
+      </c>
+      <c r="B76" s="34">
+        <v>40</v>
+      </c>
+      <c r="C76" s="34">
+        <v>20</v>
+      </c>
+      <c r="D76" s="34">
+        <v>95</v>
+      </c>
+      <c r="E76" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="F76" s="34">
+        <v>115</v>
+      </c>
+      <c r="G76" s="34">
+        <v>20</v>
+      </c>
+      <c r="H76" s="34">
+        <v>15</v>
+      </c>
+      <c r="I76" s="34">
+        <v>25</v>
+      </c>
+      <c r="J76" s="34">
+        <v>30</v>
+      </c>
+      <c r="K76" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="L76" s="19">
+        <v>83.659899999999993</v>
+      </c>
+      <c r="M76" s="19">
+        <v>15.3355</v>
+      </c>
+      <c r="N76" s="19">
+        <v>17.457917999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="34">
+        <v>39</v>
+      </c>
+      <c r="B77" s="34">
+        <v>40</v>
+      </c>
+      <c r="C77" s="34">
+        <v>20</v>
+      </c>
+      <c r="D77" s="34">
+        <v>95</v>
+      </c>
+      <c r="E77" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="F77" s="34">
+        <v>115</v>
+      </c>
+      <c r="G77" s="34">
+        <v>20</v>
+      </c>
+      <c r="H77" s="34">
+        <v>15</v>
+      </c>
+      <c r="I77" s="34">
+        <v>25</v>
+      </c>
+      <c r="J77" s="34">
+        <v>30</v>
+      </c>
+      <c r="K77" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="L77" s="19">
+        <v>65.195499999999996</v>
+      </c>
+      <c r="M77" s="19">
+        <v>16.359000000000002</v>
+      </c>
+      <c r="N77" s="19">
+        <v>23.897337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>40</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>85</v>
+      </c>
+      <c r="D78" s="2">
+        <v>10</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F78" s="2">
+        <v>115</v>
+      </c>
+      <c r="G78" s="2">
+        <v>30</v>
+      </c>
+      <c r="H78" s="2">
+        <v>21</v>
+      </c>
+      <c r="I78" s="2">
+        <v>25</v>
+      </c>
+      <c r="J78" s="2">
+        <v>30</v>
+      </c>
+      <c r="K78" s="19">
+        <v>1.1208100000000001</v>
+      </c>
+      <c r="L78" s="19">
+        <v>80.016800000000003</v>
+      </c>
+      <c r="M78" s="19">
+        <v>22.867999999999999</v>
+      </c>
+      <c r="N78" s="19">
+        <v>25.498699999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>40</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>85</v>
+      </c>
+      <c r="D79" s="2">
+        <v>10</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F79" s="2">
+        <v>115</v>
+      </c>
+      <c r="G79" s="2">
+        <v>30</v>
+      </c>
+      <c r="H79" s="2">
+        <v>21</v>
+      </c>
+      <c r="I79" s="2">
+        <v>25</v>
+      </c>
+      <c r="J79" s="2">
+        <v>30</v>
+      </c>
+      <c r="K79" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L79" s="19">
+        <v>73.544899999999998</v>
+      </c>
+      <c r="M79" s="19">
+        <v>20.368099999999998</v>
+      </c>
+      <c r="N79" s="19">
+        <v>25.177078999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>40</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>85</v>
+      </c>
+      <c r="D80" s="2">
+        <v>10</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F80" s="2">
+        <v>115</v>
+      </c>
+      <c r="G80" s="2">
+        <v>30</v>
+      </c>
+      <c r="H80" s="2">
+        <v>21</v>
+      </c>
+      <c r="I80" s="2">
+        <v>25</v>
+      </c>
+      <c r="J80" s="2">
+        <v>30</v>
+      </c>
+      <c r="K80" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L80" s="19">
+        <v>74.889399999999995</v>
+      </c>
+      <c r="M80" s="19">
+        <v>21.039100000000001</v>
+      </c>
+      <c r="N80" s="19">
+        <v>25.539663999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>40</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>85</v>
+      </c>
+      <c r="D81" s="2">
+        <v>10</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F81" s="2">
+        <v>115</v>
+      </c>
+      <c r="G81" s="2">
+        <v>30</v>
+      </c>
+      <c r="H81" s="2">
+        <v>21</v>
+      </c>
+      <c r="I81" s="2">
+        <v>25</v>
+      </c>
+      <c r="J81" s="2">
+        <v>30</v>
+      </c>
+      <c r="K81" s="19">
+        <v>1.073</v>
+      </c>
+      <c r="L81" s="19">
+        <v>78.029700000000005</v>
+      </c>
+      <c r="M81" s="19">
+        <v>21.490500000000001</v>
+      </c>
+      <c r="N81" s="19">
+        <v>25.6677</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+    </row>
+    <row r="97" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+    </row>
+    <row r="98" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+    </row>
+    <row r="99" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+    </row>
+    <row r="100" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+    </row>
+    <row r="101" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+    </row>
+    <row r="102" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+    </row>
+    <row r="103" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+    </row>
+    <row r="104" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+    </row>
+    <row r="105" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+    </row>
+    <row r="106" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+    </row>
+    <row r="107" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
+    </row>
+    <row r="108" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+    </row>
+    <row r="109" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
+    </row>
+    <row r="110" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+    </row>
+    <row r="111" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+    </row>
+    <row r="112" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
+    </row>
+    <row r="129" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+    </row>
+    <row r="136" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+    </row>
+    <row r="142" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+    </row>
+    <row r="167" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+    </row>
+    <row r="169" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+    </row>
+    <row r="172" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K172" s="10"/>
+      <c r="L172" s="10"/>
+      <c r="M172" s="10"/>
+      <c r="N172" s="10"/>
+    </row>
+    <row r="183" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K183" s="10"/>
+      <c r="L183" s="10"/>
+      <c r="M183" s="10"/>
+      <c r="N183" s="10"/>
+    </row>
+    <row r="184" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K184" s="10"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="10"/>
+      <c r="N184" s="10"/>
+    </row>
+    <row r="186" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+    </row>
+    <row r="188" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K188" s="10"/>
+      <c r="L188" s="10"/>
+      <c r="M188" s="10"/>
+      <c r="N188" s="10"/>
+    </row>
+    <row r="197" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+    </row>
+    <row r="209" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K209" s="12"/>
+      <c r="L209" s="12"/>
+      <c r="M209" s="12"/>
+      <c r="N209" s="12"/>
+    </row>
+    <row r="211" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K211" s="12"/>
+      <c r="L211" s="12"/>
+      <c r="M211" s="12"/>
+      <c r="N211" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/main_data.xlsx
+++ b/main_data.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thijsstuyver/Desktop/Perovskite_my_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F524A59-7BD6-4241-A3A4-9DC9FF640343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C41F0B-3BE7-FC4E-B729-80BC7C11C316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="760" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="760" windowWidth="30220" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_07_15_film" sheetId="2" r:id="rId1"/>
     <sheet name="2022_07_15_device" sheetId="1" r:id="rId2"/>
     <sheet name="2022_07_21_film-new" sheetId="3" r:id="rId3"/>
     <sheet name="2022_07_21_device-new" sheetId="4" r:id="rId4"/>
+    <sheet name="2023_08_07_device" sheetId="5" r:id="rId5"/>
+    <sheet name="2023_08_07_film" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
   <si>
     <t>Condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +208,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -356,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -455,6 +463,32 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,10 +773,10 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="3" width="14.5" customWidth="1"/>
@@ -756,7 +790,7 @@
     <col min="11" max="11" width="11.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -826,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -861,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -896,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -931,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -966,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1001,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1036,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1071,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1106,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1141,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1176,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1211,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1246,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1281,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1316,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1351,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1386,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1421,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1456,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1491,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1515,10 +1549,10 @@
   <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="3" width="14.5" customWidth="1"/>
@@ -1535,7 +1569,7 @@
     <col min="14" max="14" width="42.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1623,7 +1657,7 @@
         <v>23.880500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1667,7 +1701,7 @@
         <v>26.283999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1711,7 +1745,7 @@
         <v>25.302199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1755,7 +1789,7 @@
         <v>23.997800000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1799,7 +1833,7 @@
         <v>24.1326</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1843,7 +1877,7 @@
         <v>23.0306</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -1887,7 +1921,7 @@
         <v>24.146699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="13">
         <v>4</v>
       </c>
@@ -1931,7 +1965,7 @@
         <v>26.095099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="13">
         <v>4</v>
       </c>
@@ -1975,7 +2009,7 @@
         <v>25.779</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="13">
         <v>4</v>
       </c>
@@ -2019,7 +2053,7 @@
         <v>25.465900000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -2063,7 +2097,7 @@
         <v>25.488</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -2107,7 +2141,7 @@
         <v>25.480799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -2151,7 +2185,7 @@
         <v>25.476500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -2195,7 +2229,7 @@
         <v>25.305299999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -2239,7 +2273,7 @@
         <v>24.1083</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -2283,7 +2317,7 @@
         <v>26.077100000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -2327,7 +2361,7 @@
         <v>25.782900000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -2371,7 +2405,7 @@
         <v>24.105799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -2415,7 +2449,7 @@
         <v>25.308299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -2459,7 +2493,7 @@
         <v>25.7758</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -2503,7 +2537,7 @@
         <v>25.241342</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -2547,7 +2581,7 @@
         <v>24.194022</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -2591,7 +2625,7 @@
         <v>21.432625999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -2635,7 +2669,7 @@
         <v>25.561185999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -2679,7 +2713,7 @@
         <v>23.444900000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -2723,7 +2757,7 @@
         <v>24.040427999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="2">
         <v>9</v>
       </c>
@@ -2767,7 +2801,7 @@
         <v>25.7562</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="2">
         <v>10</v>
       </c>
@@ -2811,7 +2845,7 @@
         <v>22.936699999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="2">
         <v>11</v>
       </c>
@@ -2855,7 +2889,7 @@
         <v>25.4514</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="2">
         <v>11</v>
       </c>
@@ -2899,7 +2933,7 @@
         <v>25.485700000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="2">
         <v>11</v>
       </c>
@@ -2943,7 +2977,7 @@
         <v>25.182592</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>11</v>
       </c>
@@ -2987,7 +3021,7 @@
         <v>24.776335</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>12</v>
       </c>
@@ -3031,7 +3065,7 @@
         <v>25.710100000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>12</v>
       </c>
@@ -3075,7 +3109,7 @@
         <v>22.476800000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>12</v>
       </c>
@@ -3119,7 +3153,7 @@
         <v>25.955500000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>12</v>
       </c>
@@ -3163,7 +3197,7 @@
         <v>24.363499999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>13</v>
       </c>
@@ -3207,7 +3241,7 @@
         <v>22.803999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>14</v>
       </c>
@@ -3251,7 +3285,7 @@
         <v>23.880500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>15</v>
       </c>
@@ -3295,7 +3329,7 @@
         <v>24.221399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>16</v>
       </c>
@@ -3339,7 +3373,7 @@
         <v>24.363499999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="2">
         <v>17</v>
       </c>
@@ -3383,7 +3417,7 @@
         <v>25.633199999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="2">
         <v>17</v>
       </c>
@@ -3427,7 +3461,7 @@
         <v>24.8691</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="2">
         <v>17</v>
       </c>
@@ -3471,7 +3505,7 @@
         <v>24.403099999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="2">
         <v>17</v>
       </c>
@@ -3515,7 +3549,7 @@
         <v>24.901700000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="2">
         <v>18</v>
       </c>
@@ -3559,7 +3593,7 @@
         <v>18.174900000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="2">
         <v>18</v>
       </c>
@@ -3603,7 +3637,7 @@
         <v>25.007899999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="2">
         <v>18</v>
       </c>
@@ -3647,7 +3681,7 @@
         <v>24.7727</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="2">
         <v>18</v>
       </c>
@@ -3691,7 +3725,7 @@
         <v>25.032800000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="2">
         <v>19</v>
       </c>
@@ -3735,7 +3769,7 @@
         <v>25.021799999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="2">
         <v>20</v>
       </c>
@@ -3779,7 +3813,7 @@
         <v>24.4635</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3795,7 +3829,7 @@
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3811,7 +3845,7 @@
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3827,7 +3861,7 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3843,7 +3877,7 @@
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3859,13 +3893,13 @@
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3877,7 +3911,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3889,7 +3923,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3901,7 +3935,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3913,7 +3947,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3925,7 +3959,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3937,7 +3971,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3949,7 +3983,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3961,7 +3995,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3973,7 +4007,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3985,7 +4019,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3997,7 +4031,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4009,7 +4043,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4021,7 +4055,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4033,25 +4067,25 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -4060,145 +4094,145 @@
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="11:14">
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
     </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="11:14">
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
     </row>
-    <row r="100" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="11:14">
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
     </row>
-    <row r="119" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="11:14">
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
       <c r="N119" s="12"/>
     </row>
-    <row r="127" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="11:14">
       <c r="K127" s="10"/>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
     </row>
-    <row r="134" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="11:14">
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
       <c r="N134" s="12"/>
     </row>
-    <row r="136" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="11:14">
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
       <c r="N136" s="12"/>
     </row>
-    <row r="153" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="11:14">
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
       <c r="N153" s="12"/>
     </row>
-    <row r="162" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="11:14">
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
       <c r="M162" s="12"/>
       <c r="N162" s="12"/>
     </row>
-    <row r="164" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="11:14">
       <c r="K164" s="12"/>
       <c r="L164" s="12"/>
       <c r="M164" s="12"/>
       <c r="N164" s="12"/>
     </row>
-    <row r="169" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="11:14">
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
       <c r="N169" s="12"/>
     </row>
-    <row r="186" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="11:14">
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
       <c r="M186" s="12"/>
       <c r="N186" s="12"/>
     </row>
-    <row r="193" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="11:14">
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
       <c r="M193" s="12"/>
       <c r="N193" s="12"/>
     </row>
-    <row r="199" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="11:14">
       <c r="K199" s="12"/>
       <c r="L199" s="12"/>
       <c r="M199" s="12"/>
       <c r="N199" s="12"/>
     </row>
-    <row r="224" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="11:14">
       <c r="K224" s="12"/>
       <c r="L224" s="12"/>
       <c r="M224" s="12"/>
       <c r="N224" s="12"/>
     </row>
-    <row r="226" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="11:14">
       <c r="K226" s="12"/>
       <c r="L226" s="12"/>
       <c r="M226" s="12"/>
       <c r="N226" s="12"/>
     </row>
-    <row r="229" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="11:14">
       <c r="K229" s="10"/>
       <c r="L229" s="10"/>
       <c r="M229" s="10"/>
       <c r="N229" s="10"/>
     </row>
-    <row r="240" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="11:14">
       <c r="K240" s="10"/>
       <c r="L240" s="10"/>
       <c r="M240" s="10"/>
       <c r="N240" s="10"/>
     </row>
-    <row r="241" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="11:14">
       <c r="K241" s="10"/>
       <c r="L241" s="10"/>
       <c r="M241" s="10"/>
       <c r="N241" s="10"/>
     </row>
-    <row r="243" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="11:14">
       <c r="K243" s="12"/>
       <c r="L243" s="12"/>
       <c r="M243" s="12"/>
       <c r="N243" s="12"/>
     </row>
-    <row r="245" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="11:14">
       <c r="K245" s="10"/>
       <c r="L245" s="10"/>
       <c r="M245" s="10"/>
       <c r="N245" s="10"/>
     </row>
-    <row r="254" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="11:14">
       <c r="K254" s="12"/>
       <c r="L254" s="12"/>
       <c r="M254" s="12"/>
       <c r="N254" s="12"/>
     </row>
-    <row r="266" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="11:14">
       <c r="K266" s="12"/>
       <c r="L266" s="12"/>
       <c r="M266" s="12"/>
       <c r="N266" s="12"/>
     </row>
-    <row r="268" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="11:14">
       <c r="K268" s="12"/>
       <c r="L268" s="12"/>
       <c r="M268" s="12"/>
@@ -4215,10 +4249,10 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J21"/>
+      <selection activeCell="I1" sqref="I1:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="3" width="14.5" customWidth="1"/>
@@ -4232,7 +4266,7 @@
     <col min="11" max="11" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +4301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>21</v>
       </c>
@@ -4302,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>22</v>
       </c>
@@ -4337,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>23</v>
       </c>
@@ -4372,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>24</v>
       </c>
@@ -4407,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>25</v>
       </c>
@@ -4442,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>26</v>
       </c>
@@ -4477,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>27</v>
       </c>
@@ -4512,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>28</v>
       </c>
@@ -4547,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>29</v>
       </c>
@@ -4582,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>30</v>
       </c>
@@ -4617,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>31</v>
       </c>
@@ -4652,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>32</v>
       </c>
@@ -4687,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>33</v>
       </c>
@@ -4722,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>34</v>
       </c>
@@ -4757,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35</v>
       </c>
@@ -4792,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>36</v>
       </c>
@@ -4827,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>37</v>
       </c>
@@ -4862,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>38</v>
       </c>
@@ -4897,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>39</v>
       </c>
@@ -4932,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>40</v>
       </c>
@@ -4977,11 +5011,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEF5206-2E45-40BA-94F5-2F790E97DCF8}">
   <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="3" width="14.5" customWidth="1"/>
@@ -4998,7 +5032,7 @@
     <col min="14" max="14" width="42.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5042,7 +5076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="20">
         <v>21</v>
       </c>
@@ -5086,7 +5120,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="20">
         <v>21</v>
       </c>
@@ -5130,7 +5164,7 @@
         <v>25.345400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="20">
         <v>21</v>
       </c>
@@ -5174,7 +5208,7 @@
         <v>25.704699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="20">
         <v>21</v>
       </c>
@@ -5218,7 +5252,7 @@
         <v>25.4956</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="21">
         <v>22</v>
       </c>
@@ -5262,7 +5296,7 @@
         <v>25.421800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="21">
         <v>22</v>
       </c>
@@ -5306,7 +5340,7 @@
         <v>25.476099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="21">
         <v>22</v>
       </c>
@@ -5350,7 +5384,7 @@
         <v>25.486799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="21">
         <v>22</v>
       </c>
@@ -5394,7 +5428,7 @@
         <v>25.232600000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="22">
         <v>23</v>
       </c>
@@ -5438,7 +5472,7 @@
         <v>25.377099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="22">
         <v>23</v>
       </c>
@@ -5482,7 +5516,7 @@
         <v>25.380700000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="22">
         <v>23</v>
       </c>
@@ -5526,7 +5560,7 @@
         <v>25.505700000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="22">
         <v>23</v>
       </c>
@@ -5570,7 +5604,7 @@
         <v>25.3748</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="23">
         <v>24</v>
       </c>
@@ -5614,7 +5648,7 @@
         <v>24.492599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="23">
         <v>24</v>
       </c>
@@ -5658,7 +5692,7 @@
         <v>25.1557</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="23">
         <v>24</v>
       </c>
@@ -5702,7 +5736,7 @@
         <v>25.4922</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="23">
         <v>24</v>
       </c>
@@ -5746,7 +5780,7 @@
         <v>25.593599999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="25">
         <v>25</v>
       </c>
@@ -5790,7 +5824,7 @@
         <v>25.2804</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="25">
         <v>25</v>
       </c>
@@ -5834,7 +5868,7 @@
         <v>25.410599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="25">
         <v>25</v>
       </c>
@@ -5878,7 +5912,7 @@
         <v>25.428999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="25">
         <v>25</v>
       </c>
@@ -5922,7 +5956,7 @@
         <v>24.872399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="23">
         <v>26</v>
       </c>
@@ -5966,7 +6000,7 @@
         <v>24.581167000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="23">
         <v>26</v>
       </c>
@@ -6010,7 +6044,7 @@
         <v>23.214490000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="23">
         <v>26</v>
       </c>
@@ -6054,7 +6088,7 @@
         <v>24.399598000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="23">
         <v>26</v>
       </c>
@@ -6098,7 +6132,7 @@
         <v>24.385147</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="26">
         <v>27</v>
       </c>
@@ -6142,7 +6176,7 @@
         <v>25.169786999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="26">
         <v>27</v>
       </c>
@@ -6186,7 +6220,7 @@
         <v>25.530342999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="26">
         <v>27</v>
       </c>
@@ -6230,7 +6264,7 @@
         <v>25.6172</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="26">
         <v>27</v>
       </c>
@@ -6274,7 +6308,7 @@
         <v>25.3337</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -6318,7 +6352,7 @@
         <v>22.639047999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="22">
         <v>28</v>
       </c>
@@ -6362,7 +6396,7 @@
         <v>22.468630000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="22">
         <v>28</v>
       </c>
@@ -6406,7 +6440,7 @@
         <v>22.538906999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="22">
         <v>28</v>
       </c>
@@ -6450,7 +6484,7 @@
         <v>22.616651999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="25">
         <v>29</v>
       </c>
@@ -6494,7 +6528,7 @@
         <v>23.506898</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="25">
         <v>29</v>
       </c>
@@ -6538,7 +6572,7 @@
         <v>23.379290999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="25">
         <v>29</v>
       </c>
@@ -6582,7 +6616,7 @@
         <v>22.785584</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="25">
         <v>29</v>
       </c>
@@ -6626,7 +6660,7 @@
         <v>23.432658</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="27">
         <v>30</v>
       </c>
@@ -6670,7 +6704,7 @@
         <v>22.077921</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="27">
         <v>30</v>
       </c>
@@ -6714,7 +6748,7 @@
         <v>22.618312</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="27">
         <v>30</v>
       </c>
@@ -6758,7 +6792,7 @@
         <v>23.111321</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="27">
         <v>30</v>
       </c>
@@ -6802,7 +6836,7 @@
         <v>22.748429000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="28">
         <v>31</v>
       </c>
@@ -6846,7 +6880,7 @@
         <v>24.693441</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="28">
         <v>31</v>
       </c>
@@ -6890,7 +6924,7 @@
         <v>24.651814999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="28">
         <v>31</v>
       </c>
@@ -6934,7 +6968,7 @@
         <v>25.407599999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="28">
         <v>31</v>
       </c>
@@ -6978,7 +7012,7 @@
         <v>25.409199999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="29">
         <v>32</v>
       </c>
@@ -7022,7 +7056,7 @@
         <v>25.407299999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="29">
         <v>32</v>
       </c>
@@ -7066,7 +7100,7 @@
         <v>25.406600000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="29">
         <v>32</v>
       </c>
@@ -7110,7 +7144,7 @@
         <v>25.7499</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="29">
         <v>32</v>
       </c>
@@ -7154,7 +7188,7 @@
         <v>25.4575</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="30">
         <v>33</v>
       </c>
@@ -7198,7 +7232,7 @@
         <v>25.203499999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="30">
         <v>33</v>
       </c>
@@ -7242,7 +7276,7 @@
         <v>25.192</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="30">
         <v>33</v>
       </c>
@@ -7286,7 +7320,7 @@
         <v>25.184699999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="30">
         <v>33</v>
       </c>
@@ -7330,7 +7364,7 @@
         <v>25.388999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="31">
         <v>34</v>
       </c>
@@ -7374,7 +7408,7 @@
         <v>25.584609</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="31">
         <v>34</v>
       </c>
@@ -7418,7 +7452,7 @@
         <v>25.981589</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="31">
         <v>34</v>
       </c>
@@ -7462,7 +7496,7 @@
         <v>26.0505</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="31">
         <v>34</v>
       </c>
@@ -7506,7 +7540,7 @@
         <v>25.403099999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="32">
         <v>35</v>
       </c>
@@ -7550,7 +7584,7 @@
         <v>24.125308</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="32">
         <v>35</v>
       </c>
@@ -7594,7 +7628,7 @@
         <v>24.306823000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="32">
         <v>35</v>
       </c>
@@ -7638,7 +7672,7 @@
         <v>24.485067000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="32">
         <v>35</v>
       </c>
@@ -7682,7 +7716,7 @@
         <v>25.388400000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="24">
         <v>36</v>
       </c>
@@ -7726,7 +7760,7 @@
         <v>25.345600000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="24">
         <v>36</v>
       </c>
@@ -7770,7 +7804,7 @@
         <v>25.337</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="24">
         <v>36</v>
       </c>
@@ -7814,7 +7848,7 @@
         <v>25.160399999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="24">
         <v>36</v>
       </c>
@@ -7858,7 +7892,7 @@
         <v>25.663699999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="29">
         <v>37</v>
       </c>
@@ -7902,7 +7936,7 @@
         <v>22.087018</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="29">
         <v>37</v>
       </c>
@@ -7946,7 +7980,7 @@
         <v>23.042804</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="29">
         <v>37</v>
       </c>
@@ -7990,7 +8024,7 @@
         <v>23.483152</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="29">
         <v>37</v>
       </c>
@@ -8034,7 +8068,7 @@
         <v>23.427295999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="33">
         <v>38</v>
       </c>
@@ -8078,7 +8112,7 @@
         <v>25.456900000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="33">
         <v>38</v>
       </c>
@@ -8122,7 +8156,7 @@
         <v>25.350100000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="33">
         <v>38</v>
       </c>
@@ -8166,7 +8200,7 @@
         <v>25.339600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="33">
         <v>38</v>
       </c>
@@ -8210,7 +8244,7 @@
         <v>27.268211999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="34">
         <v>39</v>
       </c>
@@ -8254,7 +8288,7 @@
         <v>22.657353000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="34">
         <v>39</v>
       </c>
@@ -8298,7 +8332,7 @@
         <v>21.79204</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="34">
         <v>39</v>
       </c>
@@ -8342,7 +8376,7 @@
         <v>17.457917999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77" s="34">
         <v>39</v>
       </c>
@@ -8386,7 +8420,7 @@
         <v>23.897337</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" s="2">
         <v>40</v>
       </c>
@@ -8430,7 +8464,7 @@
         <v>25.498699999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" s="2">
         <v>40</v>
       </c>
@@ -8474,7 +8508,7 @@
         <v>25.177078999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80" s="2">
         <v>40</v>
       </c>
@@ -8518,7 +8552,7 @@
         <v>25.539663999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81" s="2">
         <v>40</v>
       </c>
@@ -8562,241 +8596,241 @@
         <v>25.6677</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14">
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
       <c r="N86" s="14"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14">
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
       <c r="N87" s="14"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14">
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
       <c r="N88" s="14"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14">
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14">
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14">
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14">
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14">
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14">
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
       <c r="N94" s="14"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14">
       <c r="K95" s="14"/>
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
       <c r="N95" s="14"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14">
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
       <c r="N96" s="14"/>
     </row>
-    <row r="97" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="11:14">
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
       <c r="N97" s="14"/>
     </row>
-    <row r="98" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="11:14">
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
       <c r="N98" s="14"/>
     </row>
-    <row r="99" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="11:14">
       <c r="K99" s="14"/>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
       <c r="N99" s="14"/>
     </row>
-    <row r="100" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="11:14">
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
       <c r="N100" s="14"/>
     </row>
-    <row r="101" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="11:14">
       <c r="K101" s="14"/>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
     </row>
-    <row r="102" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="11:14">
       <c r="K102" s="14"/>
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
       <c r="N102" s="14"/>
     </row>
-    <row r="103" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="11:14">
       <c r="K103" s="14"/>
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
       <c r="N103" s="14"/>
     </row>
-    <row r="104" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="11:14">
       <c r="K104" s="14"/>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
       <c r="N104" s="14"/>
     </row>
-    <row r="105" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="11:14">
       <c r="K105" s="14"/>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
       <c r="N105" s="14"/>
     </row>
-    <row r="106" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="11:14">
       <c r="K106" s="14"/>
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
       <c r="N106" s="14"/>
     </row>
-    <row r="107" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="11:14">
       <c r="K107" s="14"/>
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
       <c r="N107" s="14"/>
     </row>
-    <row r="108" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="11:14">
       <c r="K108" s="14"/>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
       <c r="N108" s="14"/>
     </row>
-    <row r="109" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="11:14">
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
       <c r="N109" s="14"/>
     </row>
-    <row r="110" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="11:14">
       <c r="K110" s="14"/>
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
     </row>
-    <row r="111" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="11:14">
       <c r="K111" s="14"/>
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
       <c r="N111" s="14"/>
     </row>
-    <row r="112" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="11:14">
       <c r="K112" s="14"/>
       <c r="L112" s="14"/>
       <c r="M112" s="14"/>
       <c r="N112" s="14"/>
     </row>
-    <row r="129" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="11:14">
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
       <c r="N129" s="12"/>
     </row>
-    <row r="136" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="11:14">
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
       <c r="N136" s="12"/>
     </row>
-    <row r="142" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="11:14">
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
       <c r="M142" s="12"/>
       <c r="N142" s="12"/>
     </row>
-    <row r="167" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="11:14">
       <c r="K167" s="12"/>
       <c r="L167" s="12"/>
       <c r="M167" s="12"/>
       <c r="N167" s="12"/>
     </row>
-    <row r="169" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="11:14">
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
       <c r="N169" s="12"/>
     </row>
-    <row r="172" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="11:14">
       <c r="K172" s="10"/>
       <c r="L172" s="10"/>
       <c r="M172" s="10"/>
       <c r="N172" s="10"/>
     </row>
-    <row r="183" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="11:14">
       <c r="K183" s="10"/>
       <c r="L183" s="10"/>
       <c r="M183" s="10"/>
       <c r="N183" s="10"/>
     </row>
-    <row r="184" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="11:14">
       <c r="K184" s="10"/>
       <c r="L184" s="10"/>
       <c r="M184" s="10"/>
       <c r="N184" s="10"/>
     </row>
-    <row r="186" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="11:14">
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
       <c r="M186" s="12"/>
       <c r="N186" s="12"/>
     </row>
-    <row r="188" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="11:14">
       <c r="K188" s="10"/>
       <c r="L188" s="10"/>
       <c r="M188" s="10"/>
       <c r="N188" s="10"/>
     </row>
-    <row r="197" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="11:14">
       <c r="K197" s="12"/>
       <c r="L197" s="12"/>
       <c r="M197" s="12"/>
       <c r="N197" s="12"/>
     </row>
-    <row r="209" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="11:14">
       <c r="K209" s="12"/>
       <c r="L209" s="12"/>
       <c r="M209" s="12"/>
       <c r="N209" s="12"/>
     </row>
-    <row r="211" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="11:14">
       <c r="K211" s="12"/>
       <c r="L211" s="12"/>
       <c r="M211" s="12"/>
@@ -8807,4 +8841,4356 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64012E9-463D-3547-904B-85BF1E5E7C8B}">
+  <dimension ref="A1:N81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="41">
+        <v>41</v>
+      </c>
+      <c r="B2" s="42">
+        <v>0</v>
+      </c>
+      <c r="C2" s="42">
+        <v>90</v>
+      </c>
+      <c r="D2" s="42">
+        <v>10</v>
+      </c>
+      <c r="E2" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="42">
+        <v>130</v>
+      </c>
+      <c r="G2" s="42">
+        <v>20</v>
+      </c>
+      <c r="H2" s="42">
+        <v>21</v>
+      </c>
+      <c r="I2" s="43">
+        <v>25</v>
+      </c>
+      <c r="J2" s="43">
+        <v>30</v>
+      </c>
+      <c r="K2" s="42">
+        <v>1.1326000000000001</v>
+      </c>
+      <c r="L2" s="42">
+        <v>79.594499999999996</v>
+      </c>
+      <c r="M2" s="42">
+        <v>23.1355</v>
+      </c>
+      <c r="N2" s="42">
+        <v>25.663699999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="41">
+        <v>41</v>
+      </c>
+      <c r="B3" s="42">
+        <v>0</v>
+      </c>
+      <c r="C3" s="42">
+        <v>90</v>
+      </c>
+      <c r="D3" s="42">
+        <v>10</v>
+      </c>
+      <c r="E3" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="42">
+        <v>130</v>
+      </c>
+      <c r="G3" s="42">
+        <v>20</v>
+      </c>
+      <c r="H3" s="42">
+        <v>21</v>
+      </c>
+      <c r="I3" s="43">
+        <v>25</v>
+      </c>
+      <c r="J3" s="43">
+        <v>30</v>
+      </c>
+      <c r="K3" s="42">
+        <v>1.1208100000000001</v>
+      </c>
+      <c r="L3" s="42">
+        <v>80.016800000000003</v>
+      </c>
+      <c r="M3" s="42">
+        <v>22.867999999999999</v>
+      </c>
+      <c r="N3" s="42">
+        <v>25.498699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="41">
+        <v>41</v>
+      </c>
+      <c r="B4" s="42">
+        <v>0</v>
+      </c>
+      <c r="C4" s="42">
+        <v>90</v>
+      </c>
+      <c r="D4" s="42">
+        <v>10</v>
+      </c>
+      <c r="E4" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="42">
+        <v>130</v>
+      </c>
+      <c r="G4" s="42">
+        <v>20</v>
+      </c>
+      <c r="H4" s="42">
+        <v>21</v>
+      </c>
+      <c r="I4" s="43">
+        <v>25</v>
+      </c>
+      <c r="J4" s="43">
+        <v>30</v>
+      </c>
+      <c r="K4" s="42">
+        <v>1.1370499999999999</v>
+      </c>
+      <c r="L4" s="42">
+        <v>78.496899999999997</v>
+      </c>
+      <c r="M4" s="42">
+        <v>22.680199999999999</v>
+      </c>
+      <c r="N4" s="42">
+        <v>25.410599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="41">
+        <v>41</v>
+      </c>
+      <c r="B5" s="42">
+        <v>0</v>
+      </c>
+      <c r="C5" s="42">
+        <v>90</v>
+      </c>
+      <c r="D5" s="42">
+        <v>10</v>
+      </c>
+      <c r="E5" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="42">
+        <v>130</v>
+      </c>
+      <c r="G5" s="42">
+        <v>20</v>
+      </c>
+      <c r="H5" s="42">
+        <v>21</v>
+      </c>
+      <c r="I5" s="43">
+        <v>25</v>
+      </c>
+      <c r="J5" s="43">
+        <v>30</v>
+      </c>
+      <c r="K5" s="42">
+        <v>1.13741</v>
+      </c>
+      <c r="L5" s="42">
+        <v>80.202699999999993</v>
+      </c>
+      <c r="M5" s="42">
+        <v>23.223199999999999</v>
+      </c>
+      <c r="N5" s="42">
+        <v>25.4575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="41">
+        <v>42</v>
+      </c>
+      <c r="B6" s="42">
+        <v>5</v>
+      </c>
+      <c r="C6" s="42">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D6" s="42">
+        <v>5</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="42">
+        <v>125</v>
+      </c>
+      <c r="G6" s="42">
+        <v>30</v>
+      </c>
+      <c r="H6" s="42">
+        <v>29</v>
+      </c>
+      <c r="I6" s="43">
+        <v>25</v>
+      </c>
+      <c r="J6" s="43">
+        <v>30</v>
+      </c>
+      <c r="K6" s="42">
+        <v>1.13635</v>
+      </c>
+      <c r="L6" s="42">
+        <v>74.2363</v>
+      </c>
+      <c r="M6" s="42">
+        <v>21.516200000000001</v>
+      </c>
+      <c r="N6" s="42">
+        <v>25.505700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="41">
+        <v>42</v>
+      </c>
+      <c r="B7" s="42">
+        <v>5</v>
+      </c>
+      <c r="C7" s="42">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D7" s="42">
+        <v>5</v>
+      </c>
+      <c r="E7" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="42">
+        <v>125</v>
+      </c>
+      <c r="G7" s="42">
+        <v>30</v>
+      </c>
+      <c r="H7" s="42">
+        <v>29</v>
+      </c>
+      <c r="I7" s="43">
+        <v>25</v>
+      </c>
+      <c r="J7" s="43">
+        <v>30</v>
+      </c>
+      <c r="K7" s="42">
+        <v>1.1328499999999999</v>
+      </c>
+      <c r="L7" s="42">
+        <v>74.360900000000001</v>
+      </c>
+      <c r="M7" s="42">
+        <v>21.191099999999999</v>
+      </c>
+      <c r="N7" s="42">
+        <v>25.1557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="41">
+        <v>42</v>
+      </c>
+      <c r="B8" s="42">
+        <v>5</v>
+      </c>
+      <c r="C8" s="42">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D8" s="42">
+        <v>5</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="42">
+        <v>125</v>
+      </c>
+      <c r="G8" s="42">
+        <v>30</v>
+      </c>
+      <c r="H8" s="42">
+        <v>29</v>
+      </c>
+      <c r="I8" s="43">
+        <v>25</v>
+      </c>
+      <c r="J8" s="44">
+        <v>30</v>
+      </c>
+      <c r="K8" s="42">
+        <v>1.12209</v>
+      </c>
+      <c r="L8" s="42">
+        <v>75.402799999999999</v>
+      </c>
+      <c r="M8" s="42">
+        <v>21.5152</v>
+      </c>
+      <c r="N8" s="42">
+        <v>25.428999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="41">
+        <v>42</v>
+      </c>
+      <c r="B9" s="42">
+        <v>5</v>
+      </c>
+      <c r="C9" s="42">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D9" s="42">
+        <v>5</v>
+      </c>
+      <c r="E9" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="42">
+        <v>125</v>
+      </c>
+      <c r="G9" s="42">
+        <v>30</v>
+      </c>
+      <c r="H9" s="42">
+        <v>29</v>
+      </c>
+      <c r="I9" s="43">
+        <v>25</v>
+      </c>
+      <c r="J9" s="44">
+        <v>30</v>
+      </c>
+      <c r="K9" s="42">
+        <v>1.1122399999999999</v>
+      </c>
+      <c r="L9" s="42">
+        <v>78.217299999999994</v>
+      </c>
+      <c r="M9" s="42">
+        <v>22.177299999999999</v>
+      </c>
+      <c r="N9" s="42">
+        <v>25.4922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="35" customFormat="1">
+      <c r="A10" s="41">
+        <v>43</v>
+      </c>
+      <c r="B10" s="42">
+        <v>0</v>
+      </c>
+      <c r="C10" s="42">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D10" s="42">
+        <v>5</v>
+      </c>
+      <c r="E10" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="42">
+        <v>125</v>
+      </c>
+      <c r="G10" s="42">
+        <v>30</v>
+      </c>
+      <c r="H10" s="42">
+        <v>29</v>
+      </c>
+      <c r="I10" s="43">
+        <v>25</v>
+      </c>
+      <c r="J10" s="44">
+        <v>30</v>
+      </c>
+      <c r="K10" s="42">
+        <v>1.13384</v>
+      </c>
+      <c r="L10" s="42">
+        <v>75.855900000000005</v>
+      </c>
+      <c r="M10" s="42">
+        <v>21.0657</v>
+      </c>
+      <c r="N10" s="42">
+        <v>24.492599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="35" customFormat="1">
+      <c r="A11" s="41">
+        <v>43</v>
+      </c>
+      <c r="B11" s="42">
+        <v>0</v>
+      </c>
+      <c r="C11" s="42">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D11" s="42">
+        <v>5</v>
+      </c>
+      <c r="E11" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="42">
+        <v>125</v>
+      </c>
+      <c r="G11" s="42">
+        <v>30</v>
+      </c>
+      <c r="H11" s="42">
+        <v>29</v>
+      </c>
+      <c r="I11" s="43">
+        <v>25</v>
+      </c>
+      <c r="J11" s="44">
+        <v>30</v>
+      </c>
+      <c r="K11" s="42">
+        <v>1.11155</v>
+      </c>
+      <c r="L11" s="42">
+        <v>75.902000000000001</v>
+      </c>
+      <c r="M11" s="42">
+        <v>21.2639</v>
+      </c>
+      <c r="N11" s="42">
+        <v>25.203499999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="35" customFormat="1">
+      <c r="A12" s="41">
+        <v>43</v>
+      </c>
+      <c r="B12" s="42">
+        <v>0</v>
+      </c>
+      <c r="C12" s="42">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D12" s="42">
+        <v>5</v>
+      </c>
+      <c r="E12" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="42">
+        <v>125</v>
+      </c>
+      <c r="G12" s="42">
+        <v>30</v>
+      </c>
+      <c r="H12" s="42">
+        <v>29</v>
+      </c>
+      <c r="I12" s="43">
+        <v>25</v>
+      </c>
+      <c r="J12" s="43">
+        <v>30</v>
+      </c>
+      <c r="K12" s="42">
+        <v>1.1178399999999999</v>
+      </c>
+      <c r="L12" s="42">
+        <v>79.903899999999993</v>
+      </c>
+      <c r="M12" s="42">
+        <v>22.580400000000001</v>
+      </c>
+      <c r="N12" s="42">
+        <v>25.2804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="35" customFormat="1">
+      <c r="A13" s="41">
+        <v>43</v>
+      </c>
+      <c r="B13" s="42">
+        <v>0</v>
+      </c>
+      <c r="C13" s="42">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D13" s="42">
+        <v>5</v>
+      </c>
+      <c r="E13" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="42">
+        <v>125</v>
+      </c>
+      <c r="G13" s="42">
+        <v>30</v>
+      </c>
+      <c r="H13" s="42">
+        <v>29</v>
+      </c>
+      <c r="I13" s="43">
+        <v>25</v>
+      </c>
+      <c r="J13" s="43">
+        <v>30</v>
+      </c>
+      <c r="K13" s="42">
+        <v>1.1123400000000001</v>
+      </c>
+      <c r="L13" s="42">
+        <v>79.928299999999993</v>
+      </c>
+      <c r="M13" s="42">
+        <v>22.7546</v>
+      </c>
+      <c r="N13" s="42">
+        <v>25.593599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="35" customFormat="1">
+      <c r="A14" s="41">
+        <v>44</v>
+      </c>
+      <c r="B14" s="42">
+        <v>0</v>
+      </c>
+      <c r="C14" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D14" s="42">
+        <v>10</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="42">
+        <v>130</v>
+      </c>
+      <c r="G14" s="42">
+        <v>20</v>
+      </c>
+      <c r="H14" s="42">
+        <v>21</v>
+      </c>
+      <c r="I14" s="43">
+        <v>25</v>
+      </c>
+      <c r="J14" s="43">
+        <v>30</v>
+      </c>
+      <c r="K14" s="42">
+        <v>1.14734</v>
+      </c>
+      <c r="L14" s="42">
+        <v>81.888599999999997</v>
+      </c>
+      <c r="M14" s="42">
+        <v>24.293399999999998</v>
+      </c>
+      <c r="N14" s="42">
+        <v>25.8567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="35" customFormat="1">
+      <c r="A15" s="41">
+        <v>44</v>
+      </c>
+      <c r="B15" s="42">
+        <v>0</v>
+      </c>
+      <c r="C15" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D15" s="42">
+        <v>10</v>
+      </c>
+      <c r="E15" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="42">
+        <v>130</v>
+      </c>
+      <c r="G15" s="42">
+        <v>20</v>
+      </c>
+      <c r="H15" s="42">
+        <v>21</v>
+      </c>
+      <c r="I15" s="43">
+        <v>25</v>
+      </c>
+      <c r="J15" s="43">
+        <v>30</v>
+      </c>
+      <c r="K15" s="42">
+        <v>1.13947</v>
+      </c>
+      <c r="L15" s="42">
+        <v>80.452100000000002</v>
+      </c>
+      <c r="M15" s="42">
+        <v>23.5124</v>
+      </c>
+      <c r="N15" s="42">
+        <v>25.648199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="35" customFormat="1">
+      <c r="A16" s="41">
+        <v>44</v>
+      </c>
+      <c r="B16" s="42">
+        <v>0</v>
+      </c>
+      <c r="C16" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D16" s="42">
+        <v>10</v>
+      </c>
+      <c r="E16" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="42">
+        <v>130</v>
+      </c>
+      <c r="G16" s="42">
+        <v>20</v>
+      </c>
+      <c r="H16" s="42">
+        <v>21</v>
+      </c>
+      <c r="I16" s="43">
+        <v>25</v>
+      </c>
+      <c r="J16" s="43">
+        <v>30</v>
+      </c>
+      <c r="K16" s="42">
+        <v>1.1368199999999999</v>
+      </c>
+      <c r="L16" s="42">
+        <v>80.650099999999995</v>
+      </c>
+      <c r="M16" s="42">
+        <v>23.4831</v>
+      </c>
+      <c r="N16" s="42">
+        <v>25.6127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="41">
+        <v>44</v>
+      </c>
+      <c r="B17" s="42">
+        <v>0</v>
+      </c>
+      <c r="C17" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D17" s="42">
+        <v>10</v>
+      </c>
+      <c r="E17" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="42">
+        <v>130</v>
+      </c>
+      <c r="G17" s="42">
+        <v>20</v>
+      </c>
+      <c r="H17" s="42">
+        <v>21</v>
+      </c>
+      <c r="I17" s="43">
+        <v>25</v>
+      </c>
+      <c r="J17" s="43">
+        <v>30</v>
+      </c>
+      <c r="K17" s="42">
+        <v>1.1418900000000001</v>
+      </c>
+      <c r="L17" s="42">
+        <v>82.577200000000005</v>
+      </c>
+      <c r="M17" s="42">
+        <v>24.256699999999999</v>
+      </c>
+      <c r="N17" s="42">
+        <v>25.724499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="41">
+        <v>45</v>
+      </c>
+      <c r="B18" s="42">
+        <v>0</v>
+      </c>
+      <c r="C18" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D18" s="42">
+        <v>10</v>
+      </c>
+      <c r="E18" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="42">
+        <v>130</v>
+      </c>
+      <c r="G18" s="42">
+        <v>20</v>
+      </c>
+      <c r="H18" s="42">
+        <v>23</v>
+      </c>
+      <c r="I18" s="43">
+        <v>25</v>
+      </c>
+      <c r="J18" s="43">
+        <v>30</v>
+      </c>
+      <c r="K18" s="42">
+        <v>1.14812</v>
+      </c>
+      <c r="L18" s="42">
+        <v>81.832800000000006</v>
+      </c>
+      <c r="M18" s="42">
+        <v>24.345600000000001</v>
+      </c>
+      <c r="N18" s="42">
+        <v>25.912299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="41">
+        <v>45</v>
+      </c>
+      <c r="B19" s="42">
+        <v>0</v>
+      </c>
+      <c r="C19" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D19" s="42">
+        <v>10</v>
+      </c>
+      <c r="E19" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="42">
+        <v>130</v>
+      </c>
+      <c r="G19" s="42">
+        <v>20</v>
+      </c>
+      <c r="H19" s="42">
+        <v>23</v>
+      </c>
+      <c r="I19" s="43">
+        <v>25</v>
+      </c>
+      <c r="J19" s="43">
+        <v>30</v>
+      </c>
+      <c r="K19" s="42">
+        <v>1.1401300000000001</v>
+      </c>
+      <c r="L19" s="42">
+        <v>80.341499999999996</v>
+      </c>
+      <c r="M19" s="42">
+        <v>23.521799999999999</v>
+      </c>
+      <c r="N19" s="42">
+        <v>25.678899999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="41">
+        <v>45</v>
+      </c>
+      <c r="B20" s="42">
+        <v>0</v>
+      </c>
+      <c r="C20" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D20" s="42">
+        <v>10</v>
+      </c>
+      <c r="E20" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="42">
+        <v>130</v>
+      </c>
+      <c r="G20" s="42">
+        <v>20</v>
+      </c>
+      <c r="H20" s="42">
+        <v>23</v>
+      </c>
+      <c r="I20" s="43">
+        <v>25</v>
+      </c>
+      <c r="J20" s="43">
+        <v>30</v>
+      </c>
+      <c r="K20" s="42">
+        <v>1.1456299999999999</v>
+      </c>
+      <c r="L20" s="42">
+        <v>82.052599999999998</v>
+      </c>
+      <c r="M20" s="42">
+        <v>24.321300000000001</v>
+      </c>
+      <c r="N20" s="42">
+        <v>25.873200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="41">
+        <v>45</v>
+      </c>
+      <c r="B21" s="42">
+        <v>0</v>
+      </c>
+      <c r="C21" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D21" s="42">
+        <v>10</v>
+      </c>
+      <c r="E21" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="42">
+        <v>130</v>
+      </c>
+      <c r="G21" s="42">
+        <v>20</v>
+      </c>
+      <c r="H21" s="42">
+        <v>23</v>
+      </c>
+      <c r="I21" s="43">
+        <v>25</v>
+      </c>
+      <c r="J21" s="43">
+        <v>30</v>
+      </c>
+      <c r="K21" s="42">
+        <v>1.1427799999999999</v>
+      </c>
+      <c r="L21" s="42">
+        <v>82.484200000000001</v>
+      </c>
+      <c r="M21" s="42">
+        <v>24.278400000000001</v>
+      </c>
+      <c r="N21" s="42">
+        <v>25.756399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="41">
+        <v>46</v>
+      </c>
+      <c r="B22" s="42">
+        <v>0</v>
+      </c>
+      <c r="C22" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D22" s="42">
+        <v>15</v>
+      </c>
+      <c r="E22" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="42">
+        <v>125</v>
+      </c>
+      <c r="G22" s="42">
+        <v>20</v>
+      </c>
+      <c r="H22" s="42">
+        <v>17</v>
+      </c>
+      <c r="I22" s="43">
+        <v>25</v>
+      </c>
+      <c r="J22" s="43">
+        <v>30</v>
+      </c>
+      <c r="K22" s="42">
+        <v>1.1534500000000001</v>
+      </c>
+      <c r="L22" s="42">
+        <v>83.164100000000005</v>
+      </c>
+      <c r="M22" s="42">
+        <v>24.395600000000002</v>
+      </c>
+      <c r="N22" s="42">
+        <v>25.431799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="41">
+        <v>46</v>
+      </c>
+      <c r="B23" s="42">
+        <v>0</v>
+      </c>
+      <c r="C23" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D23" s="42">
+        <v>15</v>
+      </c>
+      <c r="E23" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F23" s="42">
+        <v>125</v>
+      </c>
+      <c r="G23" s="42">
+        <v>20</v>
+      </c>
+      <c r="H23" s="42">
+        <v>17</v>
+      </c>
+      <c r="I23" s="43">
+        <v>25</v>
+      </c>
+      <c r="J23" s="43">
+        <v>30</v>
+      </c>
+      <c r="K23" s="42">
+        <v>1.1720299999999999</v>
+      </c>
+      <c r="L23" s="42">
+        <v>81.846199999999996</v>
+      </c>
+      <c r="M23" s="42">
+        <v>24.482299999999999</v>
+      </c>
+      <c r="N23" s="42">
+        <v>25.521999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="41">
+        <v>46</v>
+      </c>
+      <c r="B24" s="42">
+        <v>0</v>
+      </c>
+      <c r="C24" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D24" s="42">
+        <v>15</v>
+      </c>
+      <c r="E24" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="42">
+        <v>125</v>
+      </c>
+      <c r="G24" s="42">
+        <v>20</v>
+      </c>
+      <c r="H24" s="42">
+        <v>17</v>
+      </c>
+      <c r="I24" s="43">
+        <v>25</v>
+      </c>
+      <c r="J24" s="43">
+        <v>30</v>
+      </c>
+      <c r="K24" s="42">
+        <v>1.1552100000000001</v>
+      </c>
+      <c r="L24" s="42">
+        <v>83.738399999999999</v>
+      </c>
+      <c r="M24" s="42">
+        <v>24.7042</v>
+      </c>
+      <c r="N24" s="42">
+        <v>25.5379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="41">
+        <v>46</v>
+      </c>
+      <c r="B25" s="42">
+        <v>0</v>
+      </c>
+      <c r="C25" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D25" s="42">
+        <v>15</v>
+      </c>
+      <c r="E25" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="42">
+        <v>125</v>
+      </c>
+      <c r="G25" s="42">
+        <v>20</v>
+      </c>
+      <c r="H25" s="42">
+        <v>17</v>
+      </c>
+      <c r="I25" s="43">
+        <v>25</v>
+      </c>
+      <c r="J25" s="43">
+        <v>30</v>
+      </c>
+      <c r="K25" s="42">
+        <v>1.1709799999999999</v>
+      </c>
+      <c r="L25" s="42">
+        <v>83.202600000000004</v>
+      </c>
+      <c r="M25" s="42">
+        <v>24.859100000000002</v>
+      </c>
+      <c r="N25" s="42">
+        <v>25.5152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="41">
+        <v>47</v>
+      </c>
+      <c r="B26" s="42">
+        <v>0</v>
+      </c>
+      <c r="C26" s="42">
+        <v>90</v>
+      </c>
+      <c r="D26" s="42">
+        <v>10</v>
+      </c>
+      <c r="E26" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="42">
+        <v>125</v>
+      </c>
+      <c r="G26" s="42">
+        <v>20</v>
+      </c>
+      <c r="H26" s="42">
+        <v>21</v>
+      </c>
+      <c r="I26" s="43">
+        <v>25</v>
+      </c>
+      <c r="J26" s="43">
+        <v>30</v>
+      </c>
+      <c r="K26" s="42">
+        <v>1.1293299999999999</v>
+      </c>
+      <c r="L26" s="42">
+        <v>80.927599999999998</v>
+      </c>
+      <c r="M26" s="42">
+        <v>22.7318</v>
+      </c>
+      <c r="N26" s="42">
+        <v>24.872399999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="41">
+        <v>47</v>
+      </c>
+      <c r="B27" s="42">
+        <v>0</v>
+      </c>
+      <c r="C27" s="42">
+        <v>90</v>
+      </c>
+      <c r="D27" s="42">
+        <v>10</v>
+      </c>
+      <c r="E27" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="42">
+        <v>125</v>
+      </c>
+      <c r="G27" s="42">
+        <v>20</v>
+      </c>
+      <c r="H27" s="42">
+        <v>21</v>
+      </c>
+      <c r="I27" s="43">
+        <v>25</v>
+      </c>
+      <c r="J27" s="43">
+        <v>30</v>
+      </c>
+      <c r="K27" s="42">
+        <v>1.1362099999999999</v>
+      </c>
+      <c r="L27" s="42">
+        <v>80.682400000000001</v>
+      </c>
+      <c r="M27" s="42">
+        <v>23.4712</v>
+      </c>
+      <c r="N27" s="42">
+        <v>25.603400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="41">
+        <v>47</v>
+      </c>
+      <c r="B28" s="42">
+        <v>0</v>
+      </c>
+      <c r="C28" s="42">
+        <v>90</v>
+      </c>
+      <c r="D28" s="42">
+        <v>10</v>
+      </c>
+      <c r="E28" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="42">
+        <v>125</v>
+      </c>
+      <c r="G28" s="42">
+        <v>20</v>
+      </c>
+      <c r="H28" s="42">
+        <v>21</v>
+      </c>
+      <c r="I28" s="43">
+        <v>25</v>
+      </c>
+      <c r="J28" s="43">
+        <v>30</v>
+      </c>
+      <c r="K28" s="42">
+        <v>1.1609100000000001</v>
+      </c>
+      <c r="L28" s="42">
+        <v>82.323599999999999</v>
+      </c>
+      <c r="M28" s="42">
+        <v>24.308499999999999</v>
+      </c>
+      <c r="N28" s="42">
+        <v>25.435199999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="41">
+        <v>47</v>
+      </c>
+      <c r="B29" s="42">
+        <v>0</v>
+      </c>
+      <c r="C29" s="42">
+        <v>90</v>
+      </c>
+      <c r="D29" s="42">
+        <v>10</v>
+      </c>
+      <c r="E29" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="42">
+        <v>125</v>
+      </c>
+      <c r="G29" s="42">
+        <v>20</v>
+      </c>
+      <c r="H29" s="42">
+        <v>21</v>
+      </c>
+      <c r="I29" s="43">
+        <v>25</v>
+      </c>
+      <c r="J29" s="43">
+        <v>30</v>
+      </c>
+      <c r="K29" s="42">
+        <v>1.1456299999999999</v>
+      </c>
+      <c r="L29" s="42">
+        <v>82.052599999999998</v>
+      </c>
+      <c r="M29" s="42">
+        <v>24.321300000000001</v>
+      </c>
+      <c r="N29" s="42">
+        <v>25.873200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="41">
+        <v>48</v>
+      </c>
+      <c r="B30" s="42">
+        <v>0</v>
+      </c>
+      <c r="C30" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D30" s="42">
+        <v>10</v>
+      </c>
+      <c r="E30" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F30" s="42">
+        <v>125</v>
+      </c>
+      <c r="G30" s="42">
+        <v>20</v>
+      </c>
+      <c r="H30" s="42">
+        <v>21</v>
+      </c>
+      <c r="I30" s="43">
+        <v>25</v>
+      </c>
+      <c r="J30" s="43">
+        <v>30</v>
+      </c>
+      <c r="K30" s="42">
+        <v>1.1541300000000001</v>
+      </c>
+      <c r="L30" s="42">
+        <v>82.499899999999997</v>
+      </c>
+      <c r="M30" s="42">
+        <v>24.215599999999998</v>
+      </c>
+      <c r="N30" s="42">
+        <v>25.423400000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="41">
+        <v>48</v>
+      </c>
+      <c r="B31" s="42">
+        <v>0</v>
+      </c>
+      <c r="C31" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D31" s="42">
+        <v>10</v>
+      </c>
+      <c r="E31" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F31" s="42">
+        <v>125</v>
+      </c>
+      <c r="G31" s="42">
+        <v>20</v>
+      </c>
+      <c r="H31" s="42">
+        <v>21</v>
+      </c>
+      <c r="I31" s="43">
+        <v>25</v>
+      </c>
+      <c r="J31" s="43">
+        <v>30</v>
+      </c>
+      <c r="K31" s="42">
+        <v>1.1640299999999999</v>
+      </c>
+      <c r="L31" s="42">
+        <v>82.213099999999997</v>
+      </c>
+      <c r="M31" s="42">
+        <v>24.328700000000001</v>
+      </c>
+      <c r="N31" s="42">
+        <v>25.422000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="41">
+        <v>48</v>
+      </c>
+      <c r="B32" s="42">
+        <v>0</v>
+      </c>
+      <c r="C32" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D32" s="42">
+        <v>10</v>
+      </c>
+      <c r="E32" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F32" s="42">
+        <v>125</v>
+      </c>
+      <c r="G32" s="42">
+        <v>20</v>
+      </c>
+      <c r="H32" s="42">
+        <v>21</v>
+      </c>
+      <c r="I32" s="43">
+        <v>25</v>
+      </c>
+      <c r="J32" s="43">
+        <v>30</v>
+      </c>
+      <c r="K32" s="42">
+        <v>1.17056</v>
+      </c>
+      <c r="L32" s="42">
+        <v>82.008799999999994</v>
+      </c>
+      <c r="M32" s="42">
+        <v>24.691500000000001</v>
+      </c>
+      <c r="N32" s="42">
+        <v>25.721299999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="41">
+        <v>48</v>
+      </c>
+      <c r="B33" s="42">
+        <v>0</v>
+      </c>
+      <c r="C33" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D33" s="42">
+        <v>10</v>
+      </c>
+      <c r="E33" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F33" s="42">
+        <v>125</v>
+      </c>
+      <c r="G33" s="42">
+        <v>20</v>
+      </c>
+      <c r="H33" s="42">
+        <v>21</v>
+      </c>
+      <c r="I33" s="43">
+        <v>25</v>
+      </c>
+      <c r="J33" s="43">
+        <v>30</v>
+      </c>
+      <c r="K33" s="42">
+        <v>1.1512899999999999</v>
+      </c>
+      <c r="L33" s="42">
+        <v>83.306600000000003</v>
+      </c>
+      <c r="M33" s="42">
+        <v>24.4892</v>
+      </c>
+      <c r="N33" s="42">
+        <v>25.5335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="41">
+        <v>49</v>
+      </c>
+      <c r="B34" s="42">
+        <v>0</v>
+      </c>
+      <c r="C34" s="42">
+        <v>90</v>
+      </c>
+      <c r="D34" s="42">
+        <v>10</v>
+      </c>
+      <c r="E34" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F34" s="42">
+        <v>130</v>
+      </c>
+      <c r="G34" s="42">
+        <v>20</v>
+      </c>
+      <c r="H34" s="42">
+        <v>19</v>
+      </c>
+      <c r="I34" s="43">
+        <v>25</v>
+      </c>
+      <c r="J34" s="43">
+        <v>30</v>
+      </c>
+      <c r="K34" s="42">
+        <v>1.10334</v>
+      </c>
+      <c r="L34" s="42">
+        <v>81.083600000000004</v>
+      </c>
+      <c r="M34" s="42">
+        <v>22.701000000000001</v>
+      </c>
+      <c r="N34" s="42">
+        <v>25.3748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="41">
+        <v>49</v>
+      </c>
+      <c r="B35" s="42">
+        <v>0</v>
+      </c>
+      <c r="C35" s="42">
+        <v>90</v>
+      </c>
+      <c r="D35" s="42">
+        <v>10</v>
+      </c>
+      <c r="E35" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F35" s="42">
+        <v>130</v>
+      </c>
+      <c r="G35" s="42">
+        <v>20</v>
+      </c>
+      <c r="H35" s="42">
+        <v>19</v>
+      </c>
+      <c r="I35" s="43">
+        <v>25</v>
+      </c>
+      <c r="J35" s="43">
+        <v>30</v>
+      </c>
+      <c r="K35" s="42">
+        <v>1.16103</v>
+      </c>
+      <c r="L35" s="42">
+        <v>81.867400000000004</v>
+      </c>
+      <c r="M35" s="42">
+        <v>24.0687</v>
+      </c>
+      <c r="N35" s="42">
+        <v>25.321999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="41">
+        <v>49</v>
+      </c>
+      <c r="B36" s="42">
+        <v>0</v>
+      </c>
+      <c r="C36" s="42">
+        <v>90</v>
+      </c>
+      <c r="D36" s="42">
+        <v>10</v>
+      </c>
+      <c r="E36" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F36" s="42">
+        <v>130</v>
+      </c>
+      <c r="G36" s="42">
+        <v>20</v>
+      </c>
+      <c r="H36" s="42">
+        <v>19</v>
+      </c>
+      <c r="I36" s="43">
+        <v>25</v>
+      </c>
+      <c r="J36" s="43">
+        <v>30</v>
+      </c>
+      <c r="K36" s="42">
+        <v>1.1574800000000001</v>
+      </c>
+      <c r="L36" s="42">
+        <v>81.971100000000007</v>
+      </c>
+      <c r="M36" s="42">
+        <v>24.025300000000001</v>
+      </c>
+      <c r="N36" s="42">
+        <v>25.3218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="41">
+        <v>49</v>
+      </c>
+      <c r="B37" s="42">
+        <v>0</v>
+      </c>
+      <c r="C37" s="42">
+        <v>90</v>
+      </c>
+      <c r="D37" s="42">
+        <v>10</v>
+      </c>
+      <c r="E37" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F37" s="42">
+        <v>130</v>
+      </c>
+      <c r="G37" s="42">
+        <v>20</v>
+      </c>
+      <c r="H37" s="42">
+        <v>19</v>
+      </c>
+      <c r="I37" s="43">
+        <v>25</v>
+      </c>
+      <c r="J37" s="43">
+        <v>30</v>
+      </c>
+      <c r="K37" s="42">
+        <v>1.15784</v>
+      </c>
+      <c r="L37" s="42">
+        <v>81.918899999999994</v>
+      </c>
+      <c r="M37" s="42">
+        <v>23.913599999999999</v>
+      </c>
+      <c r="N37" s="42">
+        <v>25.212299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="41">
+        <v>50</v>
+      </c>
+      <c r="B38" s="42">
+        <v>0</v>
+      </c>
+      <c r="C38" s="42">
+        <v>90</v>
+      </c>
+      <c r="D38" s="42">
+        <v>10</v>
+      </c>
+      <c r="E38" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F38" s="42">
+        <v>125</v>
+      </c>
+      <c r="G38" s="42">
+        <v>20</v>
+      </c>
+      <c r="H38" s="42">
+        <v>19</v>
+      </c>
+      <c r="I38" s="43">
+        <v>25</v>
+      </c>
+      <c r="J38" s="43">
+        <v>30</v>
+      </c>
+      <c r="K38" s="42">
+        <v>1.1623399999999999</v>
+      </c>
+      <c r="L38" s="42">
+        <v>82.082899999999995</v>
+      </c>
+      <c r="M38" s="42">
+        <v>24.267199999999999</v>
+      </c>
+      <c r="N38" s="42">
+        <v>25.435099999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="41">
+        <v>50</v>
+      </c>
+      <c r="B39" s="42">
+        <v>0</v>
+      </c>
+      <c r="C39" s="42">
+        <v>90</v>
+      </c>
+      <c r="D39" s="42">
+        <v>10</v>
+      </c>
+      <c r="E39" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F39" s="42">
+        <v>125</v>
+      </c>
+      <c r="G39" s="42">
+        <v>20</v>
+      </c>
+      <c r="H39" s="42">
+        <v>19</v>
+      </c>
+      <c r="I39" s="43">
+        <v>25</v>
+      </c>
+      <c r="J39" s="43">
+        <v>30</v>
+      </c>
+      <c r="K39" s="42">
+        <v>1.15821</v>
+      </c>
+      <c r="L39" s="42">
+        <v>82.261899999999997</v>
+      </c>
+      <c r="M39" s="42">
+        <v>24.255400000000002</v>
+      </c>
+      <c r="N39" s="42">
+        <v>25.457899999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="41">
+        <v>50</v>
+      </c>
+      <c r="B40" s="42">
+        <v>0</v>
+      </c>
+      <c r="C40" s="42">
+        <v>90</v>
+      </c>
+      <c r="D40" s="42">
+        <v>10</v>
+      </c>
+      <c r="E40" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F40" s="42">
+        <v>125</v>
+      </c>
+      <c r="G40" s="42">
+        <v>20</v>
+      </c>
+      <c r="H40" s="42">
+        <v>19</v>
+      </c>
+      <c r="I40" s="43">
+        <v>25</v>
+      </c>
+      <c r="J40" s="43">
+        <v>30</v>
+      </c>
+      <c r="K40" s="42">
+        <v>1.1631100000000001</v>
+      </c>
+      <c r="L40" s="42">
+        <v>82.137600000000006</v>
+      </c>
+      <c r="M40" s="42">
+        <v>24.309100000000001</v>
+      </c>
+      <c r="N40" s="42">
+        <v>25.4452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="41">
+        <v>50</v>
+      </c>
+      <c r="B41" s="42">
+        <v>0</v>
+      </c>
+      <c r="C41" s="42">
+        <v>90</v>
+      </c>
+      <c r="D41" s="42">
+        <v>10</v>
+      </c>
+      <c r="E41" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="42">
+        <v>125</v>
+      </c>
+      <c r="G41" s="42">
+        <v>20</v>
+      </c>
+      <c r="H41" s="42">
+        <v>19</v>
+      </c>
+      <c r="I41" s="43">
+        <v>25</v>
+      </c>
+      <c r="J41" s="43">
+        <v>30</v>
+      </c>
+      <c r="K41" s="42">
+        <v>1.1594500000000001</v>
+      </c>
+      <c r="L41" s="42">
+        <v>82.361099999999993</v>
+      </c>
+      <c r="M41" s="42">
+        <v>24.295300000000001</v>
+      </c>
+      <c r="N41" s="42">
+        <v>25.441800000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="41">
+        <v>51</v>
+      </c>
+      <c r="B42" s="42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D42" s="42">
+        <v>15</v>
+      </c>
+      <c r="E42" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F42" s="42">
+        <v>125</v>
+      </c>
+      <c r="G42" s="42">
+        <v>20</v>
+      </c>
+      <c r="H42" s="42">
+        <v>21</v>
+      </c>
+      <c r="I42" s="43">
+        <v>25</v>
+      </c>
+      <c r="J42" s="43">
+        <v>30</v>
+      </c>
+      <c r="K42" s="42">
+        <v>1.1634500000000001</v>
+      </c>
+      <c r="L42" s="42">
+        <v>81.804500000000004</v>
+      </c>
+      <c r="M42" s="42">
+        <v>24.0932</v>
+      </c>
+      <c r="N42" s="42">
+        <v>25.314499999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="41">
+        <v>51</v>
+      </c>
+      <c r="B43" s="42">
+        <v>0</v>
+      </c>
+      <c r="C43" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D43" s="42">
+        <v>15</v>
+      </c>
+      <c r="E43" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F43" s="42">
+        <v>125</v>
+      </c>
+      <c r="G43" s="42">
+        <v>20</v>
+      </c>
+      <c r="H43" s="42">
+        <v>21</v>
+      </c>
+      <c r="I43" s="43">
+        <v>25</v>
+      </c>
+      <c r="J43" s="43">
+        <v>30</v>
+      </c>
+      <c r="K43" s="42">
+        <v>1.16872</v>
+      </c>
+      <c r="L43" s="42">
+        <v>81.236199999999997</v>
+      </c>
+      <c r="M43" s="42">
+        <v>24.0532</v>
+      </c>
+      <c r="N43" s="42">
+        <v>25.334499999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="41">
+        <v>51</v>
+      </c>
+      <c r="B44" s="42">
+        <v>0</v>
+      </c>
+      <c r="C44" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D44" s="42">
+        <v>15</v>
+      </c>
+      <c r="E44" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F44" s="42">
+        <v>125</v>
+      </c>
+      <c r="G44" s="42">
+        <v>20</v>
+      </c>
+      <c r="H44" s="42">
+        <v>21</v>
+      </c>
+      <c r="I44" s="43">
+        <v>25</v>
+      </c>
+      <c r="J44" s="43">
+        <v>30</v>
+      </c>
+      <c r="K44" s="42">
+        <v>1.1775199999999999</v>
+      </c>
+      <c r="L44" s="42">
+        <v>80.914500000000004</v>
+      </c>
+      <c r="M44" s="42">
+        <v>24.2136</v>
+      </c>
+      <c r="N44" s="42">
+        <v>25.413499999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="41">
+        <v>51</v>
+      </c>
+      <c r="B45" s="42">
+        <v>0</v>
+      </c>
+      <c r="C45" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D45" s="42">
+        <v>15</v>
+      </c>
+      <c r="E45" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F45" s="42">
+        <v>125</v>
+      </c>
+      <c r="G45" s="42">
+        <v>20</v>
+      </c>
+      <c r="H45" s="42">
+        <v>21</v>
+      </c>
+      <c r="I45" s="43">
+        <v>25</v>
+      </c>
+      <c r="J45" s="43">
+        <v>30</v>
+      </c>
+      <c r="K45" s="42">
+        <v>1.1657200000000001</v>
+      </c>
+      <c r="L45" s="42">
+        <v>82.991600000000005</v>
+      </c>
+      <c r="M45" s="42">
+        <v>24.7136</v>
+      </c>
+      <c r="N45" s="42">
+        <v>25.545100000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="41">
+        <v>52</v>
+      </c>
+      <c r="B46" s="42">
+        <v>0</v>
+      </c>
+      <c r="C46" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D46" s="42">
+        <v>10</v>
+      </c>
+      <c r="E46" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F46" s="42">
+        <v>125</v>
+      </c>
+      <c r="G46" s="42">
+        <v>20</v>
+      </c>
+      <c r="H46" s="42">
+        <v>21</v>
+      </c>
+      <c r="I46" s="43">
+        <v>25</v>
+      </c>
+      <c r="J46" s="43">
+        <v>30</v>
+      </c>
+      <c r="K46" s="42">
+        <v>1.1732400000000001</v>
+      </c>
+      <c r="L46" s="42">
+        <v>83.298400000000001</v>
+      </c>
+      <c r="M46" s="42">
+        <v>24.903600000000001</v>
+      </c>
+      <c r="N46" s="42">
+        <v>25.482299999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="41">
+        <v>52</v>
+      </c>
+      <c r="B47" s="42">
+        <v>0</v>
+      </c>
+      <c r="C47" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D47" s="42">
+        <v>10</v>
+      </c>
+      <c r="E47" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="42">
+        <v>125</v>
+      </c>
+      <c r="G47" s="42">
+        <v>20</v>
+      </c>
+      <c r="H47" s="42">
+        <v>21</v>
+      </c>
+      <c r="I47" s="43">
+        <v>25</v>
+      </c>
+      <c r="J47" s="43">
+        <v>30</v>
+      </c>
+      <c r="K47" s="42">
+        <v>1.1623399999999999</v>
+      </c>
+      <c r="L47" s="42">
+        <v>81.619200000000006</v>
+      </c>
+      <c r="M47" s="42">
+        <v>24.0136</v>
+      </c>
+      <c r="N47" s="42">
+        <v>25.3123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="41">
+        <v>52</v>
+      </c>
+      <c r="B48" s="42">
+        <v>0</v>
+      </c>
+      <c r="C48" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D48" s="42">
+        <v>10</v>
+      </c>
+      <c r="E48" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F48" s="42">
+        <v>125</v>
+      </c>
+      <c r="G48" s="42">
+        <v>20</v>
+      </c>
+      <c r="H48" s="42">
+        <v>21</v>
+      </c>
+      <c r="I48" s="43">
+        <v>25</v>
+      </c>
+      <c r="J48" s="43">
+        <v>30</v>
+      </c>
+      <c r="K48" s="42">
+        <v>1.1754500000000001</v>
+      </c>
+      <c r="L48" s="42">
+        <v>83.002099999999999</v>
+      </c>
+      <c r="M48" s="42">
+        <v>24.8932</v>
+      </c>
+      <c r="N48" s="42">
+        <v>25.514500000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="41">
+        <v>52</v>
+      </c>
+      <c r="B49" s="42">
+        <v>0</v>
+      </c>
+      <c r="C49" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D49" s="42">
+        <v>10</v>
+      </c>
+      <c r="E49" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F49" s="42">
+        <v>125</v>
+      </c>
+      <c r="G49" s="42">
+        <v>20</v>
+      </c>
+      <c r="H49" s="42">
+        <v>21</v>
+      </c>
+      <c r="I49" s="43">
+        <v>25</v>
+      </c>
+      <c r="J49" s="43">
+        <v>30</v>
+      </c>
+      <c r="K49" s="42">
+        <v>1.1600299999999999</v>
+      </c>
+      <c r="L49" s="42">
+        <v>83.964299999999994</v>
+      </c>
+      <c r="M49" s="42">
+        <v>24.858699999999999</v>
+      </c>
+      <c r="N49" s="42">
+        <v>25.521999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="41">
+        <v>53</v>
+      </c>
+      <c r="B50" s="42">
+        <v>0</v>
+      </c>
+      <c r="C50" s="42">
+        <v>90</v>
+      </c>
+      <c r="D50" s="42">
+        <v>10</v>
+      </c>
+      <c r="E50" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F50" s="42">
+        <v>125</v>
+      </c>
+      <c r="G50" s="42">
+        <v>20</v>
+      </c>
+      <c r="H50" s="42">
+        <v>21</v>
+      </c>
+      <c r="I50" s="43">
+        <v>25</v>
+      </c>
+      <c r="J50" s="43">
+        <v>30</v>
+      </c>
+      <c r="K50" s="42">
+        <v>1.15567</v>
+      </c>
+      <c r="L50" s="42">
+        <v>82.086600000000004</v>
+      </c>
+      <c r="M50" s="42">
+        <v>24.027799999999999</v>
+      </c>
+      <c r="N50" s="42">
+        <v>25.328399999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="41">
+        <v>53</v>
+      </c>
+      <c r="B51" s="42">
+        <v>0</v>
+      </c>
+      <c r="C51" s="42">
+        <v>90</v>
+      </c>
+      <c r="D51" s="42">
+        <v>10</v>
+      </c>
+      <c r="E51" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F51" s="42">
+        <v>125</v>
+      </c>
+      <c r="G51" s="42">
+        <v>20</v>
+      </c>
+      <c r="H51" s="42">
+        <v>21</v>
+      </c>
+      <c r="I51" s="43">
+        <v>25</v>
+      </c>
+      <c r="J51" s="43">
+        <v>30</v>
+      </c>
+      <c r="K51" s="42">
+        <v>1.16124</v>
+      </c>
+      <c r="L51" s="42">
+        <v>81.972200000000001</v>
+      </c>
+      <c r="M51" s="42">
+        <v>24.1234</v>
+      </c>
+      <c r="N51" s="42">
+        <v>25.342500000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="41">
+        <v>53</v>
+      </c>
+      <c r="B52" s="42">
+        <v>0</v>
+      </c>
+      <c r="C52" s="42">
+        <v>90</v>
+      </c>
+      <c r="D52" s="42">
+        <v>10</v>
+      </c>
+      <c r="E52" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F52" s="42">
+        <v>125</v>
+      </c>
+      <c r="G52" s="42">
+        <v>20</v>
+      </c>
+      <c r="H52" s="42">
+        <v>21</v>
+      </c>
+      <c r="I52" s="43">
+        <v>25</v>
+      </c>
+      <c r="J52" s="43">
+        <v>30</v>
+      </c>
+      <c r="K52" s="42">
+        <v>1.1628400000000001</v>
+      </c>
+      <c r="L52" s="42">
+        <v>81.505899999999997</v>
+      </c>
+      <c r="M52" s="42">
+        <v>24.104299999999999</v>
+      </c>
+      <c r="N52" s="42">
+        <v>25.432300000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="41">
+        <v>53</v>
+      </c>
+      <c r="B53" s="42">
+        <v>0</v>
+      </c>
+      <c r="C53" s="42">
+        <v>90</v>
+      </c>
+      <c r="D53" s="42">
+        <v>10</v>
+      </c>
+      <c r="E53" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F53" s="42">
+        <v>125</v>
+      </c>
+      <c r="G53" s="42">
+        <v>20</v>
+      </c>
+      <c r="H53" s="42">
+        <v>21</v>
+      </c>
+      <c r="I53" s="43">
+        <v>25</v>
+      </c>
+      <c r="J53" s="43">
+        <v>30</v>
+      </c>
+      <c r="K53" s="42">
+        <v>1.17632</v>
+      </c>
+      <c r="L53" s="42">
+        <v>81.666399999999996</v>
+      </c>
+      <c r="M53" s="42">
+        <v>24.453199999999999</v>
+      </c>
+      <c r="N53" s="42">
+        <v>25.454499999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="41">
+        <v>54</v>
+      </c>
+      <c r="B54" s="42">
+        <v>0</v>
+      </c>
+      <c r="C54" s="42">
+        <v>80</v>
+      </c>
+      <c r="D54" s="42">
+        <v>10</v>
+      </c>
+      <c r="E54" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F54" s="42">
+        <v>135</v>
+      </c>
+      <c r="G54" s="42">
+        <v>20</v>
+      </c>
+      <c r="H54" s="42">
+        <v>21</v>
+      </c>
+      <c r="I54" s="43">
+        <v>25</v>
+      </c>
+      <c r="J54" s="43">
+        <v>30</v>
+      </c>
+      <c r="K54" s="42">
+        <v>1.1591199999999999</v>
+      </c>
+      <c r="L54" s="42">
+        <v>82.104900000000001</v>
+      </c>
+      <c r="M54" s="42">
+        <v>24.0854</v>
+      </c>
+      <c r="N54" s="42">
+        <v>25.3079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="41">
+        <v>54</v>
+      </c>
+      <c r="B55" s="42">
+        <v>0</v>
+      </c>
+      <c r="C55" s="42">
+        <v>80</v>
+      </c>
+      <c r="D55" s="42">
+        <v>10</v>
+      </c>
+      <c r="E55" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F55" s="42">
+        <v>135</v>
+      </c>
+      <c r="G55" s="42">
+        <v>20</v>
+      </c>
+      <c r="H55" s="42">
+        <v>21</v>
+      </c>
+      <c r="I55" s="43">
+        <v>25</v>
+      </c>
+      <c r="J55" s="43">
+        <v>30</v>
+      </c>
+      <c r="K55" s="42">
+        <v>1.16093</v>
+      </c>
+      <c r="L55" s="42">
+        <v>83.257900000000006</v>
+      </c>
+      <c r="M55" s="42">
+        <v>24.668700000000001</v>
+      </c>
+      <c r="N55" s="42">
+        <v>25.521999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="41">
+        <v>54</v>
+      </c>
+      <c r="B56" s="42">
+        <v>0</v>
+      </c>
+      <c r="C56" s="42">
+        <v>80</v>
+      </c>
+      <c r="D56" s="42">
+        <v>10</v>
+      </c>
+      <c r="E56" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F56" s="42">
+        <v>135</v>
+      </c>
+      <c r="G56" s="42">
+        <v>20</v>
+      </c>
+      <c r="H56" s="42">
+        <v>21</v>
+      </c>
+      <c r="I56" s="43">
+        <v>25</v>
+      </c>
+      <c r="J56" s="43">
+        <v>30</v>
+      </c>
+      <c r="K56" s="42">
+        <v>1.17167</v>
+      </c>
+      <c r="L56" s="42">
+        <v>82.769900000000007</v>
+      </c>
+      <c r="M56" s="42">
+        <v>24.727799999999998</v>
+      </c>
+      <c r="N56" s="42">
+        <v>25.4984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="41">
+        <v>54</v>
+      </c>
+      <c r="B57" s="42">
+        <v>0</v>
+      </c>
+      <c r="C57" s="42">
+        <v>80</v>
+      </c>
+      <c r="D57" s="42">
+        <v>10</v>
+      </c>
+      <c r="E57" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F57" s="42">
+        <v>135</v>
+      </c>
+      <c r="G57" s="42">
+        <v>20</v>
+      </c>
+      <c r="H57" s="42">
+        <v>21</v>
+      </c>
+      <c r="I57" s="43">
+        <v>25</v>
+      </c>
+      <c r="J57" s="43">
+        <v>30</v>
+      </c>
+      <c r="K57" s="42">
+        <v>1.1654500000000001</v>
+      </c>
+      <c r="L57" s="42">
+        <v>83.041700000000006</v>
+      </c>
+      <c r="M57" s="42">
+        <v>24.693200000000001</v>
+      </c>
+      <c r="N57" s="42">
+        <v>25.514500000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="41">
+        <v>55</v>
+      </c>
+      <c r="B58" s="42">
+        <v>0</v>
+      </c>
+      <c r="C58" s="42">
+        <v>90</v>
+      </c>
+      <c r="D58" s="42">
+        <v>10</v>
+      </c>
+      <c r="E58" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F58" s="42">
+        <v>130</v>
+      </c>
+      <c r="G58" s="42">
+        <v>20</v>
+      </c>
+      <c r="H58" s="42">
+        <v>21</v>
+      </c>
+      <c r="I58" s="43">
+        <v>25</v>
+      </c>
+      <c r="J58" s="43">
+        <v>30</v>
+      </c>
+      <c r="K58" s="42">
+        <v>1.1731199999999999</v>
+      </c>
+      <c r="L58" s="42">
+        <v>80.882099999999994</v>
+      </c>
+      <c r="M58" s="42">
+        <v>24.112300000000001</v>
+      </c>
+      <c r="N58" s="42">
+        <v>25.412299999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="41">
+        <v>55</v>
+      </c>
+      <c r="B59" s="42">
+        <v>0</v>
+      </c>
+      <c r="C59" s="42">
+        <v>90</v>
+      </c>
+      <c r="D59" s="42">
+        <v>10</v>
+      </c>
+      <c r="E59" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F59" s="42">
+        <v>130</v>
+      </c>
+      <c r="G59" s="42">
+        <v>20</v>
+      </c>
+      <c r="H59" s="42">
+        <v>21</v>
+      </c>
+      <c r="I59" s="43">
+        <v>25</v>
+      </c>
+      <c r="J59" s="43">
+        <v>30</v>
+      </c>
+      <c r="K59" s="42">
+        <v>1.1506700000000001</v>
+      </c>
+      <c r="L59" s="42">
+        <v>82.081100000000006</v>
+      </c>
+      <c r="M59" s="42">
+        <v>23.8278</v>
+      </c>
+      <c r="N59" s="42">
+        <v>25.228400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="41">
+        <v>55</v>
+      </c>
+      <c r="B60" s="42">
+        <v>0</v>
+      </c>
+      <c r="C60" s="42">
+        <v>90</v>
+      </c>
+      <c r="D60" s="42">
+        <v>10</v>
+      </c>
+      <c r="E60" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F60" s="42">
+        <v>130</v>
+      </c>
+      <c r="G60" s="42">
+        <v>20</v>
+      </c>
+      <c r="H60" s="42">
+        <v>21</v>
+      </c>
+      <c r="I60" s="43">
+        <v>25</v>
+      </c>
+      <c r="J60" s="43">
+        <v>30</v>
+      </c>
+      <c r="K60" s="42">
+        <v>1.1609799999999999</v>
+      </c>
+      <c r="L60" s="42">
+        <v>81.797300000000007</v>
+      </c>
+      <c r="M60" s="42">
+        <v>24.069099999999999</v>
+      </c>
+      <c r="N60" s="42">
+        <v>25.345199999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="41">
+        <v>55</v>
+      </c>
+      <c r="B61" s="42">
+        <v>0</v>
+      </c>
+      <c r="C61" s="42">
+        <v>90</v>
+      </c>
+      <c r="D61" s="42">
+        <v>10</v>
+      </c>
+      <c r="E61" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F61" s="42">
+        <v>130</v>
+      </c>
+      <c r="G61" s="42">
+        <v>20</v>
+      </c>
+      <c r="H61" s="42">
+        <v>21</v>
+      </c>
+      <c r="I61" s="43">
+        <v>25</v>
+      </c>
+      <c r="J61" s="43">
+        <v>30</v>
+      </c>
+      <c r="K61" s="42">
+        <v>1.1778200000000001</v>
+      </c>
+      <c r="L61" s="42">
+        <v>81.597099999999998</v>
+      </c>
+      <c r="M61" s="42">
+        <v>24.463200000000001</v>
+      </c>
+      <c r="N61" s="42">
+        <v>25.4542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="41">
+        <v>56</v>
+      </c>
+      <c r="B62" s="42">
+        <v>0</v>
+      </c>
+      <c r="C62" s="42">
+        <v>80</v>
+      </c>
+      <c r="D62" s="42">
+        <v>10</v>
+      </c>
+      <c r="E62" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F62" s="42">
+        <v>125</v>
+      </c>
+      <c r="G62" s="42">
+        <v>20</v>
+      </c>
+      <c r="H62" s="42">
+        <v>21</v>
+      </c>
+      <c r="I62" s="43">
+        <v>25</v>
+      </c>
+      <c r="J62" s="43">
+        <v>30</v>
+      </c>
+      <c r="K62" s="42">
+        <v>1.1803399999999999</v>
+      </c>
+      <c r="L62" s="42">
+        <v>81.367900000000006</v>
+      </c>
+      <c r="M62" s="42">
+        <v>24.609200000000001</v>
+      </c>
+      <c r="N62" s="42">
+        <v>25.6234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="41">
+        <v>56</v>
+      </c>
+      <c r="B63" s="42">
+        <v>0</v>
+      </c>
+      <c r="C63" s="42">
+        <v>80</v>
+      </c>
+      <c r="D63" s="42">
+        <v>10</v>
+      </c>
+      <c r="E63" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F63" s="42">
+        <v>125</v>
+      </c>
+      <c r="G63" s="42">
+        <v>20</v>
+      </c>
+      <c r="H63" s="42">
+        <v>21</v>
+      </c>
+      <c r="I63" s="43">
+        <v>25</v>
+      </c>
+      <c r="J63" s="43">
+        <v>30</v>
+      </c>
+      <c r="K63" s="42">
+        <v>1.1651499999999999</v>
+      </c>
+      <c r="L63" s="42">
+        <v>83.096699999999998</v>
+      </c>
+      <c r="M63" s="42">
+        <v>24.6935</v>
+      </c>
+      <c r="N63" s="42">
+        <v>25.5045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="41">
+        <v>56</v>
+      </c>
+      <c r="B64" s="42">
+        <v>0</v>
+      </c>
+      <c r="C64" s="42">
+        <v>80</v>
+      </c>
+      <c r="D64" s="42">
+        <v>10</v>
+      </c>
+      <c r="E64" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F64" s="42">
+        <v>125</v>
+      </c>
+      <c r="G64" s="42">
+        <v>20</v>
+      </c>
+      <c r="H64" s="42">
+        <v>21</v>
+      </c>
+      <c r="I64" s="43">
+        <v>25</v>
+      </c>
+      <c r="J64" s="43">
+        <v>30</v>
+      </c>
+      <c r="K64" s="42">
+        <v>1.15303</v>
+      </c>
+      <c r="L64" s="42">
+        <v>81.730699999999999</v>
+      </c>
+      <c r="M64" s="42">
+        <v>23.768699999999999</v>
+      </c>
+      <c r="N64" s="42">
+        <v>25.222000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="41">
+        <v>56</v>
+      </c>
+      <c r="B65" s="42">
+        <v>0</v>
+      </c>
+      <c r="C65" s="42">
+        <v>80</v>
+      </c>
+      <c r="D65" s="42">
+        <v>10</v>
+      </c>
+      <c r="E65" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F65" s="42">
+        <v>125</v>
+      </c>
+      <c r="G65" s="42">
+        <v>20</v>
+      </c>
+      <c r="H65" s="42">
+        <v>21</v>
+      </c>
+      <c r="I65" s="43">
+        <v>25</v>
+      </c>
+      <c r="J65" s="43">
+        <v>30</v>
+      </c>
+      <c r="K65" s="42">
+        <v>1.1748799999999999</v>
+      </c>
+      <c r="L65" s="42">
+        <v>83.157499999999999</v>
+      </c>
+      <c r="M65" s="42">
+        <v>24.915299999999998</v>
+      </c>
+      <c r="N65" s="42">
+        <v>25.501799999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="41">
+        <v>57</v>
+      </c>
+      <c r="B66" s="42">
+        <v>0</v>
+      </c>
+      <c r="C66" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D66" s="42">
+        <v>10</v>
+      </c>
+      <c r="E66" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F66" s="42">
+        <v>130</v>
+      </c>
+      <c r="G66" s="42">
+        <v>20</v>
+      </c>
+      <c r="H66" s="42">
+        <v>21</v>
+      </c>
+      <c r="I66" s="43">
+        <v>25</v>
+      </c>
+      <c r="J66" s="43">
+        <v>30</v>
+      </c>
+      <c r="K66" s="42">
+        <v>1.1537200000000001</v>
+      </c>
+      <c r="L66" s="42">
+        <v>81.931600000000003</v>
+      </c>
+      <c r="M66" s="42">
+        <v>23.853200000000001</v>
+      </c>
+      <c r="N66" s="42">
+        <v>25.234500000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="41">
+        <v>57</v>
+      </c>
+      <c r="B67" s="42">
+        <v>0</v>
+      </c>
+      <c r="C67" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D67" s="42">
+        <v>10</v>
+      </c>
+      <c r="E67" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F67" s="42">
+        <v>130</v>
+      </c>
+      <c r="G67" s="42">
+        <v>20</v>
+      </c>
+      <c r="H67" s="42">
+        <v>21</v>
+      </c>
+      <c r="I67" s="43">
+        <v>25</v>
+      </c>
+      <c r="J67" s="43">
+        <v>30</v>
+      </c>
+      <c r="K67" s="42">
+        <v>1.1634</v>
+      </c>
+      <c r="L67" s="42">
+        <v>82.973399999999998</v>
+      </c>
+      <c r="M67" s="42">
+        <v>24.550899999999999</v>
+      </c>
+      <c r="N67" s="42">
+        <v>25.4331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="41">
+        <v>57</v>
+      </c>
+      <c r="B68" s="42">
+        <v>0</v>
+      </c>
+      <c r="C68" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D68" s="42">
+        <v>10</v>
+      </c>
+      <c r="E68" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F68" s="42">
+        <v>130</v>
+      </c>
+      <c r="G68" s="42">
+        <v>20</v>
+      </c>
+      <c r="H68" s="42">
+        <v>21</v>
+      </c>
+      <c r="I68" s="43">
+        <v>25</v>
+      </c>
+      <c r="J68" s="43">
+        <v>30</v>
+      </c>
+      <c r="K68" s="42">
+        <v>1.1580999999999999</v>
+      </c>
+      <c r="L68" s="42">
+        <v>82.540300000000002</v>
+      </c>
+      <c r="M68" s="42">
+        <v>24.2834</v>
+      </c>
+      <c r="N68" s="42">
+        <v>25.403700000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="41">
+        <v>57</v>
+      </c>
+      <c r="B69" s="42">
+        <v>0</v>
+      </c>
+      <c r="C69" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D69" s="42">
+        <v>10</v>
+      </c>
+      <c r="E69" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F69" s="42">
+        <v>130</v>
+      </c>
+      <c r="G69" s="42">
+        <v>20</v>
+      </c>
+      <c r="H69" s="42">
+        <v>21</v>
+      </c>
+      <c r="I69" s="43">
+        <v>25</v>
+      </c>
+      <c r="J69" s="43">
+        <v>30</v>
+      </c>
+      <c r="K69" s="42">
+        <v>1.1654800000000001</v>
+      </c>
+      <c r="L69" s="42">
+        <v>82.101799999999997</v>
+      </c>
+      <c r="M69" s="42">
+        <v>24.325600000000001</v>
+      </c>
+      <c r="N69" s="42">
+        <v>25.412800000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="41">
+        <v>58</v>
+      </c>
+      <c r="B70" s="42">
+        <v>0</v>
+      </c>
+      <c r="C70" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D70" s="42">
+        <v>15</v>
+      </c>
+      <c r="E70" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F70" s="42">
+        <v>130</v>
+      </c>
+      <c r="G70" s="42">
+        <v>20</v>
+      </c>
+      <c r="H70" s="42">
+        <v>21</v>
+      </c>
+      <c r="I70" s="43">
+        <v>25</v>
+      </c>
+      <c r="J70" s="43">
+        <v>30</v>
+      </c>
+      <c r="K70" s="42">
+        <v>1.1678900000000001</v>
+      </c>
+      <c r="L70" s="42">
+        <v>83.647300000000001</v>
+      </c>
+      <c r="M70" s="42">
+        <v>24.8215</v>
+      </c>
+      <c r="N70" s="42">
+        <v>25.408200000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="41">
+        <v>58</v>
+      </c>
+      <c r="B71" s="42">
+        <v>0</v>
+      </c>
+      <c r="C71" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D71" s="42">
+        <v>15</v>
+      </c>
+      <c r="E71" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F71" s="42">
+        <v>130</v>
+      </c>
+      <c r="G71" s="42">
+        <v>20</v>
+      </c>
+      <c r="H71" s="42">
+        <v>21</v>
+      </c>
+      <c r="I71" s="43">
+        <v>25</v>
+      </c>
+      <c r="J71" s="43">
+        <v>30</v>
+      </c>
+      <c r="K71" s="42">
+        <v>1.1600699999999999</v>
+      </c>
+      <c r="L71" s="42">
+        <v>83.827399999999997</v>
+      </c>
+      <c r="M71" s="42">
+        <v>24.700299999999999</v>
+      </c>
+      <c r="N71" s="42">
+        <v>25.399899999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="41">
+        <v>58</v>
+      </c>
+      <c r="B72" s="42">
+        <v>0</v>
+      </c>
+      <c r="C72" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D72" s="42">
+        <v>15</v>
+      </c>
+      <c r="E72" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F72" s="42">
+        <v>130</v>
+      </c>
+      <c r="G72" s="42">
+        <v>20</v>
+      </c>
+      <c r="H72" s="42">
+        <v>21</v>
+      </c>
+      <c r="I72" s="43">
+        <v>25</v>
+      </c>
+      <c r="J72" s="43">
+        <v>30</v>
+      </c>
+      <c r="K72" s="42">
+        <v>1.17231</v>
+      </c>
+      <c r="L72" s="42">
+        <v>81.7988</v>
+      </c>
+      <c r="M72" s="42">
+        <v>24.342199999999998</v>
+      </c>
+      <c r="N72" s="42">
+        <v>25.384599999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="41">
+        <v>58</v>
+      </c>
+      <c r="B73" s="42">
+        <v>0</v>
+      </c>
+      <c r="C73" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D73" s="42">
+        <v>15</v>
+      </c>
+      <c r="E73" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F73" s="42">
+        <v>130</v>
+      </c>
+      <c r="G73" s="42">
+        <v>20</v>
+      </c>
+      <c r="H73" s="42">
+        <v>21</v>
+      </c>
+      <c r="I73" s="43">
+        <v>25</v>
+      </c>
+      <c r="J73" s="43">
+        <v>30</v>
+      </c>
+      <c r="K73" s="42">
+        <v>1.18448</v>
+      </c>
+      <c r="L73" s="42">
+        <v>82.152500000000003</v>
+      </c>
+      <c r="M73" s="42">
+        <v>24.815300000000001</v>
+      </c>
+      <c r="N73" s="42">
+        <v>25.501799999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="41">
+        <v>59</v>
+      </c>
+      <c r="B74" s="42">
+        <v>0</v>
+      </c>
+      <c r="C74" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D74" s="42">
+        <v>10</v>
+      </c>
+      <c r="E74" s="42">
+        <v>1.6</v>
+      </c>
+      <c r="F74" s="42">
+        <v>130</v>
+      </c>
+      <c r="G74" s="42">
+        <v>20</v>
+      </c>
+      <c r="H74" s="42">
+        <v>21</v>
+      </c>
+      <c r="I74" s="43">
+        <v>25</v>
+      </c>
+      <c r="J74" s="43">
+        <v>30</v>
+      </c>
+      <c r="K74" s="42">
+        <v>1.1614899999999999</v>
+      </c>
+      <c r="L74" s="42">
+        <v>83.438299999999998</v>
+      </c>
+      <c r="M74" s="42">
+        <v>24.642900000000001</v>
+      </c>
+      <c r="N74" s="42">
+        <v>25.427900000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="41">
+        <v>59</v>
+      </c>
+      <c r="B75" s="42">
+        <v>0</v>
+      </c>
+      <c r="C75" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D75" s="42">
+        <v>10</v>
+      </c>
+      <c r="E75" s="42">
+        <v>1.6</v>
+      </c>
+      <c r="F75" s="42">
+        <v>130</v>
+      </c>
+      <c r="G75" s="42">
+        <v>20</v>
+      </c>
+      <c r="H75" s="42">
+        <v>21</v>
+      </c>
+      <c r="I75" s="43">
+        <v>25</v>
+      </c>
+      <c r="J75" s="43">
+        <v>30</v>
+      </c>
+      <c r="K75" s="42">
+        <v>1.1795500000000001</v>
+      </c>
+      <c r="L75" s="42">
+        <v>81.291700000000006</v>
+      </c>
+      <c r="M75" s="42">
+        <v>24.501799999999999</v>
+      </c>
+      <c r="N75" s="42">
+        <v>25.552600000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="41">
+        <v>59</v>
+      </c>
+      <c r="B76" s="42">
+        <v>0</v>
+      </c>
+      <c r="C76" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D76" s="42">
+        <v>10</v>
+      </c>
+      <c r="E76" s="42">
+        <v>1.6</v>
+      </c>
+      <c r="F76" s="42">
+        <v>130</v>
+      </c>
+      <c r="G76" s="42">
+        <v>20</v>
+      </c>
+      <c r="H76" s="42">
+        <v>21</v>
+      </c>
+      <c r="I76" s="43">
+        <v>25</v>
+      </c>
+      <c r="J76" s="43">
+        <v>30</v>
+      </c>
+      <c r="K76" s="42">
+        <v>1.16997</v>
+      </c>
+      <c r="L76" s="42">
+        <v>82.041899999999998</v>
+      </c>
+      <c r="M76" s="42">
+        <v>24.401800000000001</v>
+      </c>
+      <c r="N76" s="42">
+        <v>25.421700000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="41">
+        <v>59</v>
+      </c>
+      <c r="B77" s="42">
+        <v>0</v>
+      </c>
+      <c r="C77" s="42">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D77" s="42">
+        <v>10</v>
+      </c>
+      <c r="E77" s="42">
+        <v>1.6</v>
+      </c>
+      <c r="F77" s="42">
+        <v>130</v>
+      </c>
+      <c r="G77" s="42">
+        <v>20</v>
+      </c>
+      <c r="H77" s="42">
+        <v>21</v>
+      </c>
+      <c r="I77" s="43">
+        <v>25</v>
+      </c>
+      <c r="J77" s="43">
+        <v>30</v>
+      </c>
+      <c r="K77" s="42">
+        <v>1.1723300000000001</v>
+      </c>
+      <c r="L77" s="42">
+        <v>82.414299999999997</v>
+      </c>
+      <c r="M77" s="42">
+        <v>24.668199999999999</v>
+      </c>
+      <c r="N77" s="42">
+        <v>25.532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="41">
+        <v>60</v>
+      </c>
+      <c r="B78" s="42">
+        <v>0</v>
+      </c>
+      <c r="C78" s="42">
+        <v>80</v>
+      </c>
+      <c r="D78" s="42">
+        <v>10</v>
+      </c>
+      <c r="E78" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F78" s="42">
+        <v>125</v>
+      </c>
+      <c r="G78" s="42">
+        <v>20</v>
+      </c>
+      <c r="H78" s="42">
+        <v>21</v>
+      </c>
+      <c r="I78" s="43">
+        <v>25</v>
+      </c>
+      <c r="J78" s="43">
+        <v>30</v>
+      </c>
+      <c r="K78" s="42">
+        <v>1.1524799999999999</v>
+      </c>
+      <c r="L78" s="42">
+        <v>81.620999999999995</v>
+      </c>
+      <c r="M78" s="42">
+        <v>23.725300000000001</v>
+      </c>
+      <c r="N78" s="42">
+        <v>25.221800000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="41">
+        <v>60</v>
+      </c>
+      <c r="B79" s="42">
+        <v>0</v>
+      </c>
+      <c r="C79" s="42">
+        <v>80</v>
+      </c>
+      <c r="D79" s="42">
+        <v>10</v>
+      </c>
+      <c r="E79" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F79" s="42">
+        <v>125</v>
+      </c>
+      <c r="G79" s="42">
+        <v>20</v>
+      </c>
+      <c r="H79" s="42">
+        <v>21</v>
+      </c>
+      <c r="I79" s="43">
+        <v>25</v>
+      </c>
+      <c r="J79" s="43">
+        <v>30</v>
+      </c>
+      <c r="K79" s="42">
+        <v>1.1692199999999999</v>
+      </c>
+      <c r="L79" s="42">
+        <v>82.382099999999994</v>
+      </c>
+      <c r="M79" s="42">
+        <v>24.482099999999999</v>
+      </c>
+      <c r="N79" s="42">
+        <v>25.416699999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="41">
+        <v>60</v>
+      </c>
+      <c r="B80" s="42">
+        <v>0</v>
+      </c>
+      <c r="C80" s="42">
+        <v>80</v>
+      </c>
+      <c r="D80" s="42">
+        <v>10</v>
+      </c>
+      <c r="E80" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F80" s="42">
+        <v>125</v>
+      </c>
+      <c r="G80" s="42">
+        <v>20</v>
+      </c>
+      <c r="H80" s="42">
+        <v>21</v>
+      </c>
+      <c r="I80" s="43">
+        <v>25</v>
+      </c>
+      <c r="J80" s="43">
+        <v>30</v>
+      </c>
+      <c r="K80" s="42">
+        <v>1.16452</v>
+      </c>
+      <c r="L80" s="42">
+        <v>81.476500000000001</v>
+      </c>
+      <c r="M80" s="42">
+        <v>24.092300000000002</v>
+      </c>
+      <c r="N80" s="42">
+        <v>25.392099999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="41">
+        <v>60</v>
+      </c>
+      <c r="B81" s="42">
+        <v>0</v>
+      </c>
+      <c r="C81" s="42">
+        <v>80</v>
+      </c>
+      <c r="D81" s="42">
+        <v>10</v>
+      </c>
+      <c r="E81" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="F81" s="42">
+        <v>125</v>
+      </c>
+      <c r="G81" s="42">
+        <v>20</v>
+      </c>
+      <c r="H81" s="42">
+        <v>21</v>
+      </c>
+      <c r="I81" s="43">
+        <v>25</v>
+      </c>
+      <c r="J81" s="43">
+        <v>30</v>
+      </c>
+      <c r="K81" s="42">
+        <v>1.15923</v>
+      </c>
+      <c r="L81" s="42">
+        <v>83.206000000000003</v>
+      </c>
+      <c r="M81" s="42">
+        <v>24.5123</v>
+      </c>
+      <c r="N81" s="42">
+        <v>25.4132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CB791A-F38A-FE4D-987C-5224408D015D}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="33">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="36">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1.5</v>
+      </c>
+      <c r="F2">
+        <v>130</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="36">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <v>125</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="36">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>125</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="36">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>130</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5">
+        <v>25</v>
+      </c>
+      <c r="J5" s="5">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="36">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>130</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5">
+        <v>30</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="36">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>125</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5">
+        <v>25</v>
+      </c>
+      <c r="J7" s="5">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="36">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>125</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>21</v>
+      </c>
+      <c r="I8" s="5">
+        <v>25</v>
+      </c>
+      <c r="J8" s="5">
+        <v>30</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="36">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1.4</v>
+      </c>
+      <c r="F9">
+        <v>125</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9" s="5">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5">
+        <v>30</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="36">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1.4</v>
+      </c>
+      <c r="F10">
+        <v>130</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5">
+        <v>25</v>
+      </c>
+      <c r="J10" s="5">
+        <v>30</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="36">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>125</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5">
+        <v>30</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="36">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>1.4</v>
+      </c>
+      <c r="F12">
+        <v>125</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="36">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <v>125</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13" s="5">
+        <v>25</v>
+      </c>
+      <c r="J13" s="5">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="36">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1.4</v>
+      </c>
+      <c r="F14">
+        <v>125</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>21</v>
+      </c>
+      <c r="I14" s="5">
+        <v>25</v>
+      </c>
+      <c r="J14" s="5">
+        <v>30</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="36">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1.5</v>
+      </c>
+      <c r="F15">
+        <v>135</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>21</v>
+      </c>
+      <c r="I15" s="5">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5">
+        <v>30</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="36">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1.4</v>
+      </c>
+      <c r="F16">
+        <v>130</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16" s="5">
+        <v>25</v>
+      </c>
+      <c r="J16" s="5">
+        <v>30</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="36">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>1.5</v>
+      </c>
+      <c r="F17">
+        <v>125</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>21</v>
+      </c>
+      <c r="I17" s="5">
+        <v>25</v>
+      </c>
+      <c r="J17" s="5">
+        <v>30</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="36">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1.4</v>
+      </c>
+      <c r="F18">
+        <v>130</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>21</v>
+      </c>
+      <c r="I18" s="5">
+        <v>25</v>
+      </c>
+      <c r="J18" s="5">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="36">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>1.5</v>
+      </c>
+      <c r="F19">
+        <v>130</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+      <c r="I19" s="5">
+        <v>25</v>
+      </c>
+      <c r="J19" s="5">
+        <v>30</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="36">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>1.6</v>
+      </c>
+      <c r="F20">
+        <v>130</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>21</v>
+      </c>
+      <c r="I20" s="5">
+        <v>25</v>
+      </c>
+      <c r="J20" s="5">
+        <v>30</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="36">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>1.4</v>
+      </c>
+      <c r="F21">
+        <v>125</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>21</v>
+      </c>
+      <c r="I21" s="5">
+        <v>25</v>
+      </c>
+      <c r="J21" s="5">
+        <v>30</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/main_data.xlsx
+++ b/main_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thijsstuyver/Desktop/Perovskite_my_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C41F0B-3BE7-FC4E-B729-80BC7C11C316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E3E3E8-02FF-464B-B243-0639F9C3A2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="760" windowWidth="30220" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="760" windowWidth="30220" windowHeight="15500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_07_15_film" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="2022_07_21_device-new" sheetId="4" r:id="rId4"/>
     <sheet name="2023_08_07_device" sheetId="5" r:id="rId5"/>
     <sheet name="2023_08_07_film" sheetId="6" r:id="rId6"/>
+    <sheet name="2023_09_30_device" sheetId="7" r:id="rId7"/>
+    <sheet name="2023_09_30_film" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
   <si>
     <t>Condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +216,19 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -364,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,27 +483,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8848,7 +8848,7 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8869,3566 +8869,3566 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="41">
+      <c r="A2" s="36">
         <v>41</v>
       </c>
-      <c r="B2" s="42">
-        <v>0</v>
-      </c>
-      <c r="C2" s="42">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>90</v>
       </c>
-      <c r="D2" s="42">
-        <v>10</v>
-      </c>
-      <c r="E2" s="42">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>1.5</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2">
         <v>130</v>
       </c>
-      <c r="G2" s="42">
-        <v>20</v>
-      </c>
-      <c r="H2" s="42">
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
         <v>21</v>
       </c>
-      <c r="I2" s="43">
-        <v>25</v>
-      </c>
-      <c r="J2" s="43">
-        <v>30</v>
-      </c>
-      <c r="K2" s="42">
+      <c r="I2" s="5">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>30</v>
+      </c>
+      <c r="K2">
         <v>1.1326000000000001</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2">
         <v>79.594499999999996</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2">
         <v>23.1355</v>
       </c>
-      <c r="N2" s="42">
+      <c r="N2">
         <v>25.663699999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="41">
+      <c r="A3" s="36">
         <v>41</v>
       </c>
-      <c r="B3" s="42">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>90</v>
       </c>
-      <c r="D3" s="42">
-        <v>10</v>
-      </c>
-      <c r="E3" s="42">
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>1.5</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3">
         <v>130</v>
       </c>
-      <c r="G3" s="42">
-        <v>20</v>
-      </c>
-      <c r="H3" s="42">
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
         <v>21</v>
       </c>
-      <c r="I3" s="43">
-        <v>25</v>
-      </c>
-      <c r="J3" s="43">
-        <v>30</v>
-      </c>
-      <c r="K3" s="42">
+      <c r="I3" s="5">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5">
+        <v>30</v>
+      </c>
+      <c r="K3">
         <v>1.1208100000000001</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3">
         <v>80.016800000000003</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3">
         <v>22.867999999999999</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3">
         <v>25.498699999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="41">
+      <c r="A4" s="36">
         <v>41</v>
       </c>
-      <c r="B4" s="42">
-        <v>0</v>
-      </c>
-      <c r="C4" s="42">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>90</v>
       </c>
-      <c r="D4" s="42">
-        <v>10</v>
-      </c>
-      <c r="E4" s="42">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>1.5</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4">
         <v>130</v>
       </c>
-      <c r="G4" s="42">
-        <v>20</v>
-      </c>
-      <c r="H4" s="42">
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
         <v>21</v>
       </c>
-      <c r="I4" s="43">
-        <v>25</v>
-      </c>
-      <c r="J4" s="43">
-        <v>30</v>
-      </c>
-      <c r="K4" s="42">
+      <c r="I4" s="5">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5">
+        <v>30</v>
+      </c>
+      <c r="K4">
         <v>1.1370499999999999</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4">
         <v>78.496899999999997</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4">
         <v>22.680199999999999</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4">
         <v>25.410599999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="41">
+      <c r="A5" s="36">
         <v>41</v>
       </c>
-      <c r="B5" s="42">
-        <v>0</v>
-      </c>
-      <c r="C5" s="42">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>90</v>
       </c>
-      <c r="D5" s="42">
-        <v>10</v>
-      </c>
-      <c r="E5" s="42">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>1.5</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5">
         <v>130</v>
       </c>
-      <c r="G5" s="42">
-        <v>20</v>
-      </c>
-      <c r="H5" s="42">
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
         <v>21</v>
       </c>
-      <c r="I5" s="43">
-        <v>25</v>
-      </c>
-      <c r="J5" s="43">
-        <v>30</v>
-      </c>
-      <c r="K5" s="42">
+      <c r="I5" s="5">
+        <v>25</v>
+      </c>
+      <c r="J5" s="5">
+        <v>30</v>
+      </c>
+      <c r="K5">
         <v>1.13741</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5">
         <v>80.202699999999993</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5">
         <v>23.223199999999999</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5">
         <v>25.4575</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="41">
+      <c r="A6" s="36">
         <v>42</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6">
         <v>55.000000000000007</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6">
         <v>1.5</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6">
         <v>125</v>
       </c>
-      <c r="G6" s="42">
-        <v>30</v>
-      </c>
-      <c r="H6" s="42">
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
         <v>29</v>
       </c>
-      <c r="I6" s="43">
-        <v>25</v>
-      </c>
-      <c r="J6" s="43">
-        <v>30</v>
-      </c>
-      <c r="K6" s="42">
+      <c r="I6" s="5">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5">
+        <v>30</v>
+      </c>
+      <c r="K6">
         <v>1.13635</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6">
         <v>74.2363</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6">
         <v>21.516200000000001</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6">
         <v>25.505700000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="41">
+      <c r="A7" s="36">
         <v>42</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7">
         <v>55.000000000000007</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7">
         <v>1.5</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7">
         <v>125</v>
       </c>
-      <c r="G7" s="42">
-        <v>30</v>
-      </c>
-      <c r="H7" s="42">
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
         <v>29</v>
       </c>
-      <c r="I7" s="43">
-        <v>25</v>
-      </c>
-      <c r="J7" s="43">
-        <v>30</v>
-      </c>
-      <c r="K7" s="42">
+      <c r="I7" s="5">
+        <v>25</v>
+      </c>
+      <c r="J7" s="5">
+        <v>30</v>
+      </c>
+      <c r="K7">
         <v>1.1328499999999999</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7">
         <v>74.360900000000001</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7">
         <v>21.191099999999999</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7">
         <v>25.1557</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="41">
+      <c r="A8" s="36">
         <v>42</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8">
         <v>55.000000000000007</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8">
         <v>1.5</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8">
         <v>125</v>
       </c>
-      <c r="G8" s="42">
-        <v>30</v>
-      </c>
-      <c r="H8" s="42">
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
         <v>29</v>
       </c>
-      <c r="I8" s="43">
-        <v>25</v>
-      </c>
-      <c r="J8" s="44">
-        <v>30</v>
-      </c>
-      <c r="K8" s="42">
+      <c r="I8" s="5">
+        <v>25</v>
+      </c>
+      <c r="J8" s="14">
+        <v>30</v>
+      </c>
+      <c r="K8">
         <v>1.12209</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8">
         <v>75.402799999999999</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8">
         <v>21.5152</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8">
         <v>25.428999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="41">
+      <c r="A9" s="36">
         <v>42</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9">
         <v>55.000000000000007</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9">
         <v>1.5</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9">
         <v>125</v>
       </c>
-      <c r="G9" s="42">
-        <v>30</v>
-      </c>
-      <c r="H9" s="42">
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
         <v>29</v>
       </c>
-      <c r="I9" s="43">
-        <v>25</v>
-      </c>
-      <c r="J9" s="44">
-        <v>30</v>
-      </c>
-      <c r="K9" s="42">
+      <c r="I9" s="5">
+        <v>25</v>
+      </c>
+      <c r="J9" s="14">
+        <v>30</v>
+      </c>
+      <c r="K9">
         <v>1.1122399999999999</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9">
         <v>78.217299999999994</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9">
         <v>22.177299999999999</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9">
         <v>25.4922</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="35" customFormat="1">
-      <c r="A10" s="41">
+      <c r="A10" s="36">
         <v>43</v>
       </c>
-      <c r="B10" s="42">
-        <v>0</v>
-      </c>
-      <c r="C10" s="42">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>55.000000000000007</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10">
         <v>1.5</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10">
         <v>125</v>
       </c>
-      <c r="G10" s="42">
-        <v>30</v>
-      </c>
-      <c r="H10" s="42">
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
         <v>29</v>
       </c>
-      <c r="I10" s="43">
-        <v>25</v>
-      </c>
-      <c r="J10" s="44">
-        <v>30</v>
-      </c>
-      <c r="K10" s="42">
+      <c r="I10" s="5">
+        <v>25</v>
+      </c>
+      <c r="J10" s="14">
+        <v>30</v>
+      </c>
+      <c r="K10">
         <v>1.13384</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10">
         <v>75.855900000000005</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10">
         <v>21.0657</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10">
         <v>24.492599999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="35" customFormat="1">
-      <c r="A11" s="41">
+      <c r="A11" s="36">
         <v>43</v>
       </c>
-      <c r="B11" s="42">
-        <v>0</v>
-      </c>
-      <c r="C11" s="42">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>55.000000000000007</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11">
         <v>1.5</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11">
         <v>125</v>
       </c>
-      <c r="G11" s="42">
-        <v>30</v>
-      </c>
-      <c r="H11" s="42">
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
         <v>29</v>
       </c>
-      <c r="I11" s="43">
-        <v>25</v>
-      </c>
-      <c r="J11" s="44">
-        <v>30</v>
-      </c>
-      <c r="K11" s="42">
+      <c r="I11" s="5">
+        <v>25</v>
+      </c>
+      <c r="J11" s="14">
+        <v>30</v>
+      </c>
+      <c r="K11">
         <v>1.11155</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11">
         <v>75.902000000000001</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11">
         <v>21.2639</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11">
         <v>25.203499999999998</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="35" customFormat="1">
-      <c r="A12" s="41">
+      <c r="A12" s="36">
         <v>43</v>
       </c>
-      <c r="B12" s="42">
-        <v>0</v>
-      </c>
-      <c r="C12" s="42">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>55.000000000000007</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12">
         <v>1.5</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12">
         <v>125</v>
       </c>
-      <c r="G12" s="42">
-        <v>30</v>
-      </c>
-      <c r="H12" s="42">
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
         <v>29</v>
       </c>
-      <c r="I12" s="43">
-        <v>25</v>
-      </c>
-      <c r="J12" s="43">
-        <v>30</v>
-      </c>
-      <c r="K12" s="42">
+      <c r="I12" s="5">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5">
+        <v>30</v>
+      </c>
+      <c r="K12">
         <v>1.1178399999999999</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12">
         <v>79.903899999999993</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12">
         <v>22.580400000000001</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12">
         <v>25.2804</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="35" customFormat="1">
-      <c r="A13" s="41">
+      <c r="A13" s="36">
         <v>43</v>
       </c>
-      <c r="B13" s="42">
-        <v>0</v>
-      </c>
-      <c r="C13" s="42">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>55.000000000000007</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13">
         <v>1.5</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13">
         <v>125</v>
       </c>
-      <c r="G13" s="42">
-        <v>30</v>
-      </c>
-      <c r="H13" s="42">
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
         <v>29</v>
       </c>
-      <c r="I13" s="43">
-        <v>25</v>
-      </c>
-      <c r="J13" s="43">
-        <v>30</v>
-      </c>
-      <c r="K13" s="42">
+      <c r="I13" s="5">
+        <v>25</v>
+      </c>
+      <c r="J13" s="5">
+        <v>30</v>
+      </c>
+      <c r="K13">
         <v>1.1123400000000001</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13">
         <v>79.928299999999993</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13">
         <v>22.7546</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13">
         <v>25.593599999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="35" customFormat="1">
-      <c r="A14" s="41">
+      <c r="A14" s="36">
         <v>44</v>
       </c>
-      <c r="B14" s="42">
-        <v>0</v>
-      </c>
-      <c r="C14" s="42">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>85.000000000000014</v>
       </c>
-      <c r="D14" s="42">
-        <v>10</v>
-      </c>
-      <c r="E14" s="42">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>1.5</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14">
         <v>130</v>
       </c>
-      <c r="G14" s="42">
-        <v>20</v>
-      </c>
-      <c r="H14" s="42">
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
         <v>21</v>
       </c>
-      <c r="I14" s="43">
-        <v>25</v>
-      </c>
-      <c r="J14" s="43">
-        <v>30</v>
-      </c>
-      <c r="K14" s="42">
+      <c r="I14" s="5">
+        <v>25</v>
+      </c>
+      <c r="J14" s="5">
+        <v>30</v>
+      </c>
+      <c r="K14">
         <v>1.14734</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14">
         <v>81.888599999999997</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14">
         <v>24.293399999999998</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14">
         <v>25.8567</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="35" customFormat="1">
-      <c r="A15" s="41">
+      <c r="A15" s="36">
         <v>44</v>
       </c>
-      <c r="B15" s="42">
-        <v>0</v>
-      </c>
-      <c r="C15" s="42">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>85.000000000000014</v>
       </c>
-      <c r="D15" s="42">
-        <v>10</v>
-      </c>
-      <c r="E15" s="42">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
         <v>1.5</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15">
         <v>130</v>
       </c>
-      <c r="G15" s="42">
-        <v>20</v>
-      </c>
-      <c r="H15" s="42">
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
         <v>21</v>
       </c>
-      <c r="I15" s="43">
-        <v>25</v>
-      </c>
-      <c r="J15" s="43">
-        <v>30</v>
-      </c>
-      <c r="K15" s="42">
+      <c r="I15" s="5">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5">
+        <v>30</v>
+      </c>
+      <c r="K15">
         <v>1.13947</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15">
         <v>80.452100000000002</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15">
         <v>23.5124</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15">
         <v>25.648199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="35" customFormat="1">
-      <c r="A16" s="41">
+      <c r="A16" s="36">
         <v>44</v>
       </c>
-      <c r="B16" s="42">
-        <v>0</v>
-      </c>
-      <c r="C16" s="42">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>85.000000000000014</v>
       </c>
-      <c r="D16" s="42">
-        <v>10</v>
-      </c>
-      <c r="E16" s="42">
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
         <v>1.5</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16">
         <v>130</v>
       </c>
-      <c r="G16" s="42">
-        <v>20</v>
-      </c>
-      <c r="H16" s="42">
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
         <v>21</v>
       </c>
-      <c r="I16" s="43">
-        <v>25</v>
-      </c>
-      <c r="J16" s="43">
-        <v>30</v>
-      </c>
-      <c r="K16" s="42">
+      <c r="I16" s="5">
+        <v>25</v>
+      </c>
+      <c r="J16" s="5">
+        <v>30</v>
+      </c>
+      <c r="K16">
         <v>1.1368199999999999</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16">
         <v>80.650099999999995</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16">
         <v>23.4831</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16">
         <v>25.6127</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="41">
+      <c r="A17" s="36">
         <v>44</v>
       </c>
-      <c r="B17" s="42">
-        <v>0</v>
-      </c>
-      <c r="C17" s="42">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>85.000000000000014</v>
       </c>
-      <c r="D17" s="42">
-        <v>10</v>
-      </c>
-      <c r="E17" s="42">
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
         <v>1.5</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17">
         <v>130</v>
       </c>
-      <c r="G17" s="42">
-        <v>20</v>
-      </c>
-      <c r="H17" s="42">
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
         <v>21</v>
       </c>
-      <c r="I17" s="43">
-        <v>25</v>
-      </c>
-      <c r="J17" s="43">
-        <v>30</v>
-      </c>
-      <c r="K17" s="42">
+      <c r="I17" s="5">
+        <v>25</v>
+      </c>
+      <c r="J17" s="5">
+        <v>30</v>
+      </c>
+      <c r="K17">
         <v>1.1418900000000001</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17">
         <v>82.577200000000005</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17">
         <v>24.256699999999999</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17">
         <v>25.724499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="41">
+      <c r="A18" s="36">
         <v>45</v>
       </c>
-      <c r="B18" s="42">
-        <v>0</v>
-      </c>
-      <c r="C18" s="42">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>85.000000000000014</v>
       </c>
-      <c r="D18" s="42">
-        <v>10</v>
-      </c>
-      <c r="E18" s="42">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
         <v>1.5</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18">
         <v>130</v>
       </c>
-      <c r="G18" s="42">
-        <v>20</v>
-      </c>
-      <c r="H18" s="42">
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
         <v>23</v>
       </c>
-      <c r="I18" s="43">
-        <v>25</v>
-      </c>
-      <c r="J18" s="43">
-        <v>30</v>
-      </c>
-      <c r="K18" s="42">
+      <c r="I18" s="5">
+        <v>25</v>
+      </c>
+      <c r="J18" s="5">
+        <v>30</v>
+      </c>
+      <c r="K18">
         <v>1.14812</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18">
         <v>81.832800000000006</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18">
         <v>24.345600000000001</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18">
         <v>25.912299999999998</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="41">
+      <c r="A19" s="36">
         <v>45</v>
       </c>
-      <c r="B19" s="42">
-        <v>0</v>
-      </c>
-      <c r="C19" s="42">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>85.000000000000014</v>
       </c>
-      <c r="D19" s="42">
-        <v>10</v>
-      </c>
-      <c r="E19" s="42">
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
         <v>1.5</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19">
         <v>130</v>
       </c>
-      <c r="G19" s="42">
-        <v>20</v>
-      </c>
-      <c r="H19" s="42">
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
         <v>23</v>
       </c>
-      <c r="I19" s="43">
-        <v>25</v>
-      </c>
-      <c r="J19" s="43">
-        <v>30</v>
-      </c>
-      <c r="K19" s="42">
+      <c r="I19" s="5">
+        <v>25</v>
+      </c>
+      <c r="J19" s="5">
+        <v>30</v>
+      </c>
+      <c r="K19">
         <v>1.1401300000000001</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19">
         <v>80.341499999999996</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19">
         <v>23.521799999999999</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19">
         <v>25.678899999999999</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="41">
+      <c r="A20" s="36">
         <v>45</v>
       </c>
-      <c r="B20" s="42">
-        <v>0</v>
-      </c>
-      <c r="C20" s="42">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>85.000000000000014</v>
       </c>
-      <c r="D20" s="42">
-        <v>10</v>
-      </c>
-      <c r="E20" s="42">
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
         <v>1.5</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20">
         <v>130</v>
       </c>
-      <c r="G20" s="42">
-        <v>20</v>
-      </c>
-      <c r="H20" s="42">
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
         <v>23</v>
       </c>
-      <c r="I20" s="43">
-        <v>25</v>
-      </c>
-      <c r="J20" s="43">
-        <v>30</v>
-      </c>
-      <c r="K20" s="42">
+      <c r="I20" s="5">
+        <v>25</v>
+      </c>
+      <c r="J20" s="5">
+        <v>30</v>
+      </c>
+      <c r="K20">
         <v>1.1456299999999999</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20">
         <v>82.052599999999998</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20">
         <v>24.321300000000001</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20">
         <v>25.873200000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="41">
+      <c r="A21" s="36">
         <v>45</v>
       </c>
-      <c r="B21" s="42">
-        <v>0</v>
-      </c>
-      <c r="C21" s="42">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>85.000000000000014</v>
       </c>
-      <c r="D21" s="42">
-        <v>10</v>
-      </c>
-      <c r="E21" s="42">
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
         <v>1.5</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21">
         <v>130</v>
       </c>
-      <c r="G21" s="42">
-        <v>20</v>
-      </c>
-      <c r="H21" s="42">
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
         <v>23</v>
       </c>
-      <c r="I21" s="43">
-        <v>25</v>
-      </c>
-      <c r="J21" s="43">
-        <v>30</v>
-      </c>
-      <c r="K21" s="42">
+      <c r="I21" s="5">
+        <v>25</v>
+      </c>
+      <c r="J21" s="5">
+        <v>30</v>
+      </c>
+      <c r="K21">
         <v>1.1427799999999999</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21">
         <v>82.484200000000001</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21">
         <v>24.278400000000001</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21">
         <v>25.756399999999999</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="41">
+      <c r="A22" s="36">
         <v>46</v>
       </c>
-      <c r="B22" s="42">
-        <v>0</v>
-      </c>
-      <c r="C22" s="42">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>85.000000000000014</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22">
         <v>15</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22">
         <v>1.5</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22">
         <v>125</v>
       </c>
-      <c r="G22" s="42">
-        <v>20</v>
-      </c>
-      <c r="H22" s="42">
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
         <v>17</v>
       </c>
-      <c r="I22" s="43">
-        <v>25</v>
-      </c>
-      <c r="J22" s="43">
-        <v>30</v>
-      </c>
-      <c r="K22" s="42">
+      <c r="I22" s="5">
+        <v>25</v>
+      </c>
+      <c r="J22" s="5">
+        <v>30</v>
+      </c>
+      <c r="K22">
         <v>1.1534500000000001</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22">
         <v>83.164100000000005</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22">
         <v>24.395600000000002</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22">
         <v>25.431799999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="41">
+      <c r="A23" s="36">
         <v>46</v>
       </c>
-      <c r="B23" s="42">
-        <v>0</v>
-      </c>
-      <c r="C23" s="42">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>85.000000000000014</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23">
         <v>15</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23">
         <v>1.5</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23">
         <v>125</v>
       </c>
-      <c r="G23" s="42">
-        <v>20</v>
-      </c>
-      <c r="H23" s="42">
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
         <v>17</v>
       </c>
-      <c r="I23" s="43">
-        <v>25</v>
-      </c>
-      <c r="J23" s="43">
-        <v>30</v>
-      </c>
-      <c r="K23" s="42">
+      <c r="I23" s="5">
+        <v>25</v>
+      </c>
+      <c r="J23" s="5">
+        <v>30</v>
+      </c>
+      <c r="K23">
         <v>1.1720299999999999</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23">
         <v>81.846199999999996</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23">
         <v>24.482299999999999</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23">
         <v>25.521999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="41">
+      <c r="A24" s="36">
         <v>46</v>
       </c>
-      <c r="B24" s="42">
-        <v>0</v>
-      </c>
-      <c r="C24" s="42">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>85.000000000000014</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24">
         <v>15</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24">
         <v>1.5</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24">
         <v>125</v>
       </c>
-      <c r="G24" s="42">
-        <v>20</v>
-      </c>
-      <c r="H24" s="42">
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
         <v>17</v>
       </c>
-      <c r="I24" s="43">
-        <v>25</v>
-      </c>
-      <c r="J24" s="43">
-        <v>30</v>
-      </c>
-      <c r="K24" s="42">
+      <c r="I24" s="5">
+        <v>25</v>
+      </c>
+      <c r="J24" s="5">
+        <v>30</v>
+      </c>
+      <c r="K24">
         <v>1.1552100000000001</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24">
         <v>83.738399999999999</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24">
         <v>24.7042</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24">
         <v>25.5379</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="41">
+      <c r="A25" s="36">
         <v>46</v>
       </c>
-      <c r="B25" s="42">
-        <v>0</v>
-      </c>
-      <c r="C25" s="42">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>85.000000000000014</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25">
         <v>15</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25">
         <v>1.5</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25">
         <v>125</v>
       </c>
-      <c r="G25" s="42">
-        <v>20</v>
-      </c>
-      <c r="H25" s="42">
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
         <v>17</v>
       </c>
-      <c r="I25" s="43">
-        <v>25</v>
-      </c>
-      <c r="J25" s="43">
-        <v>30</v>
-      </c>
-      <c r="K25" s="42">
+      <c r="I25" s="5">
+        <v>25</v>
+      </c>
+      <c r="J25" s="5">
+        <v>30</v>
+      </c>
+      <c r="K25">
         <v>1.1709799999999999</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25">
         <v>83.202600000000004</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25">
         <v>24.859100000000002</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25">
         <v>25.5152</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="41">
+      <c r="A26" s="36">
         <v>47</v>
       </c>
-      <c r="B26" s="42">
-        <v>0</v>
-      </c>
-      <c r="C26" s="42">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>90</v>
       </c>
-      <c r="D26" s="42">
-        <v>10</v>
-      </c>
-      <c r="E26" s="42">
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
         <v>1.5</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26">
         <v>125</v>
       </c>
-      <c r="G26" s="42">
-        <v>20</v>
-      </c>
-      <c r="H26" s="42">
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
         <v>21</v>
       </c>
-      <c r="I26" s="43">
-        <v>25</v>
-      </c>
-      <c r="J26" s="43">
-        <v>30</v>
-      </c>
-      <c r="K26" s="42">
+      <c r="I26" s="5">
+        <v>25</v>
+      </c>
+      <c r="J26" s="5">
+        <v>30</v>
+      </c>
+      <c r="K26">
         <v>1.1293299999999999</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26">
         <v>80.927599999999998</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26">
         <v>22.7318</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26">
         <v>24.872399999999999</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="41">
+      <c r="A27" s="36">
         <v>47</v>
       </c>
-      <c r="B27" s="42">
-        <v>0</v>
-      </c>
-      <c r="C27" s="42">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>90</v>
       </c>
-      <c r="D27" s="42">
-        <v>10</v>
-      </c>
-      <c r="E27" s="42">
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
         <v>1.5</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27">
         <v>125</v>
       </c>
-      <c r="G27" s="42">
-        <v>20</v>
-      </c>
-      <c r="H27" s="42">
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
         <v>21</v>
       </c>
-      <c r="I27" s="43">
-        <v>25</v>
-      </c>
-      <c r="J27" s="43">
-        <v>30</v>
-      </c>
-      <c r="K27" s="42">
+      <c r="I27" s="5">
+        <v>25</v>
+      </c>
+      <c r="J27" s="5">
+        <v>30</v>
+      </c>
+      <c r="K27">
         <v>1.1362099999999999</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27">
         <v>80.682400000000001</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27">
         <v>23.4712</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N27">
         <v>25.603400000000001</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="41">
+      <c r="A28" s="36">
         <v>47</v>
       </c>
-      <c r="B28" s="42">
-        <v>0</v>
-      </c>
-      <c r="C28" s="42">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>90</v>
       </c>
-      <c r="D28" s="42">
-        <v>10</v>
-      </c>
-      <c r="E28" s="42">
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
         <v>1.5</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28">
         <v>125</v>
       </c>
-      <c r="G28" s="42">
-        <v>20</v>
-      </c>
-      <c r="H28" s="42">
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
         <v>21</v>
       </c>
-      <c r="I28" s="43">
-        <v>25</v>
-      </c>
-      <c r="J28" s="43">
-        <v>30</v>
-      </c>
-      <c r="K28" s="42">
+      <c r="I28" s="5">
+        <v>25</v>
+      </c>
+      <c r="J28" s="5">
+        <v>30</v>
+      </c>
+      <c r="K28">
         <v>1.1609100000000001</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28">
         <v>82.323599999999999</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28">
         <v>24.308499999999999</v>
       </c>
-      <c r="N28" s="42">
+      <c r="N28">
         <v>25.435199999999998</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="41">
+      <c r="A29" s="36">
         <v>47</v>
       </c>
-      <c r="B29" s="42">
-        <v>0</v>
-      </c>
-      <c r="C29" s="42">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>90</v>
       </c>
-      <c r="D29" s="42">
-        <v>10</v>
-      </c>
-      <c r="E29" s="42">
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
         <v>1.5</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29">
         <v>125</v>
       </c>
-      <c r="G29" s="42">
-        <v>20</v>
-      </c>
-      <c r="H29" s="42">
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29">
         <v>21</v>
       </c>
-      <c r="I29" s="43">
-        <v>25</v>
-      </c>
-      <c r="J29" s="43">
-        <v>30</v>
-      </c>
-      <c r="K29" s="42">
+      <c r="I29" s="5">
+        <v>25</v>
+      </c>
+      <c r="J29" s="5">
+        <v>30</v>
+      </c>
+      <c r="K29">
         <v>1.1456299999999999</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29">
         <v>82.052599999999998</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29">
         <v>24.321300000000001</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29">
         <v>25.873200000000001</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="41">
+      <c r="A30" s="36">
         <v>48</v>
       </c>
-      <c r="B30" s="42">
-        <v>0</v>
-      </c>
-      <c r="C30" s="42">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>85.000000000000014</v>
       </c>
-      <c r="D30" s="42">
-        <v>10</v>
-      </c>
-      <c r="E30" s="42">
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
         <v>1.4</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30">
         <v>125</v>
       </c>
-      <c r="G30" s="42">
-        <v>20</v>
-      </c>
-      <c r="H30" s="42">
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
         <v>21</v>
       </c>
-      <c r="I30" s="43">
-        <v>25</v>
-      </c>
-      <c r="J30" s="43">
-        <v>30</v>
-      </c>
-      <c r="K30" s="42">
+      <c r="I30" s="5">
+        <v>25</v>
+      </c>
+      <c r="J30" s="5">
+        <v>30</v>
+      </c>
+      <c r="K30">
         <v>1.1541300000000001</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30">
         <v>82.499899999999997</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30">
         <v>24.215599999999998</v>
       </c>
-      <c r="N30" s="42">
+      <c r="N30">
         <v>25.423400000000001</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="41">
+      <c r="A31" s="36">
         <v>48</v>
       </c>
-      <c r="B31" s="42">
-        <v>0</v>
-      </c>
-      <c r="C31" s="42">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>85.000000000000014</v>
       </c>
-      <c r="D31" s="42">
-        <v>10</v>
-      </c>
-      <c r="E31" s="42">
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
         <v>1.4</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31">
         <v>125</v>
       </c>
-      <c r="G31" s="42">
-        <v>20</v>
-      </c>
-      <c r="H31" s="42">
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31">
         <v>21</v>
       </c>
-      <c r="I31" s="43">
-        <v>25</v>
-      </c>
-      <c r="J31" s="43">
-        <v>30</v>
-      </c>
-      <c r="K31" s="42">
+      <c r="I31" s="5">
+        <v>25</v>
+      </c>
+      <c r="J31" s="5">
+        <v>30</v>
+      </c>
+      <c r="K31">
         <v>1.1640299999999999</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31">
         <v>82.213099999999997</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31">
         <v>24.328700000000001</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N31">
         <v>25.422000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="41">
+      <c r="A32" s="36">
         <v>48</v>
       </c>
-      <c r="B32" s="42">
-        <v>0</v>
-      </c>
-      <c r="C32" s="42">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>85.000000000000014</v>
       </c>
-      <c r="D32" s="42">
-        <v>10</v>
-      </c>
-      <c r="E32" s="42">
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
         <v>1.4</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32">
         <v>125</v>
       </c>
-      <c r="G32" s="42">
-        <v>20</v>
-      </c>
-      <c r="H32" s="42">
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32">
         <v>21</v>
       </c>
-      <c r="I32" s="43">
-        <v>25</v>
-      </c>
-      <c r="J32" s="43">
-        <v>30</v>
-      </c>
-      <c r="K32" s="42">
+      <c r="I32" s="5">
+        <v>25</v>
+      </c>
+      <c r="J32" s="5">
+        <v>30</v>
+      </c>
+      <c r="K32">
         <v>1.17056</v>
       </c>
-      <c r="L32" s="42">
+      <c r="L32">
         <v>82.008799999999994</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32">
         <v>24.691500000000001</v>
       </c>
-      <c r="N32" s="42">
+      <c r="N32">
         <v>25.721299999999999</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="41">
+      <c r="A33" s="36">
         <v>48</v>
       </c>
-      <c r="B33" s="42">
-        <v>0</v>
-      </c>
-      <c r="C33" s="42">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>85.000000000000014</v>
       </c>
-      <c r="D33" s="42">
-        <v>10</v>
-      </c>
-      <c r="E33" s="42">
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
         <v>1.4</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33">
         <v>125</v>
       </c>
-      <c r="G33" s="42">
-        <v>20</v>
-      </c>
-      <c r="H33" s="42">
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
         <v>21</v>
       </c>
-      <c r="I33" s="43">
-        <v>25</v>
-      </c>
-      <c r="J33" s="43">
-        <v>30</v>
-      </c>
-      <c r="K33" s="42">
+      <c r="I33" s="5">
+        <v>25</v>
+      </c>
+      <c r="J33" s="5">
+        <v>30</v>
+      </c>
+      <c r="K33">
         <v>1.1512899999999999</v>
       </c>
-      <c r="L33" s="42">
+      <c r="L33">
         <v>83.306600000000003</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33">
         <v>24.4892</v>
       </c>
-      <c r="N33" s="42">
+      <c r="N33">
         <v>25.5335</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="41">
+      <c r="A34" s="36">
         <v>49</v>
       </c>
-      <c r="B34" s="42">
-        <v>0</v>
-      </c>
-      <c r="C34" s="42">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>90</v>
       </c>
-      <c r="D34" s="42">
-        <v>10</v>
-      </c>
-      <c r="E34" s="42">
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
         <v>1.4</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34">
         <v>130</v>
       </c>
-      <c r="G34" s="42">
-        <v>20</v>
-      </c>
-      <c r="H34" s="42">
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="H34">
         <v>19</v>
       </c>
-      <c r="I34" s="43">
-        <v>25</v>
-      </c>
-      <c r="J34" s="43">
-        <v>30</v>
-      </c>
-      <c r="K34" s="42">
+      <c r="I34" s="5">
+        <v>25</v>
+      </c>
+      <c r="J34" s="5">
+        <v>30</v>
+      </c>
+      <c r="K34">
         <v>1.10334</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34">
         <v>81.083600000000004</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34">
         <v>22.701000000000001</v>
       </c>
-      <c r="N34" s="42">
+      <c r="N34">
         <v>25.3748</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="41">
+      <c r="A35" s="36">
         <v>49</v>
       </c>
-      <c r="B35" s="42">
-        <v>0</v>
-      </c>
-      <c r="C35" s="42">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>90</v>
       </c>
-      <c r="D35" s="42">
-        <v>10</v>
-      </c>
-      <c r="E35" s="42">
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
         <v>1.4</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35">
         <v>130</v>
       </c>
-      <c r="G35" s="42">
-        <v>20</v>
-      </c>
-      <c r="H35" s="42">
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35">
         <v>19</v>
       </c>
-      <c r="I35" s="43">
-        <v>25</v>
-      </c>
-      <c r="J35" s="43">
-        <v>30</v>
-      </c>
-      <c r="K35" s="42">
+      <c r="I35" s="5">
+        <v>25</v>
+      </c>
+      <c r="J35" s="5">
+        <v>30</v>
+      </c>
+      <c r="K35">
         <v>1.16103</v>
       </c>
-      <c r="L35" s="42">
+      <c r="L35">
         <v>81.867400000000004</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35">
         <v>24.0687</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35">
         <v>25.321999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="41">
+      <c r="A36" s="36">
         <v>49</v>
       </c>
-      <c r="B36" s="42">
-        <v>0</v>
-      </c>
-      <c r="C36" s="42">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>90</v>
       </c>
-      <c r="D36" s="42">
-        <v>10</v>
-      </c>
-      <c r="E36" s="42">
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
         <v>1.4</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36">
         <v>130</v>
       </c>
-      <c r="G36" s="42">
-        <v>20</v>
-      </c>
-      <c r="H36" s="42">
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36">
         <v>19</v>
       </c>
-      <c r="I36" s="43">
-        <v>25</v>
-      </c>
-      <c r="J36" s="43">
-        <v>30</v>
-      </c>
-      <c r="K36" s="42">
+      <c r="I36" s="5">
+        <v>25</v>
+      </c>
+      <c r="J36" s="5">
+        <v>30</v>
+      </c>
+      <c r="K36">
         <v>1.1574800000000001</v>
       </c>
-      <c r="L36" s="42">
+      <c r="L36">
         <v>81.971100000000007</v>
       </c>
-      <c r="M36" s="42">
+      <c r="M36">
         <v>24.025300000000001</v>
       </c>
-      <c r="N36" s="42">
+      <c r="N36">
         <v>25.3218</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="41">
+      <c r="A37" s="36">
         <v>49</v>
       </c>
-      <c r="B37" s="42">
-        <v>0</v>
-      </c>
-      <c r="C37" s="42">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>90</v>
       </c>
-      <c r="D37" s="42">
-        <v>10</v>
-      </c>
-      <c r="E37" s="42">
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
         <v>1.4</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37">
         <v>130</v>
       </c>
-      <c r="G37" s="42">
-        <v>20</v>
-      </c>
-      <c r="H37" s="42">
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="H37">
         <v>19</v>
       </c>
-      <c r="I37" s="43">
-        <v>25</v>
-      </c>
-      <c r="J37" s="43">
-        <v>30</v>
-      </c>
-      <c r="K37" s="42">
+      <c r="I37" s="5">
+        <v>25</v>
+      </c>
+      <c r="J37" s="5">
+        <v>30</v>
+      </c>
+      <c r="K37">
         <v>1.15784</v>
       </c>
-      <c r="L37" s="42">
+      <c r="L37">
         <v>81.918899999999994</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37">
         <v>23.913599999999999</v>
       </c>
-      <c r="N37" s="42">
+      <c r="N37">
         <v>25.212299999999999</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="41">
+      <c r="A38" s="36">
         <v>50</v>
       </c>
-      <c r="B38" s="42">
-        <v>0</v>
-      </c>
-      <c r="C38" s="42">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>90</v>
       </c>
-      <c r="D38" s="42">
-        <v>10</v>
-      </c>
-      <c r="E38" s="42">
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
         <v>1.5</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38">
         <v>125</v>
       </c>
-      <c r="G38" s="42">
-        <v>20</v>
-      </c>
-      <c r="H38" s="42">
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
         <v>19</v>
       </c>
-      <c r="I38" s="43">
-        <v>25</v>
-      </c>
-      <c r="J38" s="43">
-        <v>30</v>
-      </c>
-      <c r="K38" s="42">
+      <c r="I38" s="5">
+        <v>25</v>
+      </c>
+      <c r="J38" s="5">
+        <v>30</v>
+      </c>
+      <c r="K38">
         <v>1.1623399999999999</v>
       </c>
-      <c r="L38" s="42">
+      <c r="L38">
         <v>82.082899999999995</v>
       </c>
-      <c r="M38" s="42">
+      <c r="M38">
         <v>24.267199999999999</v>
       </c>
-      <c r="N38" s="42">
+      <c r="N38">
         <v>25.435099999999998</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="41">
+      <c r="A39" s="36">
         <v>50</v>
       </c>
-      <c r="B39" s="42">
-        <v>0</v>
-      </c>
-      <c r="C39" s="42">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>90</v>
       </c>
-      <c r="D39" s="42">
-        <v>10</v>
-      </c>
-      <c r="E39" s="42">
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
         <v>1.5</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39">
         <v>125</v>
       </c>
-      <c r="G39" s="42">
-        <v>20</v>
-      </c>
-      <c r="H39" s="42">
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="H39">
         <v>19</v>
       </c>
-      <c r="I39" s="43">
-        <v>25</v>
-      </c>
-      <c r="J39" s="43">
-        <v>30</v>
-      </c>
-      <c r="K39" s="42">
+      <c r="I39" s="5">
+        <v>25</v>
+      </c>
+      <c r="J39" s="5">
+        <v>30</v>
+      </c>
+      <c r="K39">
         <v>1.15821</v>
       </c>
-      <c r="L39" s="42">
+      <c r="L39">
         <v>82.261899999999997</v>
       </c>
-      <c r="M39" s="42">
+      <c r="M39">
         <v>24.255400000000002</v>
       </c>
-      <c r="N39" s="42">
+      <c r="N39">
         <v>25.457899999999999</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="41">
+      <c r="A40" s="36">
         <v>50</v>
       </c>
-      <c r="B40" s="42">
-        <v>0</v>
-      </c>
-      <c r="C40" s="42">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>90</v>
       </c>
-      <c r="D40" s="42">
-        <v>10</v>
-      </c>
-      <c r="E40" s="42">
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
         <v>1.5</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40">
         <v>125</v>
       </c>
-      <c r="G40" s="42">
-        <v>20</v>
-      </c>
-      <c r="H40" s="42">
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
         <v>19</v>
       </c>
-      <c r="I40" s="43">
-        <v>25</v>
-      </c>
-      <c r="J40" s="43">
-        <v>30</v>
-      </c>
-      <c r="K40" s="42">
+      <c r="I40" s="5">
+        <v>25</v>
+      </c>
+      <c r="J40" s="5">
+        <v>30</v>
+      </c>
+      <c r="K40">
         <v>1.1631100000000001</v>
       </c>
-      <c r="L40" s="42">
+      <c r="L40">
         <v>82.137600000000006</v>
       </c>
-      <c r="M40" s="42">
+      <c r="M40">
         <v>24.309100000000001</v>
       </c>
-      <c r="N40" s="42">
+      <c r="N40">
         <v>25.4452</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="41">
+      <c r="A41" s="36">
         <v>50</v>
       </c>
-      <c r="B41" s="42">
-        <v>0</v>
-      </c>
-      <c r="C41" s="42">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>90</v>
       </c>
-      <c r="D41" s="42">
-        <v>10</v>
-      </c>
-      <c r="E41" s="42">
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
         <v>1.5</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41">
         <v>125</v>
       </c>
-      <c r="G41" s="42">
-        <v>20</v>
-      </c>
-      <c r="H41" s="42">
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
         <v>19</v>
       </c>
-      <c r="I41" s="43">
-        <v>25</v>
-      </c>
-      <c r="J41" s="43">
-        <v>30</v>
-      </c>
-      <c r="K41" s="42">
+      <c r="I41" s="5">
+        <v>25</v>
+      </c>
+      <c r="J41" s="5">
+        <v>30</v>
+      </c>
+      <c r="K41">
         <v>1.1594500000000001</v>
       </c>
-      <c r="L41" s="42">
+      <c r="L41">
         <v>82.361099999999993</v>
       </c>
-      <c r="M41" s="42">
+      <c r="M41">
         <v>24.295300000000001</v>
       </c>
-      <c r="N41" s="42">
+      <c r="N41">
         <v>25.441800000000001</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="41">
+      <c r="A42" s="36">
         <v>51</v>
       </c>
-      <c r="B42" s="42">
-        <v>0</v>
-      </c>
-      <c r="C42" s="42">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>85.000000000000014</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42">
         <v>15</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42">
         <v>1.4</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42">
         <v>125</v>
       </c>
-      <c r="G42" s="42">
-        <v>20</v>
-      </c>
-      <c r="H42" s="42">
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="H42">
         <v>21</v>
       </c>
-      <c r="I42" s="43">
-        <v>25</v>
-      </c>
-      <c r="J42" s="43">
-        <v>30</v>
-      </c>
-      <c r="K42" s="42">
+      <c r="I42" s="5">
+        <v>25</v>
+      </c>
+      <c r="J42" s="5">
+        <v>30</v>
+      </c>
+      <c r="K42">
         <v>1.1634500000000001</v>
       </c>
-      <c r="L42" s="42">
+      <c r="L42">
         <v>81.804500000000004</v>
       </c>
-      <c r="M42" s="42">
+      <c r="M42">
         <v>24.0932</v>
       </c>
-      <c r="N42" s="42">
+      <c r="N42">
         <v>25.314499999999999</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="41">
+      <c r="A43" s="36">
         <v>51</v>
       </c>
-      <c r="B43" s="42">
-        <v>0</v>
-      </c>
-      <c r="C43" s="42">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>85.000000000000014</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43">
         <v>15</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43">
         <v>1.4</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43">
         <v>125</v>
       </c>
-      <c r="G43" s="42">
-        <v>20</v>
-      </c>
-      <c r="H43" s="42">
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43">
         <v>21</v>
       </c>
-      <c r="I43" s="43">
-        <v>25</v>
-      </c>
-      <c r="J43" s="43">
-        <v>30</v>
-      </c>
-      <c r="K43" s="42">
+      <c r="I43" s="5">
+        <v>25</v>
+      </c>
+      <c r="J43" s="5">
+        <v>30</v>
+      </c>
+      <c r="K43">
         <v>1.16872</v>
       </c>
-      <c r="L43" s="42">
+      <c r="L43">
         <v>81.236199999999997</v>
       </c>
-      <c r="M43" s="42">
+      <c r="M43">
         <v>24.0532</v>
       </c>
-      <c r="N43" s="42">
+      <c r="N43">
         <v>25.334499999999998</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="41">
+      <c r="A44" s="36">
         <v>51</v>
       </c>
-      <c r="B44" s="42">
-        <v>0</v>
-      </c>
-      <c r="C44" s="42">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
         <v>85.000000000000014</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44">
         <v>15</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44">
         <v>1.4</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44">
         <v>125</v>
       </c>
-      <c r="G44" s="42">
-        <v>20</v>
-      </c>
-      <c r="H44" s="42">
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
         <v>21</v>
       </c>
-      <c r="I44" s="43">
-        <v>25</v>
-      </c>
-      <c r="J44" s="43">
-        <v>30</v>
-      </c>
-      <c r="K44" s="42">
+      <c r="I44" s="5">
+        <v>25</v>
+      </c>
+      <c r="J44" s="5">
+        <v>30</v>
+      </c>
+      <c r="K44">
         <v>1.1775199999999999</v>
       </c>
-      <c r="L44" s="42">
+      <c r="L44">
         <v>80.914500000000004</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M44">
         <v>24.2136</v>
       </c>
-      <c r="N44" s="42">
+      <c r="N44">
         <v>25.413499999999999</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="41">
+      <c r="A45" s="36">
         <v>51</v>
       </c>
-      <c r="B45" s="42">
-        <v>0</v>
-      </c>
-      <c r="C45" s="42">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>85.000000000000014</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45">
         <v>15</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45">
         <v>1.4</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45">
         <v>125</v>
       </c>
-      <c r="G45" s="42">
-        <v>20</v>
-      </c>
-      <c r="H45" s="42">
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45">
         <v>21</v>
       </c>
-      <c r="I45" s="43">
-        <v>25</v>
-      </c>
-      <c r="J45" s="43">
-        <v>30</v>
-      </c>
-      <c r="K45" s="42">
+      <c r="I45" s="5">
+        <v>25</v>
+      </c>
+      <c r="J45" s="5">
+        <v>30</v>
+      </c>
+      <c r="K45">
         <v>1.1657200000000001</v>
       </c>
-      <c r="L45" s="42">
+      <c r="L45">
         <v>82.991600000000005</v>
       </c>
-      <c r="M45" s="42">
+      <c r="M45">
         <v>24.7136</v>
       </c>
-      <c r="N45" s="42">
+      <c r="N45">
         <v>25.545100000000001</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="41">
+      <c r="A46" s="36">
         <v>52</v>
       </c>
-      <c r="B46" s="42">
-        <v>0</v>
-      </c>
-      <c r="C46" s="42">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
         <v>85.000000000000014</v>
       </c>
-      <c r="D46" s="42">
-        <v>10</v>
-      </c>
-      <c r="E46" s="42">
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
         <v>1.5</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46">
         <v>125</v>
       </c>
-      <c r="G46" s="42">
-        <v>20</v>
-      </c>
-      <c r="H46" s="42">
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46">
         <v>21</v>
       </c>
-      <c r="I46" s="43">
-        <v>25</v>
-      </c>
-      <c r="J46" s="43">
-        <v>30</v>
-      </c>
-      <c r="K46" s="42">
+      <c r="I46" s="5">
+        <v>25</v>
+      </c>
+      <c r="J46" s="5">
+        <v>30</v>
+      </c>
+      <c r="K46">
         <v>1.1732400000000001</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46">
         <v>83.298400000000001</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46">
         <v>24.903600000000001</v>
       </c>
-      <c r="N46" s="42">
+      <c r="N46">
         <v>25.482299999999999</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="41">
+      <c r="A47" s="36">
         <v>52</v>
       </c>
-      <c r="B47" s="42">
-        <v>0</v>
-      </c>
-      <c r="C47" s="42">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
         <v>85.000000000000014</v>
       </c>
-      <c r="D47" s="42">
-        <v>10</v>
-      </c>
-      <c r="E47" s="42">
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
         <v>1.5</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47">
         <v>125</v>
       </c>
-      <c r="G47" s="42">
-        <v>20</v>
-      </c>
-      <c r="H47" s="42">
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47">
         <v>21</v>
       </c>
-      <c r="I47" s="43">
-        <v>25</v>
-      </c>
-      <c r="J47" s="43">
-        <v>30</v>
-      </c>
-      <c r="K47" s="42">
+      <c r="I47" s="5">
+        <v>25</v>
+      </c>
+      <c r="J47" s="5">
+        <v>30</v>
+      </c>
+      <c r="K47">
         <v>1.1623399999999999</v>
       </c>
-      <c r="L47" s="42">
+      <c r="L47">
         <v>81.619200000000006</v>
       </c>
-      <c r="M47" s="42">
+      <c r="M47">
         <v>24.0136</v>
       </c>
-      <c r="N47" s="42">
+      <c r="N47">
         <v>25.3123</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="41">
+      <c r="A48" s="36">
         <v>52</v>
       </c>
-      <c r="B48" s="42">
-        <v>0</v>
-      </c>
-      <c r="C48" s="42">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
         <v>85.000000000000014</v>
       </c>
-      <c r="D48" s="42">
-        <v>10</v>
-      </c>
-      <c r="E48" s="42">
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
         <v>1.5</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48">
         <v>125</v>
       </c>
-      <c r="G48" s="42">
-        <v>20</v>
-      </c>
-      <c r="H48" s="42">
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="H48">
         <v>21</v>
       </c>
-      <c r="I48" s="43">
-        <v>25</v>
-      </c>
-      <c r="J48" s="43">
-        <v>30</v>
-      </c>
-      <c r="K48" s="42">
+      <c r="I48" s="5">
+        <v>25</v>
+      </c>
+      <c r="J48" s="5">
+        <v>30</v>
+      </c>
+      <c r="K48">
         <v>1.1754500000000001</v>
       </c>
-      <c r="L48" s="42">
+      <c r="L48">
         <v>83.002099999999999</v>
       </c>
-      <c r="M48" s="42">
+      <c r="M48">
         <v>24.8932</v>
       </c>
-      <c r="N48" s="42">
+      <c r="N48">
         <v>25.514500000000002</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="41">
+      <c r="A49" s="36">
         <v>52</v>
       </c>
-      <c r="B49" s="42">
-        <v>0</v>
-      </c>
-      <c r="C49" s="42">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
         <v>85.000000000000014</v>
       </c>
-      <c r="D49" s="42">
-        <v>10</v>
-      </c>
-      <c r="E49" s="42">
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
         <v>1.5</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49">
         <v>125</v>
       </c>
-      <c r="G49" s="42">
-        <v>20</v>
-      </c>
-      <c r="H49" s="42">
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49">
         <v>21</v>
       </c>
-      <c r="I49" s="43">
-        <v>25</v>
-      </c>
-      <c r="J49" s="43">
-        <v>30</v>
-      </c>
-      <c r="K49" s="42">
+      <c r="I49" s="5">
+        <v>25</v>
+      </c>
+      <c r="J49" s="5">
+        <v>30</v>
+      </c>
+      <c r="K49">
         <v>1.1600299999999999</v>
       </c>
-      <c r="L49" s="42">
+      <c r="L49">
         <v>83.964299999999994</v>
       </c>
-      <c r="M49" s="42">
+      <c r="M49">
         <v>24.858699999999999</v>
       </c>
-      <c r="N49" s="42">
+      <c r="N49">
         <v>25.521999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="41">
+      <c r="A50" s="36">
         <v>53</v>
       </c>
-      <c r="B50" s="42">
-        <v>0</v>
-      </c>
-      <c r="C50" s="42">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
         <v>90</v>
       </c>
-      <c r="D50" s="42">
-        <v>10</v>
-      </c>
-      <c r="E50" s="42">
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
         <v>1.4</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50">
         <v>125</v>
       </c>
-      <c r="G50" s="42">
-        <v>20</v>
-      </c>
-      <c r="H50" s="42">
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
         <v>21</v>
       </c>
-      <c r="I50" s="43">
-        <v>25</v>
-      </c>
-      <c r="J50" s="43">
-        <v>30</v>
-      </c>
-      <c r="K50" s="42">
+      <c r="I50" s="5">
+        <v>25</v>
+      </c>
+      <c r="J50" s="5">
+        <v>30</v>
+      </c>
+      <c r="K50">
         <v>1.15567</v>
       </c>
-      <c r="L50" s="42">
+      <c r="L50">
         <v>82.086600000000004</v>
       </c>
-      <c r="M50" s="42">
+      <c r="M50">
         <v>24.027799999999999</v>
       </c>
-      <c r="N50" s="42">
+      <c r="N50">
         <v>25.328399999999998</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="41">
+      <c r="A51" s="36">
         <v>53</v>
       </c>
-      <c r="B51" s="42">
-        <v>0</v>
-      </c>
-      <c r="C51" s="42">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
         <v>90</v>
       </c>
-      <c r="D51" s="42">
-        <v>10</v>
-      </c>
-      <c r="E51" s="42">
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
         <v>1.4</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51">
         <v>125</v>
       </c>
-      <c r="G51" s="42">
-        <v>20</v>
-      </c>
-      <c r="H51" s="42">
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
         <v>21</v>
       </c>
-      <c r="I51" s="43">
-        <v>25</v>
-      </c>
-      <c r="J51" s="43">
-        <v>30</v>
-      </c>
-      <c r="K51" s="42">
+      <c r="I51" s="5">
+        <v>25</v>
+      </c>
+      <c r="J51" s="5">
+        <v>30</v>
+      </c>
+      <c r="K51">
         <v>1.16124</v>
       </c>
-      <c r="L51" s="42">
+      <c r="L51">
         <v>81.972200000000001</v>
       </c>
-      <c r="M51" s="42">
+      <c r="M51">
         <v>24.1234</v>
       </c>
-      <c r="N51" s="42">
+      <c r="N51">
         <v>25.342500000000001</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="41">
+      <c r="A52" s="36">
         <v>53</v>
       </c>
-      <c r="B52" s="42">
-        <v>0</v>
-      </c>
-      <c r="C52" s="42">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
         <v>90</v>
       </c>
-      <c r="D52" s="42">
-        <v>10</v>
-      </c>
-      <c r="E52" s="42">
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
         <v>1.4</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52">
         <v>125</v>
       </c>
-      <c r="G52" s="42">
-        <v>20</v>
-      </c>
-      <c r="H52" s="42">
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="H52">
         <v>21</v>
       </c>
-      <c r="I52" s="43">
-        <v>25</v>
-      </c>
-      <c r="J52" s="43">
-        <v>30</v>
-      </c>
-      <c r="K52" s="42">
+      <c r="I52" s="5">
+        <v>25</v>
+      </c>
+      <c r="J52" s="5">
+        <v>30</v>
+      </c>
+      <c r="K52">
         <v>1.1628400000000001</v>
       </c>
-      <c r="L52" s="42">
+      <c r="L52">
         <v>81.505899999999997</v>
       </c>
-      <c r="M52" s="42">
+      <c r="M52">
         <v>24.104299999999999</v>
       </c>
-      <c r="N52" s="42">
+      <c r="N52">
         <v>25.432300000000001</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="41">
+      <c r="A53" s="36">
         <v>53</v>
       </c>
-      <c r="B53" s="42">
-        <v>0</v>
-      </c>
-      <c r="C53" s="42">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
         <v>90</v>
       </c>
-      <c r="D53" s="42">
-        <v>10</v>
-      </c>
-      <c r="E53" s="42">
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
         <v>1.4</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53">
         <v>125</v>
       </c>
-      <c r="G53" s="42">
-        <v>20</v>
-      </c>
-      <c r="H53" s="42">
+      <c r="G53">
+        <v>20</v>
+      </c>
+      <c r="H53">
         <v>21</v>
       </c>
-      <c r="I53" s="43">
-        <v>25</v>
-      </c>
-      <c r="J53" s="43">
-        <v>30</v>
-      </c>
-      <c r="K53" s="42">
+      <c r="I53" s="5">
+        <v>25</v>
+      </c>
+      <c r="J53" s="5">
+        <v>30</v>
+      </c>
+      <c r="K53">
         <v>1.17632</v>
       </c>
-      <c r="L53" s="42">
+      <c r="L53">
         <v>81.666399999999996</v>
       </c>
-      <c r="M53" s="42">
+      <c r="M53">
         <v>24.453199999999999</v>
       </c>
-      <c r="N53" s="42">
+      <c r="N53">
         <v>25.454499999999999</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="41">
+      <c r="A54" s="36">
         <v>54</v>
       </c>
-      <c r="B54" s="42">
-        <v>0</v>
-      </c>
-      <c r="C54" s="42">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>80</v>
       </c>
-      <c r="D54" s="42">
-        <v>10</v>
-      </c>
-      <c r="E54" s="42">
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
         <v>1.5</v>
       </c>
-      <c r="F54" s="42">
+      <c r="F54">
         <v>135</v>
       </c>
-      <c r="G54" s="42">
-        <v>20</v>
-      </c>
-      <c r="H54" s="42">
+      <c r="G54">
+        <v>20</v>
+      </c>
+      <c r="H54">
         <v>21</v>
       </c>
-      <c r="I54" s="43">
-        <v>25</v>
-      </c>
-      <c r="J54" s="43">
-        <v>30</v>
-      </c>
-      <c r="K54" s="42">
+      <c r="I54" s="5">
+        <v>25</v>
+      </c>
+      <c r="J54" s="5">
+        <v>30</v>
+      </c>
+      <c r="K54">
         <v>1.1591199999999999</v>
       </c>
-      <c r="L54" s="42">
+      <c r="L54">
         <v>82.104900000000001</v>
       </c>
-      <c r="M54" s="42">
+      <c r="M54">
         <v>24.0854</v>
       </c>
-      <c r="N54" s="42">
+      <c r="N54">
         <v>25.3079</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="41">
+      <c r="A55" s="36">
         <v>54</v>
       </c>
-      <c r="B55" s="42">
-        <v>0</v>
-      </c>
-      <c r="C55" s="42">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
         <v>80</v>
       </c>
-      <c r="D55" s="42">
-        <v>10</v>
-      </c>
-      <c r="E55" s="42">
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
         <v>1.5</v>
       </c>
-      <c r="F55" s="42">
+      <c r="F55">
         <v>135</v>
       </c>
-      <c r="G55" s="42">
-        <v>20</v>
-      </c>
-      <c r="H55" s="42">
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55">
         <v>21</v>
       </c>
-      <c r="I55" s="43">
-        <v>25</v>
-      </c>
-      <c r="J55" s="43">
-        <v>30</v>
-      </c>
-      <c r="K55" s="42">
+      <c r="I55" s="5">
+        <v>25</v>
+      </c>
+      <c r="J55" s="5">
+        <v>30</v>
+      </c>
+      <c r="K55">
         <v>1.16093</v>
       </c>
-      <c r="L55" s="42">
+      <c r="L55">
         <v>83.257900000000006</v>
       </c>
-      <c r="M55" s="42">
+      <c r="M55">
         <v>24.668700000000001</v>
       </c>
-      <c r="N55" s="42">
+      <c r="N55">
         <v>25.521999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="41">
+      <c r="A56" s="36">
         <v>54</v>
       </c>
-      <c r="B56" s="42">
-        <v>0</v>
-      </c>
-      <c r="C56" s="42">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
         <v>80</v>
       </c>
-      <c r="D56" s="42">
-        <v>10</v>
-      </c>
-      <c r="E56" s="42">
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
         <v>1.5</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56">
         <v>135</v>
       </c>
-      <c r="G56" s="42">
-        <v>20</v>
-      </c>
-      <c r="H56" s="42">
+      <c r="G56">
+        <v>20</v>
+      </c>
+      <c r="H56">
         <v>21</v>
       </c>
-      <c r="I56" s="43">
-        <v>25</v>
-      </c>
-      <c r="J56" s="43">
-        <v>30</v>
-      </c>
-      <c r="K56" s="42">
+      <c r="I56" s="5">
+        <v>25</v>
+      </c>
+      <c r="J56" s="5">
+        <v>30</v>
+      </c>
+      <c r="K56">
         <v>1.17167</v>
       </c>
-      <c r="L56" s="42">
+      <c r="L56">
         <v>82.769900000000007</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56">
         <v>24.727799999999998</v>
       </c>
-      <c r="N56" s="42">
+      <c r="N56">
         <v>25.4984</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="41">
+      <c r="A57" s="36">
         <v>54</v>
       </c>
-      <c r="B57" s="42">
-        <v>0</v>
-      </c>
-      <c r="C57" s="42">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
         <v>80</v>
       </c>
-      <c r="D57" s="42">
-        <v>10</v>
-      </c>
-      <c r="E57" s="42">
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
         <v>1.5</v>
       </c>
-      <c r="F57" s="42">
+      <c r="F57">
         <v>135</v>
       </c>
-      <c r="G57" s="42">
-        <v>20</v>
-      </c>
-      <c r="H57" s="42">
+      <c r="G57">
+        <v>20</v>
+      </c>
+      <c r="H57">
         <v>21</v>
       </c>
-      <c r="I57" s="43">
-        <v>25</v>
-      </c>
-      <c r="J57" s="43">
-        <v>30</v>
-      </c>
-      <c r="K57" s="42">
+      <c r="I57" s="5">
+        <v>25</v>
+      </c>
+      <c r="J57" s="5">
+        <v>30</v>
+      </c>
+      <c r="K57">
         <v>1.1654500000000001</v>
       </c>
-      <c r="L57" s="42">
+      <c r="L57">
         <v>83.041700000000006</v>
       </c>
-      <c r="M57" s="42">
+      <c r="M57">
         <v>24.693200000000001</v>
       </c>
-      <c r="N57" s="42">
+      <c r="N57">
         <v>25.514500000000002</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="41">
+      <c r="A58" s="36">
         <v>55</v>
       </c>
-      <c r="B58" s="42">
-        <v>0</v>
-      </c>
-      <c r="C58" s="42">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>90</v>
       </c>
-      <c r="D58" s="42">
-        <v>10</v>
-      </c>
-      <c r="E58" s="42">
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
         <v>1.4</v>
       </c>
-      <c r="F58" s="42">
+      <c r="F58">
         <v>130</v>
       </c>
-      <c r="G58" s="42">
-        <v>20</v>
-      </c>
-      <c r="H58" s="42">
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58">
         <v>21</v>
       </c>
-      <c r="I58" s="43">
-        <v>25</v>
-      </c>
-      <c r="J58" s="43">
-        <v>30</v>
-      </c>
-      <c r="K58" s="42">
+      <c r="I58" s="5">
+        <v>25</v>
+      </c>
+      <c r="J58" s="5">
+        <v>30</v>
+      </c>
+      <c r="K58">
         <v>1.1731199999999999</v>
       </c>
-      <c r="L58" s="42">
+      <c r="L58">
         <v>80.882099999999994</v>
       </c>
-      <c r="M58" s="42">
+      <c r="M58">
         <v>24.112300000000001</v>
       </c>
-      <c r="N58" s="42">
+      <c r="N58">
         <v>25.412299999999998</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="41">
+      <c r="A59" s="36">
         <v>55</v>
       </c>
-      <c r="B59" s="42">
-        <v>0</v>
-      </c>
-      <c r="C59" s="42">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
         <v>90</v>
       </c>
-      <c r="D59" s="42">
-        <v>10</v>
-      </c>
-      <c r="E59" s="42">
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
         <v>1.4</v>
       </c>
-      <c r="F59" s="42">
+      <c r="F59">
         <v>130</v>
       </c>
-      <c r="G59" s="42">
-        <v>20</v>
-      </c>
-      <c r="H59" s="42">
+      <c r="G59">
+        <v>20</v>
+      </c>
+      <c r="H59">
         <v>21</v>
       </c>
-      <c r="I59" s="43">
-        <v>25</v>
-      </c>
-      <c r="J59" s="43">
-        <v>30</v>
-      </c>
-      <c r="K59" s="42">
+      <c r="I59" s="5">
+        <v>25</v>
+      </c>
+      <c r="J59" s="5">
+        <v>30</v>
+      </c>
+      <c r="K59">
         <v>1.1506700000000001</v>
       </c>
-      <c r="L59" s="42">
+      <c r="L59">
         <v>82.081100000000006</v>
       </c>
-      <c r="M59" s="42">
+      <c r="M59">
         <v>23.8278</v>
       </c>
-      <c r="N59" s="42">
+      <c r="N59">
         <v>25.228400000000001</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="41">
+      <c r="A60" s="36">
         <v>55</v>
       </c>
-      <c r="B60" s="42">
-        <v>0</v>
-      </c>
-      <c r="C60" s="42">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>90</v>
       </c>
-      <c r="D60" s="42">
-        <v>10</v>
-      </c>
-      <c r="E60" s="42">
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
         <v>1.4</v>
       </c>
-      <c r="F60" s="42">
+      <c r="F60">
         <v>130</v>
       </c>
-      <c r="G60" s="42">
-        <v>20</v>
-      </c>
-      <c r="H60" s="42">
+      <c r="G60">
+        <v>20</v>
+      </c>
+      <c r="H60">
         <v>21</v>
       </c>
-      <c r="I60" s="43">
-        <v>25</v>
-      </c>
-      <c r="J60" s="43">
-        <v>30</v>
-      </c>
-      <c r="K60" s="42">
+      <c r="I60" s="5">
+        <v>25</v>
+      </c>
+      <c r="J60" s="5">
+        <v>30</v>
+      </c>
+      <c r="K60">
         <v>1.1609799999999999</v>
       </c>
-      <c r="L60" s="42">
+      <c r="L60">
         <v>81.797300000000007</v>
       </c>
-      <c r="M60" s="42">
+      <c r="M60">
         <v>24.069099999999999</v>
       </c>
-      <c r="N60" s="42">
+      <c r="N60">
         <v>25.345199999999998</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="41">
+      <c r="A61" s="36">
         <v>55</v>
       </c>
-      <c r="B61" s="42">
-        <v>0</v>
-      </c>
-      <c r="C61" s="42">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
         <v>90</v>
       </c>
-      <c r="D61" s="42">
-        <v>10</v>
-      </c>
-      <c r="E61" s="42">
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
         <v>1.4</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F61">
         <v>130</v>
       </c>
-      <c r="G61" s="42">
-        <v>20</v>
-      </c>
-      <c r="H61" s="42">
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61">
         <v>21</v>
       </c>
-      <c r="I61" s="43">
-        <v>25</v>
-      </c>
-      <c r="J61" s="43">
-        <v>30</v>
-      </c>
-      <c r="K61" s="42">
+      <c r="I61" s="5">
+        <v>25</v>
+      </c>
+      <c r="J61" s="5">
+        <v>30</v>
+      </c>
+      <c r="K61">
         <v>1.1778200000000001</v>
       </c>
-      <c r="L61" s="42">
+      <c r="L61">
         <v>81.597099999999998</v>
       </c>
-      <c r="M61" s="42">
+      <c r="M61">
         <v>24.463200000000001</v>
       </c>
-      <c r="N61" s="42">
+      <c r="N61">
         <v>25.4542</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="41">
+      <c r="A62" s="36">
         <v>56</v>
       </c>
-      <c r="B62" s="42">
-        <v>0</v>
-      </c>
-      <c r="C62" s="42">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
         <v>80</v>
       </c>
-      <c r="D62" s="42">
-        <v>10</v>
-      </c>
-      <c r="E62" s="42">
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
         <v>1.5</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F62">
         <v>125</v>
       </c>
-      <c r="G62" s="42">
-        <v>20</v>
-      </c>
-      <c r="H62" s="42">
+      <c r="G62">
+        <v>20</v>
+      </c>
+      <c r="H62">
         <v>21</v>
       </c>
-      <c r="I62" s="43">
-        <v>25</v>
-      </c>
-      <c r="J62" s="43">
-        <v>30</v>
-      </c>
-      <c r="K62" s="42">
+      <c r="I62" s="5">
+        <v>25</v>
+      </c>
+      <c r="J62" s="5">
+        <v>30</v>
+      </c>
+      <c r="K62">
         <v>1.1803399999999999</v>
       </c>
-      <c r="L62" s="42">
+      <c r="L62">
         <v>81.367900000000006</v>
       </c>
-      <c r="M62" s="42">
+      <c r="M62">
         <v>24.609200000000001</v>
       </c>
-      <c r="N62" s="42">
+      <c r="N62">
         <v>25.6234</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="41">
+      <c r="A63" s="36">
         <v>56</v>
       </c>
-      <c r="B63" s="42">
-        <v>0</v>
-      </c>
-      <c r="C63" s="42">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
         <v>80</v>
       </c>
-      <c r="D63" s="42">
-        <v>10</v>
-      </c>
-      <c r="E63" s="42">
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
         <v>1.5</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F63">
         <v>125</v>
       </c>
-      <c r="G63" s="42">
-        <v>20</v>
-      </c>
-      <c r="H63" s="42">
+      <c r="G63">
+        <v>20</v>
+      </c>
+      <c r="H63">
         <v>21</v>
       </c>
-      <c r="I63" s="43">
-        <v>25</v>
-      </c>
-      <c r="J63" s="43">
-        <v>30</v>
-      </c>
-      <c r="K63" s="42">
+      <c r="I63" s="5">
+        <v>25</v>
+      </c>
+      <c r="J63" s="5">
+        <v>30</v>
+      </c>
+      <c r="K63">
         <v>1.1651499999999999</v>
       </c>
-      <c r="L63" s="42">
+      <c r="L63">
         <v>83.096699999999998</v>
       </c>
-      <c r="M63" s="42">
+      <c r="M63">
         <v>24.6935</v>
       </c>
-      <c r="N63" s="42">
+      <c r="N63">
         <v>25.5045</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="41">
+      <c r="A64" s="36">
         <v>56</v>
       </c>
-      <c r="B64" s="42">
-        <v>0</v>
-      </c>
-      <c r="C64" s="42">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
         <v>80</v>
       </c>
-      <c r="D64" s="42">
-        <v>10</v>
-      </c>
-      <c r="E64" s="42">
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
         <v>1.5</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F64">
         <v>125</v>
       </c>
-      <c r="G64" s="42">
-        <v>20</v>
-      </c>
-      <c r="H64" s="42">
+      <c r="G64">
+        <v>20</v>
+      </c>
+      <c r="H64">
         <v>21</v>
       </c>
-      <c r="I64" s="43">
-        <v>25</v>
-      </c>
-      <c r="J64" s="43">
-        <v>30</v>
-      </c>
-      <c r="K64" s="42">
+      <c r="I64" s="5">
+        <v>25</v>
+      </c>
+      <c r="J64" s="5">
+        <v>30</v>
+      </c>
+      <c r="K64">
         <v>1.15303</v>
       </c>
-      <c r="L64" s="42">
+      <c r="L64">
         <v>81.730699999999999</v>
       </c>
-      <c r="M64" s="42">
+      <c r="M64">
         <v>23.768699999999999</v>
       </c>
-      <c r="N64" s="42">
+      <c r="N64">
         <v>25.222000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="41">
+      <c r="A65" s="36">
         <v>56</v>
       </c>
-      <c r="B65" s="42">
-        <v>0</v>
-      </c>
-      <c r="C65" s="42">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
         <v>80</v>
       </c>
-      <c r="D65" s="42">
-        <v>10</v>
-      </c>
-      <c r="E65" s="42">
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
         <v>1.5</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F65">
         <v>125</v>
       </c>
-      <c r="G65" s="42">
-        <v>20</v>
-      </c>
-      <c r="H65" s="42">
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65">
         <v>21</v>
       </c>
-      <c r="I65" s="43">
-        <v>25</v>
-      </c>
-      <c r="J65" s="43">
-        <v>30</v>
-      </c>
-      <c r="K65" s="42">
+      <c r="I65" s="5">
+        <v>25</v>
+      </c>
+      <c r="J65" s="5">
+        <v>30</v>
+      </c>
+      <c r="K65">
         <v>1.1748799999999999</v>
       </c>
-      <c r="L65" s="42">
+      <c r="L65">
         <v>83.157499999999999</v>
       </c>
-      <c r="M65" s="42">
+      <c r="M65">
         <v>24.915299999999998</v>
       </c>
-      <c r="N65" s="42">
+      <c r="N65">
         <v>25.501799999999999</v>
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="41">
+      <c r="A66" s="36">
         <v>57</v>
       </c>
-      <c r="B66" s="42">
-        <v>0</v>
-      </c>
-      <c r="C66" s="42">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
         <v>85.000000000000014</v>
       </c>
-      <c r="D66" s="42">
-        <v>10</v>
-      </c>
-      <c r="E66" s="42">
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
         <v>1.4</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66">
         <v>130</v>
       </c>
-      <c r="G66" s="42">
-        <v>20</v>
-      </c>
-      <c r="H66" s="42">
+      <c r="G66">
+        <v>20</v>
+      </c>
+      <c r="H66">
         <v>21</v>
       </c>
-      <c r="I66" s="43">
-        <v>25</v>
-      </c>
-      <c r="J66" s="43">
-        <v>30</v>
-      </c>
-      <c r="K66" s="42">
+      <c r="I66" s="5">
+        <v>25</v>
+      </c>
+      <c r="J66" s="5">
+        <v>30</v>
+      </c>
+      <c r="K66">
         <v>1.1537200000000001</v>
       </c>
-      <c r="L66" s="42">
+      <c r="L66">
         <v>81.931600000000003</v>
       </c>
-      <c r="M66" s="42">
+      <c r="M66">
         <v>23.853200000000001</v>
       </c>
-      <c r="N66" s="42">
+      <c r="N66">
         <v>25.234500000000001</v>
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="41">
+      <c r="A67" s="36">
         <v>57</v>
       </c>
-      <c r="B67" s="42">
-        <v>0</v>
-      </c>
-      <c r="C67" s="42">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
         <v>85.000000000000014</v>
       </c>
-      <c r="D67" s="42">
-        <v>10</v>
-      </c>
-      <c r="E67" s="42">
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
         <v>1.4</v>
       </c>
-      <c r="F67" s="42">
+      <c r="F67">
         <v>130</v>
       </c>
-      <c r="G67" s="42">
-        <v>20</v>
-      </c>
-      <c r="H67" s="42">
+      <c r="G67">
+        <v>20</v>
+      </c>
+      <c r="H67">
         <v>21</v>
       </c>
-      <c r="I67" s="43">
-        <v>25</v>
-      </c>
-      <c r="J67" s="43">
-        <v>30</v>
-      </c>
-      <c r="K67" s="42">
+      <c r="I67" s="5">
+        <v>25</v>
+      </c>
+      <c r="J67" s="5">
+        <v>30</v>
+      </c>
+      <c r="K67">
         <v>1.1634</v>
       </c>
-      <c r="L67" s="42">
+      <c r="L67">
         <v>82.973399999999998</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67">
         <v>24.550899999999999</v>
       </c>
-      <c r="N67" s="42">
+      <c r="N67">
         <v>25.4331</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="41">
+      <c r="A68" s="36">
         <v>57</v>
       </c>
-      <c r="B68" s="42">
-        <v>0</v>
-      </c>
-      <c r="C68" s="42">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
         <v>85.000000000000014</v>
       </c>
-      <c r="D68" s="42">
-        <v>10</v>
-      </c>
-      <c r="E68" s="42">
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
         <v>1.4</v>
       </c>
-      <c r="F68" s="42">
+      <c r="F68">
         <v>130</v>
       </c>
-      <c r="G68" s="42">
-        <v>20</v>
-      </c>
-      <c r="H68" s="42">
+      <c r="G68">
+        <v>20</v>
+      </c>
+      <c r="H68">
         <v>21</v>
       </c>
-      <c r="I68" s="43">
-        <v>25</v>
-      </c>
-      <c r="J68" s="43">
-        <v>30</v>
-      </c>
-      <c r="K68" s="42">
+      <c r="I68" s="5">
+        <v>25</v>
+      </c>
+      <c r="J68" s="5">
+        <v>30</v>
+      </c>
+      <c r="K68">
         <v>1.1580999999999999</v>
       </c>
-      <c r="L68" s="42">
+      <c r="L68">
         <v>82.540300000000002</v>
       </c>
-      <c r="M68" s="42">
+      <c r="M68">
         <v>24.2834</v>
       </c>
-      <c r="N68" s="42">
+      <c r="N68">
         <v>25.403700000000001</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="41">
+      <c r="A69" s="36">
         <v>57</v>
       </c>
-      <c r="B69" s="42">
-        <v>0</v>
-      </c>
-      <c r="C69" s="42">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
         <v>85.000000000000014</v>
       </c>
-      <c r="D69" s="42">
-        <v>10</v>
-      </c>
-      <c r="E69" s="42">
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
         <v>1.4</v>
       </c>
-      <c r="F69" s="42">
+      <c r="F69">
         <v>130</v>
       </c>
-      <c r="G69" s="42">
-        <v>20</v>
-      </c>
-      <c r="H69" s="42">
+      <c r="G69">
+        <v>20</v>
+      </c>
+      <c r="H69">
         <v>21</v>
       </c>
-      <c r="I69" s="43">
-        <v>25</v>
-      </c>
-      <c r="J69" s="43">
-        <v>30</v>
-      </c>
-      <c r="K69" s="42">
+      <c r="I69" s="5">
+        <v>25</v>
+      </c>
+      <c r="J69" s="5">
+        <v>30</v>
+      </c>
+      <c r="K69">
         <v>1.1654800000000001</v>
       </c>
-      <c r="L69" s="42">
+      <c r="L69">
         <v>82.101799999999997</v>
       </c>
-      <c r="M69" s="42">
+      <c r="M69">
         <v>24.325600000000001</v>
       </c>
-      <c r="N69" s="42">
+      <c r="N69">
         <v>25.412800000000001</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="41">
+      <c r="A70" s="36">
         <v>58</v>
       </c>
-      <c r="B70" s="42">
-        <v>0</v>
-      </c>
-      <c r="C70" s="42">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
         <v>85.000000000000014</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D70">
         <v>15</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70">
         <v>1.5</v>
       </c>
-      <c r="F70" s="42">
+      <c r="F70">
         <v>130</v>
       </c>
-      <c r="G70" s="42">
-        <v>20</v>
-      </c>
-      <c r="H70" s="42">
+      <c r="G70">
+        <v>20</v>
+      </c>
+      <c r="H70">
         <v>21</v>
       </c>
-      <c r="I70" s="43">
-        <v>25</v>
-      </c>
-      <c r="J70" s="43">
-        <v>30</v>
-      </c>
-      <c r="K70" s="42">
+      <c r="I70" s="5">
+        <v>25</v>
+      </c>
+      <c r="J70" s="5">
+        <v>30</v>
+      </c>
+      <c r="K70">
         <v>1.1678900000000001</v>
       </c>
-      <c r="L70" s="42">
+      <c r="L70">
         <v>83.647300000000001</v>
       </c>
-      <c r="M70" s="42">
+      <c r="M70">
         <v>24.8215</v>
       </c>
-      <c r="N70" s="42">
+      <c r="N70">
         <v>25.408200000000001</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="41">
+      <c r="A71" s="36">
         <v>58</v>
       </c>
-      <c r="B71" s="42">
-        <v>0</v>
-      </c>
-      <c r="C71" s="42">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
         <v>85.000000000000014</v>
       </c>
-      <c r="D71" s="42">
+      <c r="D71">
         <v>15</v>
       </c>
-      <c r="E71" s="42">
+      <c r="E71">
         <v>1.5</v>
       </c>
-      <c r="F71" s="42">
+      <c r="F71">
         <v>130</v>
       </c>
-      <c r="G71" s="42">
-        <v>20</v>
-      </c>
-      <c r="H71" s="42">
+      <c r="G71">
+        <v>20</v>
+      </c>
+      <c r="H71">
         <v>21</v>
       </c>
-      <c r="I71" s="43">
-        <v>25</v>
-      </c>
-      <c r="J71" s="43">
-        <v>30</v>
-      </c>
-      <c r="K71" s="42">
+      <c r="I71" s="5">
+        <v>25</v>
+      </c>
+      <c r="J71" s="5">
+        <v>30</v>
+      </c>
+      <c r="K71">
         <v>1.1600699999999999</v>
       </c>
-      <c r="L71" s="42">
+      <c r="L71">
         <v>83.827399999999997</v>
       </c>
-      <c r="M71" s="42">
+      <c r="M71">
         <v>24.700299999999999</v>
       </c>
-      <c r="N71" s="42">
+      <c r="N71">
         <v>25.399899999999999</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="41">
+      <c r="A72" s="36">
         <v>58</v>
       </c>
-      <c r="B72" s="42">
-        <v>0</v>
-      </c>
-      <c r="C72" s="42">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
         <v>85.000000000000014</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72">
         <v>15</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72">
         <v>1.5</v>
       </c>
-      <c r="F72" s="42">
+      <c r="F72">
         <v>130</v>
       </c>
-      <c r="G72" s="42">
-        <v>20</v>
-      </c>
-      <c r="H72" s="42">
+      <c r="G72">
+        <v>20</v>
+      </c>
+      <c r="H72">
         <v>21</v>
       </c>
-      <c r="I72" s="43">
-        <v>25</v>
-      </c>
-      <c r="J72" s="43">
-        <v>30</v>
-      </c>
-      <c r="K72" s="42">
+      <c r="I72" s="5">
+        <v>25</v>
+      </c>
+      <c r="J72" s="5">
+        <v>30</v>
+      </c>
+      <c r="K72">
         <v>1.17231</v>
       </c>
-      <c r="L72" s="42">
+      <c r="L72">
         <v>81.7988</v>
       </c>
-      <c r="M72" s="42">
+      <c r="M72">
         <v>24.342199999999998</v>
       </c>
-      <c r="N72" s="42">
+      <c r="N72">
         <v>25.384599999999999</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="41">
+      <c r="A73" s="36">
         <v>58</v>
       </c>
-      <c r="B73" s="42">
-        <v>0</v>
-      </c>
-      <c r="C73" s="42">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
         <v>85.000000000000014</v>
       </c>
-      <c r="D73" s="42">
+      <c r="D73">
         <v>15</v>
       </c>
-      <c r="E73" s="42">
+      <c r="E73">
         <v>1.5</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F73">
         <v>130</v>
       </c>
-      <c r="G73" s="42">
-        <v>20</v>
-      </c>
-      <c r="H73" s="42">
+      <c r="G73">
+        <v>20</v>
+      </c>
+      <c r="H73">
         <v>21</v>
       </c>
-      <c r="I73" s="43">
-        <v>25</v>
-      </c>
-      <c r="J73" s="43">
-        <v>30</v>
-      </c>
-      <c r="K73" s="42">
+      <c r="I73" s="5">
+        <v>25</v>
+      </c>
+      <c r="J73" s="5">
+        <v>30</v>
+      </c>
+      <c r="K73">
         <v>1.18448</v>
       </c>
-      <c r="L73" s="42">
+      <c r="L73">
         <v>82.152500000000003</v>
       </c>
-      <c r="M73" s="42">
+      <c r="M73">
         <v>24.815300000000001</v>
       </c>
-      <c r="N73" s="42">
+      <c r="N73">
         <v>25.501799999999999</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="41">
+      <c r="A74" s="36">
         <v>59</v>
       </c>
-      <c r="B74" s="42">
-        <v>0</v>
-      </c>
-      <c r="C74" s="42">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
         <v>85.000000000000014</v>
       </c>
-      <c r="D74" s="42">
-        <v>10</v>
-      </c>
-      <c r="E74" s="42">
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
         <v>1.6</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74">
         <v>130</v>
       </c>
-      <c r="G74" s="42">
-        <v>20</v>
-      </c>
-      <c r="H74" s="42">
+      <c r="G74">
+        <v>20</v>
+      </c>
+      <c r="H74">
         <v>21</v>
       </c>
-      <c r="I74" s="43">
-        <v>25</v>
-      </c>
-      <c r="J74" s="43">
-        <v>30</v>
-      </c>
-      <c r="K74" s="42">
+      <c r="I74" s="5">
+        <v>25</v>
+      </c>
+      <c r="J74" s="5">
+        <v>30</v>
+      </c>
+      <c r="K74">
         <v>1.1614899999999999</v>
       </c>
-      <c r="L74" s="42">
+      <c r="L74">
         <v>83.438299999999998</v>
       </c>
-      <c r="M74" s="42">
+      <c r="M74">
         <v>24.642900000000001</v>
       </c>
-      <c r="N74" s="42">
+      <c r="N74">
         <v>25.427900000000001</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="41">
+      <c r="A75" s="36">
         <v>59</v>
       </c>
-      <c r="B75" s="42">
-        <v>0</v>
-      </c>
-      <c r="C75" s="42">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
         <v>85.000000000000014</v>
       </c>
-      <c r="D75" s="42">
-        <v>10</v>
-      </c>
-      <c r="E75" s="42">
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
         <v>1.6</v>
       </c>
-      <c r="F75" s="42">
+      <c r="F75">
         <v>130</v>
       </c>
-      <c r="G75" s="42">
-        <v>20</v>
-      </c>
-      <c r="H75" s="42">
+      <c r="G75">
+        <v>20</v>
+      </c>
+      <c r="H75">
         <v>21</v>
       </c>
-      <c r="I75" s="43">
-        <v>25</v>
-      </c>
-      <c r="J75" s="43">
-        <v>30</v>
-      </c>
-      <c r="K75" s="42">
+      <c r="I75" s="5">
+        <v>25</v>
+      </c>
+      <c r="J75" s="5">
+        <v>30</v>
+      </c>
+      <c r="K75">
         <v>1.1795500000000001</v>
       </c>
-      <c r="L75" s="42">
+      <c r="L75">
         <v>81.291700000000006</v>
       </c>
-      <c r="M75" s="42">
+      <c r="M75">
         <v>24.501799999999999</v>
       </c>
-      <c r="N75" s="42">
+      <c r="N75">
         <v>25.552600000000002</v>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="41">
+      <c r="A76" s="36">
         <v>59</v>
       </c>
-      <c r="B76" s="42">
-        <v>0</v>
-      </c>
-      <c r="C76" s="42">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
         <v>85.000000000000014</v>
       </c>
-      <c r="D76" s="42">
-        <v>10</v>
-      </c>
-      <c r="E76" s="42">
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
         <v>1.6</v>
       </c>
-      <c r="F76" s="42">
+      <c r="F76">
         <v>130</v>
       </c>
-      <c r="G76" s="42">
-        <v>20</v>
-      </c>
-      <c r="H76" s="42">
+      <c r="G76">
+        <v>20</v>
+      </c>
+      <c r="H76">
         <v>21</v>
       </c>
-      <c r="I76" s="43">
-        <v>25</v>
-      </c>
-      <c r="J76" s="43">
-        <v>30</v>
-      </c>
-      <c r="K76" s="42">
+      <c r="I76" s="5">
+        <v>25</v>
+      </c>
+      <c r="J76" s="5">
+        <v>30</v>
+      </c>
+      <c r="K76">
         <v>1.16997</v>
       </c>
-      <c r="L76" s="42">
+      <c r="L76">
         <v>82.041899999999998</v>
       </c>
-      <c r="M76" s="42">
+      <c r="M76">
         <v>24.401800000000001</v>
       </c>
-      <c r="N76" s="42">
+      <c r="N76">
         <v>25.421700000000001</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="41">
+      <c r="A77" s="36">
         <v>59</v>
       </c>
-      <c r="B77" s="42">
-        <v>0</v>
-      </c>
-      <c r="C77" s="42">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
         <v>85.000000000000014</v>
       </c>
-      <c r="D77" s="42">
-        <v>10</v>
-      </c>
-      <c r="E77" s="42">
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
         <v>1.6</v>
       </c>
-      <c r="F77" s="42">
+      <c r="F77">
         <v>130</v>
       </c>
-      <c r="G77" s="42">
-        <v>20</v>
-      </c>
-      <c r="H77" s="42">
+      <c r="G77">
+        <v>20</v>
+      </c>
+      <c r="H77">
         <v>21</v>
       </c>
-      <c r="I77" s="43">
-        <v>25</v>
-      </c>
-      <c r="J77" s="43">
-        <v>30</v>
-      </c>
-      <c r="K77" s="42">
+      <c r="I77" s="5">
+        <v>25</v>
+      </c>
+      <c r="J77" s="5">
+        <v>30</v>
+      </c>
+      <c r="K77">
         <v>1.1723300000000001</v>
       </c>
-      <c r="L77" s="42">
+      <c r="L77">
         <v>82.414299999999997</v>
       </c>
-      <c r="M77" s="42">
+      <c r="M77">
         <v>24.668199999999999</v>
       </c>
-      <c r="N77" s="42">
+      <c r="N77">
         <v>25.532</v>
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="41">
+      <c r="A78" s="36">
         <v>60</v>
       </c>
-      <c r="B78" s="42">
-        <v>0</v>
-      </c>
-      <c r="C78" s="42">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
         <v>80</v>
       </c>
-      <c r="D78" s="42">
-        <v>10</v>
-      </c>
-      <c r="E78" s="42">
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78">
         <v>1.4</v>
       </c>
-      <c r="F78" s="42">
+      <c r="F78">
         <v>125</v>
       </c>
-      <c r="G78" s="42">
-        <v>20</v>
-      </c>
-      <c r="H78" s="42">
+      <c r="G78">
+        <v>20</v>
+      </c>
+      <c r="H78">
         <v>21</v>
       </c>
-      <c r="I78" s="43">
-        <v>25</v>
-      </c>
-      <c r="J78" s="43">
-        <v>30</v>
-      </c>
-      <c r="K78" s="42">
+      <c r="I78" s="5">
+        <v>25</v>
+      </c>
+      <c r="J78" s="5">
+        <v>30</v>
+      </c>
+      <c r="K78">
         <v>1.1524799999999999</v>
       </c>
-      <c r="L78" s="42">
+      <c r="L78">
         <v>81.620999999999995</v>
       </c>
-      <c r="M78" s="42">
+      <c r="M78">
         <v>23.725300000000001</v>
       </c>
-      <c r="N78" s="42">
+      <c r="N78">
         <v>25.221800000000002</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="41">
+      <c r="A79" s="36">
         <v>60</v>
       </c>
-      <c r="B79" s="42">
-        <v>0</v>
-      </c>
-      <c r="C79" s="42">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
         <v>80</v>
       </c>
-      <c r="D79" s="42">
-        <v>10</v>
-      </c>
-      <c r="E79" s="42">
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79">
         <v>1.4</v>
       </c>
-      <c r="F79" s="42">
+      <c r="F79">
         <v>125</v>
       </c>
-      <c r="G79" s="42">
-        <v>20</v>
-      </c>
-      <c r="H79" s="42">
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79">
         <v>21</v>
       </c>
-      <c r="I79" s="43">
-        <v>25</v>
-      </c>
-      <c r="J79" s="43">
-        <v>30</v>
-      </c>
-      <c r="K79" s="42">
+      <c r="I79" s="5">
+        <v>25</v>
+      </c>
+      <c r="J79" s="5">
+        <v>30</v>
+      </c>
+      <c r="K79">
         <v>1.1692199999999999</v>
       </c>
-      <c r="L79" s="42">
+      <c r="L79">
         <v>82.382099999999994</v>
       </c>
-      <c r="M79" s="42">
+      <c r="M79">
         <v>24.482099999999999</v>
       </c>
-      <c r="N79" s="42">
+      <c r="N79">
         <v>25.416699999999999</v>
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="41">
+      <c r="A80" s="36">
         <v>60</v>
       </c>
-      <c r="B80" s="42">
-        <v>0</v>
-      </c>
-      <c r="C80" s="42">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
         <v>80</v>
       </c>
-      <c r="D80" s="42">
-        <v>10</v>
-      </c>
-      <c r="E80" s="42">
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
         <v>1.4</v>
       </c>
-      <c r="F80" s="42">
+      <c r="F80">
         <v>125</v>
       </c>
-      <c r="G80" s="42">
-        <v>20</v>
-      </c>
-      <c r="H80" s="42">
+      <c r="G80">
+        <v>20</v>
+      </c>
+      <c r="H80">
         <v>21</v>
       </c>
-      <c r="I80" s="43">
-        <v>25</v>
-      </c>
-      <c r="J80" s="43">
-        <v>30</v>
-      </c>
-      <c r="K80" s="42">
+      <c r="I80" s="5">
+        <v>25</v>
+      </c>
+      <c r="J80" s="5">
+        <v>30</v>
+      </c>
+      <c r="K80">
         <v>1.16452</v>
       </c>
-      <c r="L80" s="42">
+      <c r="L80">
         <v>81.476500000000001</v>
       </c>
-      <c r="M80" s="42">
+      <c r="M80">
         <v>24.092300000000002</v>
       </c>
-      <c r="N80" s="42">
+      <c r="N80">
         <v>25.392099999999999</v>
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="41">
+      <c r="A81" s="36">
         <v>60</v>
       </c>
-      <c r="B81" s="42">
-        <v>0</v>
-      </c>
-      <c r="C81" s="42">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
         <v>80</v>
       </c>
-      <c r="D81" s="42">
-        <v>10</v>
-      </c>
-      <c r="E81" s="42">
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
         <v>1.4</v>
       </c>
-      <c r="F81" s="42">
+      <c r="F81">
         <v>125</v>
       </c>
-      <c r="G81" s="42">
-        <v>20</v>
-      </c>
-      <c r="H81" s="42">
+      <c r="G81">
+        <v>20</v>
+      </c>
+      <c r="H81">
         <v>21</v>
       </c>
-      <c r="I81" s="43">
-        <v>25</v>
-      </c>
-      <c r="J81" s="43">
-        <v>30</v>
-      </c>
-      <c r="K81" s="42">
+      <c r="I81" s="5">
+        <v>25</v>
+      </c>
+      <c r="J81" s="5">
+        <v>30</v>
+      </c>
+      <c r="K81">
         <v>1.15923</v>
       </c>
-      <c r="L81" s="42">
+      <c r="L81">
         <v>83.206000000000003</v>
       </c>
-      <c r="M81" s="42">
+      <c r="M81">
         <v>24.5123</v>
       </c>
-      <c r="N81" s="42">
+      <c r="N81">
         <v>25.4132</v>
       </c>
     </row>
@@ -12441,8 +12441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CB791A-F38A-FE4D-987C-5224408D015D}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13193,4 +13193,4333 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B41393C-3738-6B4E-B8A3-719BC14D4E6C}">
+  <dimension ref="A1:N81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="48">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="37">
+        <v>61</v>
+      </c>
+      <c r="B2" s="38">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="D2" s="38">
+        <v>10</v>
+      </c>
+      <c r="E2" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="38">
+        <v>135</v>
+      </c>
+      <c r="G2" s="38">
+        <v>20</v>
+      </c>
+      <c r="H2" s="38">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>1.1346799999999999</v>
+      </c>
+      <c r="L2">
+        <v>84.751199999999997</v>
+      </c>
+      <c r="M2">
+        <v>24.191099999999999</v>
+      </c>
+      <c r="N2">
+        <v>25.1557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="37">
+        <v>61</v>
+      </c>
+      <c r="B3" s="38">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="D3" s="38">
+        <v>10</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F3" s="38">
+        <v>135</v>
+      </c>
+      <c r="G3" s="38">
+        <v>20</v>
+      </c>
+      <c r="H3" s="38">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>1.1322399999999999</v>
+      </c>
+      <c r="L3">
+        <v>83.764899999999997</v>
+      </c>
+      <c r="M3">
+        <v>24.177299999999999</v>
+      </c>
+      <c r="N3">
+        <v>25.4922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="37">
+        <v>61</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0</v>
+      </c>
+      <c r="C4" s="38">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="D4" s="38">
+        <v>10</v>
+      </c>
+      <c r="E4" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="38">
+        <v>135</v>
+      </c>
+      <c r="G4" s="38">
+        <v>20</v>
+      </c>
+      <c r="H4" s="38">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>1.1293299999999999</v>
+      </c>
+      <c r="L4">
+        <v>85.6374</v>
+      </c>
+      <c r="M4">
+        <v>24.7318</v>
+      </c>
+      <c r="N4">
+        <v>25.572399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="37">
+        <v>61</v>
+      </c>
+      <c r="B5" s="38">
+        <v>0</v>
+      </c>
+      <c r="C5" s="38">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="D5" s="38">
+        <v>10</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F5" s="38">
+        <v>135</v>
+      </c>
+      <c r="G5" s="38">
+        <v>20</v>
+      </c>
+      <c r="H5" s="38">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5">
+        <v>25</v>
+      </c>
+      <c r="J5" s="5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>1.13384</v>
+      </c>
+      <c r="L5">
+        <v>84.924899999999994</v>
+      </c>
+      <c r="M5">
+        <v>24.0657</v>
+      </c>
+      <c r="N5">
+        <v>24.992599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="37">
+        <v>62</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
+      <c r="C6" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D6" s="38">
+        <v>10</v>
+      </c>
+      <c r="E6" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F6" s="38">
+        <v>130</v>
+      </c>
+      <c r="G6" s="38">
+        <v>20</v>
+      </c>
+      <c r="H6" s="38">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>1.13947</v>
+      </c>
+      <c r="L6">
+        <v>83.873699999999999</v>
+      </c>
+      <c r="M6">
+        <v>24.5124</v>
+      </c>
+      <c r="N6">
+        <v>25.648199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="37">
+        <v>62</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0</v>
+      </c>
+      <c r="C7" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D7" s="38">
+        <v>10</v>
+      </c>
+      <c r="E7" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F7" s="38">
+        <v>130</v>
+      </c>
+      <c r="G7" s="38">
+        <v>20</v>
+      </c>
+      <c r="H7" s="38">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5">
+        <v>25</v>
+      </c>
+      <c r="J7" s="5">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>1.1368199999999999</v>
+      </c>
+      <c r="L7">
+        <v>84.0852</v>
+      </c>
+      <c r="M7">
+        <v>24.4831</v>
+      </c>
+      <c r="N7">
+        <v>25.6127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="37">
+        <v>62</v>
+      </c>
+      <c r="B8" s="38">
+        <v>0</v>
+      </c>
+      <c r="C8" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D8" s="38">
+        <v>10</v>
+      </c>
+      <c r="E8" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F8" s="38">
+        <v>130</v>
+      </c>
+      <c r="G8" s="38">
+        <v>20</v>
+      </c>
+      <c r="H8" s="38">
+        <v>21</v>
+      </c>
+      <c r="I8" s="5">
+        <v>25</v>
+      </c>
+      <c r="J8" s="5">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>1.1427799999999999</v>
+      </c>
+      <c r="L8">
+        <v>82.484499999999997</v>
+      </c>
+      <c r="M8">
+        <v>24.278400000000001</v>
+      </c>
+      <c r="N8">
+        <v>25.756399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="37">
+        <v>62</v>
+      </c>
+      <c r="B9" s="38">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D9" s="38">
+        <v>10</v>
+      </c>
+      <c r="E9" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="38">
+        <v>130</v>
+      </c>
+      <c r="G9" s="38">
+        <v>20</v>
+      </c>
+      <c r="H9" s="38">
+        <v>21</v>
+      </c>
+      <c r="I9" s="5">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>1.1534500000000001</v>
+      </c>
+      <c r="L9">
+        <v>83.164100000000005</v>
+      </c>
+      <c r="M9">
+        <v>24.395600000000002</v>
+      </c>
+      <c r="N9">
+        <v>25.431799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="37">
+        <v>63</v>
+      </c>
+      <c r="B10" s="38">
+        <v>0</v>
+      </c>
+      <c r="C10" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D10" s="38">
+        <v>15</v>
+      </c>
+      <c r="E10" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F10" s="38">
+        <v>130</v>
+      </c>
+      <c r="G10" s="38">
+        <v>20</v>
+      </c>
+      <c r="H10" s="38">
+        <v>21</v>
+      </c>
+      <c r="I10" s="5">
+        <v>25</v>
+      </c>
+      <c r="J10" s="5">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>1.18103</v>
+      </c>
+      <c r="L10">
+        <v>83.8249</v>
+      </c>
+      <c r="M10">
+        <v>25.0687</v>
+      </c>
+      <c r="N10">
+        <v>25.321999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="37">
+        <v>63</v>
+      </c>
+      <c r="B11" s="38">
+        <v>0</v>
+      </c>
+      <c r="C11" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D11" s="38">
+        <v>15</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F11" s="38">
+        <v>130</v>
+      </c>
+      <c r="G11" s="38">
+        <v>20</v>
+      </c>
+      <c r="H11" s="38">
+        <v>21</v>
+      </c>
+      <c r="I11" s="5">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>1.1709799999999999</v>
+      </c>
+      <c r="L11">
+        <v>83.202600000000004</v>
+      </c>
+      <c r="M11">
+        <v>24.859100000000002</v>
+      </c>
+      <c r="N11">
+        <v>25.5152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="37">
+        <v>63</v>
+      </c>
+      <c r="B12" s="38">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D12" s="38">
+        <v>15</v>
+      </c>
+      <c r="E12" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="38">
+        <v>130</v>
+      </c>
+      <c r="G12" s="38">
+        <v>20</v>
+      </c>
+      <c r="H12" s="38">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>1.1874100000000001</v>
+      </c>
+      <c r="L12">
+        <v>82.791399999999996</v>
+      </c>
+      <c r="M12">
+        <v>25.223199999999999</v>
+      </c>
+      <c r="N12">
+        <v>25.657499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="37">
+        <v>63</v>
+      </c>
+      <c r="B13" s="38">
+        <v>0</v>
+      </c>
+      <c r="C13" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D13" s="38">
+        <v>15</v>
+      </c>
+      <c r="E13" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F13" s="38">
+        <v>130</v>
+      </c>
+      <c r="G13" s="38">
+        <v>20</v>
+      </c>
+      <c r="H13" s="38">
+        <v>21</v>
+      </c>
+      <c r="I13" s="5">
+        <v>25</v>
+      </c>
+      <c r="J13" s="5">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>1.1723399999999999</v>
+      </c>
+      <c r="L13">
+        <v>84.404600000000002</v>
+      </c>
+      <c r="M13">
+        <v>25.267199999999999</v>
+      </c>
+      <c r="N13">
+        <v>25.5351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="37">
+        <v>64</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D14" s="38">
+        <v>15</v>
+      </c>
+      <c r="E14" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F14" s="38">
+        <v>135</v>
+      </c>
+      <c r="G14" s="38">
+        <v>20</v>
+      </c>
+      <c r="H14" s="38">
+        <v>21</v>
+      </c>
+      <c r="I14" s="5">
+        <v>25</v>
+      </c>
+      <c r="J14" s="5">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>1.18563</v>
+      </c>
+      <c r="L14">
+        <v>83.187299999999993</v>
+      </c>
+      <c r="M14">
+        <v>25.321300000000001</v>
+      </c>
+      <c r="N14">
+        <v>25.673200000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="37">
+        <v>64</v>
+      </c>
+      <c r="B15" s="38">
+        <v>0</v>
+      </c>
+      <c r="C15" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D15" s="38">
+        <v>15</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F15" s="38">
+        <v>135</v>
+      </c>
+      <c r="G15" s="38">
+        <v>20</v>
+      </c>
+      <c r="H15" s="38">
+        <v>21</v>
+      </c>
+      <c r="I15" s="5">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>1.1552100000000001</v>
+      </c>
+      <c r="L15">
+        <v>83.411799999999999</v>
+      </c>
+      <c r="M15">
+        <v>24.7042</v>
+      </c>
+      <c r="N15">
+        <v>25.637899999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="37">
+        <v>64</v>
+      </c>
+      <c r="B16" s="38">
+        <v>0</v>
+      </c>
+      <c r="C16" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D16" s="38">
+        <v>15</v>
+      </c>
+      <c r="E16" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F16" s="38">
+        <v>135</v>
+      </c>
+      <c r="G16" s="38">
+        <v>20</v>
+      </c>
+      <c r="H16" s="38">
+        <v>21</v>
+      </c>
+      <c r="I16" s="5">
+        <v>25</v>
+      </c>
+      <c r="J16" s="5">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>1.1741299999999999</v>
+      </c>
+      <c r="L16">
+        <v>84.473299999999995</v>
+      </c>
+      <c r="M16">
+        <v>25.215599999999998</v>
+      </c>
+      <c r="N16">
+        <v>25.423400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="37">
+        <v>64</v>
+      </c>
+      <c r="B17" s="38">
+        <v>0</v>
+      </c>
+      <c r="C17" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D17" s="38">
+        <v>15</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F17" s="38">
+        <v>135</v>
+      </c>
+      <c r="G17" s="38">
+        <v>20</v>
+      </c>
+      <c r="H17" s="38">
+        <v>21</v>
+      </c>
+      <c r="I17" s="5">
+        <v>25</v>
+      </c>
+      <c r="J17" s="5">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>1.1727799999999999</v>
+      </c>
+      <c r="L17">
+        <v>83.685000000000002</v>
+      </c>
+      <c r="M17">
+        <v>25.278400000000001</v>
+      </c>
+      <c r="N17">
+        <v>25.756399999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="37">
+        <v>65</v>
+      </c>
+      <c r="B18" s="38">
+        <v>0</v>
+      </c>
+      <c r="C18" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D18" s="38">
+        <v>10</v>
+      </c>
+      <c r="E18" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F18" s="38">
+        <v>135</v>
+      </c>
+      <c r="G18" s="38">
+        <v>20</v>
+      </c>
+      <c r="H18" s="38">
+        <v>21</v>
+      </c>
+      <c r="I18" s="5">
+        <v>25</v>
+      </c>
+      <c r="J18" s="5">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>1.1370499999999999</v>
+      </c>
+      <c r="L18">
+        <v>85.418899999999994</v>
+      </c>
+      <c r="M18">
+        <v>24.680199999999999</v>
+      </c>
+      <c r="N18">
+        <v>25.410599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="37">
+        <v>65</v>
+      </c>
+      <c r="B19" s="38">
+        <v>0</v>
+      </c>
+      <c r="C19" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D19" s="38">
+        <v>10</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F19" s="38">
+        <v>135</v>
+      </c>
+      <c r="G19" s="38">
+        <v>20</v>
+      </c>
+      <c r="H19" s="38">
+        <v>21</v>
+      </c>
+      <c r="I19" s="5">
+        <v>25</v>
+      </c>
+      <c r="J19" s="5">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>1.13635</v>
+      </c>
+      <c r="L19">
+        <v>84.587000000000003</v>
+      </c>
+      <c r="M19">
+        <v>24.516200000000001</v>
+      </c>
+      <c r="N19">
+        <v>25.505700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="37">
+        <v>65</v>
+      </c>
+      <c r="B20" s="38">
+        <v>0</v>
+      </c>
+      <c r="C20" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D20" s="38">
+        <v>10</v>
+      </c>
+      <c r="E20" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F20" s="38">
+        <v>135</v>
+      </c>
+      <c r="G20" s="38">
+        <v>20</v>
+      </c>
+      <c r="H20" s="38">
+        <v>21</v>
+      </c>
+      <c r="I20" s="5">
+        <v>25</v>
+      </c>
+      <c r="J20" s="5">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>1.1720299999999999</v>
+      </c>
+      <c r="L20">
+        <v>81.846199999999996</v>
+      </c>
+      <c r="M20">
+        <v>24.482299999999999</v>
+      </c>
+      <c r="N20">
+        <v>25.521999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="37">
+        <v>65</v>
+      </c>
+      <c r="B21" s="38">
+        <v>0</v>
+      </c>
+      <c r="C21" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D21" s="38">
+        <v>10</v>
+      </c>
+      <c r="E21" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F21" s="38">
+        <v>135</v>
+      </c>
+      <c r="G21" s="38">
+        <v>20</v>
+      </c>
+      <c r="H21" s="38">
+        <v>21</v>
+      </c>
+      <c r="I21" s="5">
+        <v>25</v>
+      </c>
+      <c r="J21" s="5">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>1.1709799999999999</v>
+      </c>
+      <c r="L21">
+        <v>83.202600000000004</v>
+      </c>
+      <c r="M21">
+        <v>24.859100000000002</v>
+      </c>
+      <c r="N21">
+        <v>25.5152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="37">
+        <v>66</v>
+      </c>
+      <c r="B22" s="38">
+        <v>0</v>
+      </c>
+      <c r="C22" s="38">
+        <v>80</v>
+      </c>
+      <c r="D22" s="38">
+        <v>15</v>
+      </c>
+      <c r="E22" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F22" s="38">
+        <v>130</v>
+      </c>
+      <c r="G22" s="38">
+        <v>20</v>
+      </c>
+      <c r="H22" s="38">
+        <v>21</v>
+      </c>
+      <c r="I22" s="5">
+        <v>25</v>
+      </c>
+      <c r="J22" s="5">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>1.1415500000000001</v>
+      </c>
+      <c r="L22">
+        <v>83.670500000000004</v>
+      </c>
+      <c r="M22">
+        <v>24.2639</v>
+      </c>
+      <c r="N22">
+        <v>25.403500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="37">
+        <v>66</v>
+      </c>
+      <c r="B23" s="38">
+        <v>0</v>
+      </c>
+      <c r="C23" s="38">
+        <v>80</v>
+      </c>
+      <c r="D23" s="38">
+        <v>15</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F23" s="38">
+        <v>130</v>
+      </c>
+      <c r="G23" s="38">
+        <v>20</v>
+      </c>
+      <c r="H23" s="38">
+        <v>21</v>
+      </c>
+      <c r="I23" s="5">
+        <v>25</v>
+      </c>
+      <c r="J23" s="5">
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <v>1.1370499999999999</v>
+      </c>
+      <c r="L23">
+        <v>85.418899999999994</v>
+      </c>
+      <c r="M23">
+        <v>24.680199999999999</v>
+      </c>
+      <c r="N23">
+        <v>25.410599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="37">
+        <v>66</v>
+      </c>
+      <c r="B24" s="38">
+        <v>0</v>
+      </c>
+      <c r="C24" s="38">
+        <v>80</v>
+      </c>
+      <c r="D24" s="38">
+        <v>15</v>
+      </c>
+      <c r="E24" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F24" s="38">
+        <v>130</v>
+      </c>
+      <c r="G24" s="38">
+        <v>20</v>
+      </c>
+      <c r="H24" s="38">
+        <v>21</v>
+      </c>
+      <c r="I24" s="5">
+        <v>25</v>
+      </c>
+      <c r="J24" s="5">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <v>1.1418900000000001</v>
+      </c>
+      <c r="L24">
+        <v>82.577299999999994</v>
+      </c>
+      <c r="M24">
+        <v>24.256699999999999</v>
+      </c>
+      <c r="N24">
+        <v>25.724499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="37">
+        <v>66</v>
+      </c>
+      <c r="B25" s="38">
+        <v>0</v>
+      </c>
+      <c r="C25" s="38">
+        <v>80</v>
+      </c>
+      <c r="D25" s="38">
+        <v>15</v>
+      </c>
+      <c r="E25" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="38">
+        <v>130</v>
+      </c>
+      <c r="G25" s="38">
+        <v>20</v>
+      </c>
+      <c r="H25" s="38">
+        <v>21</v>
+      </c>
+      <c r="I25" s="5">
+        <v>25</v>
+      </c>
+      <c r="J25" s="5">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>1.14812</v>
+      </c>
+      <c r="L25">
+        <v>81.832800000000006</v>
+      </c>
+      <c r="M25">
+        <v>24.345600000000001</v>
+      </c>
+      <c r="N25">
+        <v>25.912299999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="37">
+        <v>67</v>
+      </c>
+      <c r="B26" s="38">
+        <v>0</v>
+      </c>
+      <c r="C26" s="38">
+        <v>80</v>
+      </c>
+      <c r="D26" s="38">
+        <v>15</v>
+      </c>
+      <c r="E26" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F26" s="38">
+        <v>130</v>
+      </c>
+      <c r="G26" s="38">
+        <v>20</v>
+      </c>
+      <c r="H26" s="38">
+        <v>15</v>
+      </c>
+      <c r="I26" s="5">
+        <v>25</v>
+      </c>
+      <c r="J26" s="5">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>1.1456299999999999</v>
+      </c>
+      <c r="L26">
+        <v>82.052599999999998</v>
+      </c>
+      <c r="M26">
+        <v>24.321300000000001</v>
+      </c>
+      <c r="N26">
+        <v>25.873200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="37">
+        <v>67</v>
+      </c>
+      <c r="B27" s="38">
+        <v>0</v>
+      </c>
+      <c r="C27" s="38">
+        <v>80</v>
+      </c>
+      <c r="D27" s="38">
+        <v>15</v>
+      </c>
+      <c r="E27" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F27" s="38">
+        <v>130</v>
+      </c>
+      <c r="G27" s="38">
+        <v>20</v>
+      </c>
+      <c r="H27" s="38">
+        <v>15</v>
+      </c>
+      <c r="I27" s="5">
+        <v>25</v>
+      </c>
+      <c r="J27" s="5">
+        <v>30</v>
+      </c>
+      <c r="K27">
+        <v>1.1427799999999999</v>
+      </c>
+      <c r="L27">
+        <v>82.484499999999997</v>
+      </c>
+      <c r="M27">
+        <v>24.278400000000001</v>
+      </c>
+      <c r="N27">
+        <v>25.756399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="37">
+        <v>67</v>
+      </c>
+      <c r="B28" s="38">
+        <v>0</v>
+      </c>
+      <c r="C28" s="38">
+        <v>80</v>
+      </c>
+      <c r="D28" s="38">
+        <v>15</v>
+      </c>
+      <c r="E28" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F28" s="38">
+        <v>130</v>
+      </c>
+      <c r="G28" s="38">
+        <v>20</v>
+      </c>
+      <c r="H28" s="38">
+        <v>15</v>
+      </c>
+      <c r="I28" s="5">
+        <v>25</v>
+      </c>
+      <c r="J28" s="5">
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <v>1.16635</v>
+      </c>
+      <c r="L28">
+        <v>82.411299999999997</v>
+      </c>
+      <c r="M28">
+        <v>24.516200000000001</v>
+      </c>
+      <c r="N28">
+        <v>25.505700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="37">
+        <v>67</v>
+      </c>
+      <c r="B29" s="38">
+        <v>0</v>
+      </c>
+      <c r="C29" s="38">
+        <v>80</v>
+      </c>
+      <c r="D29" s="38">
+        <v>15</v>
+      </c>
+      <c r="E29" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F29" s="38">
+        <v>130</v>
+      </c>
+      <c r="G29" s="38">
+        <v>20</v>
+      </c>
+      <c r="H29" s="38">
+        <v>15</v>
+      </c>
+      <c r="I29" s="5">
+        <v>25</v>
+      </c>
+      <c r="J29" s="5">
+        <v>30</v>
+      </c>
+      <c r="K29">
+        <v>1.14734</v>
+      </c>
+      <c r="L29">
+        <v>81.888499999999993</v>
+      </c>
+      <c r="M29">
+        <v>24.293399999999998</v>
+      </c>
+      <c r="N29">
+        <v>25.8567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="37">
+        <v>68</v>
+      </c>
+      <c r="B30" s="38">
+        <v>0</v>
+      </c>
+      <c r="C30" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D30" s="38">
+        <v>10</v>
+      </c>
+      <c r="E30" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F30" s="38">
+        <v>130</v>
+      </c>
+      <c r="G30" s="38">
+        <v>20</v>
+      </c>
+      <c r="H30" s="38">
+        <v>19</v>
+      </c>
+      <c r="I30" s="5">
+        <v>25</v>
+      </c>
+      <c r="J30" s="5">
+        <v>30</v>
+      </c>
+      <c r="K30">
+        <v>1.16947</v>
+      </c>
+      <c r="L30">
+        <v>81.722200000000001</v>
+      </c>
+      <c r="M30">
+        <v>24.5124</v>
+      </c>
+      <c r="N30">
+        <v>25.648199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="37">
+        <v>68</v>
+      </c>
+      <c r="B31" s="38">
+        <v>0</v>
+      </c>
+      <c r="C31" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D31" s="38">
+        <v>10</v>
+      </c>
+      <c r="E31" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F31" s="38">
+        <v>130</v>
+      </c>
+      <c r="G31" s="38">
+        <v>20</v>
+      </c>
+      <c r="H31" s="38">
+        <v>19</v>
+      </c>
+      <c r="I31" s="5">
+        <v>25</v>
+      </c>
+      <c r="J31" s="5">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>1.16682</v>
+      </c>
+      <c r="L31">
+        <v>81.923299999999998</v>
+      </c>
+      <c r="M31">
+        <v>24.4831</v>
+      </c>
+      <c r="N31">
+        <v>25.6127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="37">
+        <v>68</v>
+      </c>
+      <c r="B32" s="38">
+        <v>0</v>
+      </c>
+      <c r="C32" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D32" s="38">
+        <v>10</v>
+      </c>
+      <c r="E32" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F32" s="38">
+        <v>130</v>
+      </c>
+      <c r="G32" s="38">
+        <v>20</v>
+      </c>
+      <c r="H32" s="38">
+        <v>19</v>
+      </c>
+      <c r="I32" s="5">
+        <v>25</v>
+      </c>
+      <c r="J32" s="5">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>1.17056</v>
+      </c>
+      <c r="L32">
+        <v>81.676699999999997</v>
+      </c>
+      <c r="M32">
+        <v>24.5915</v>
+      </c>
+      <c r="N32">
+        <v>25.721299999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="37">
+        <v>68</v>
+      </c>
+      <c r="B33" s="38">
+        <v>0</v>
+      </c>
+      <c r="C33" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D33" s="38">
+        <v>10</v>
+      </c>
+      <c r="E33" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F33" s="38">
+        <v>130</v>
+      </c>
+      <c r="G33" s="38">
+        <v>20</v>
+      </c>
+      <c r="H33" s="38">
+        <v>19</v>
+      </c>
+      <c r="I33" s="5">
+        <v>25</v>
+      </c>
+      <c r="J33" s="5">
+        <v>30</v>
+      </c>
+      <c r="K33">
+        <v>1.1612899999999999</v>
+      </c>
+      <c r="L33">
+        <v>82.602999999999994</v>
+      </c>
+      <c r="M33">
+        <v>24.589200000000002</v>
+      </c>
+      <c r="N33">
+        <v>25.633500000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="37">
+        <v>69</v>
+      </c>
+      <c r="B34" s="38">
+        <v>0</v>
+      </c>
+      <c r="C34" s="38">
+        <v>80</v>
+      </c>
+      <c r="D34" s="38">
+        <v>10</v>
+      </c>
+      <c r="E34" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F34" s="38">
+        <v>130</v>
+      </c>
+      <c r="G34" s="38">
+        <v>20</v>
+      </c>
+      <c r="H34" s="38">
+        <v>21</v>
+      </c>
+      <c r="I34" s="5">
+        <v>25</v>
+      </c>
+      <c r="J34" s="5">
+        <v>30</v>
+      </c>
+      <c r="K34">
+        <v>1.1634500000000001</v>
+      </c>
+      <c r="L34">
+        <v>82.126300000000001</v>
+      </c>
+      <c r="M34">
+        <v>24.395600000000002</v>
+      </c>
+      <c r="N34">
+        <v>25.5318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="37">
+        <v>69</v>
+      </c>
+      <c r="B35" s="38">
+        <v>0</v>
+      </c>
+      <c r="C35" s="38">
+        <v>80</v>
+      </c>
+      <c r="D35" s="38">
+        <v>10</v>
+      </c>
+      <c r="E35" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F35" s="38">
+        <v>130</v>
+      </c>
+      <c r="G35" s="38">
+        <v>20</v>
+      </c>
+      <c r="H35" s="38">
+        <v>21</v>
+      </c>
+      <c r="I35" s="5">
+        <v>25</v>
+      </c>
+      <c r="J35" s="5">
+        <v>30</v>
+      </c>
+      <c r="K35">
+        <v>1.1720299999999999</v>
+      </c>
+      <c r="L35">
+        <v>81.846199999999996</v>
+      </c>
+      <c r="M35">
+        <v>24.482299999999999</v>
+      </c>
+      <c r="N35">
+        <v>25.521999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="37">
+        <v>69</v>
+      </c>
+      <c r="B36" s="38">
+        <v>0</v>
+      </c>
+      <c r="C36" s="38">
+        <v>80</v>
+      </c>
+      <c r="D36" s="38">
+        <v>10</v>
+      </c>
+      <c r="E36" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F36" s="38">
+        <v>130</v>
+      </c>
+      <c r="G36" s="38">
+        <v>20</v>
+      </c>
+      <c r="H36" s="38">
+        <v>21</v>
+      </c>
+      <c r="I36" s="5">
+        <v>25</v>
+      </c>
+      <c r="J36" s="5">
+        <v>30</v>
+      </c>
+      <c r="K36">
+        <v>1.15621</v>
+      </c>
+      <c r="L36">
+        <v>82.664900000000003</v>
+      </c>
+      <c r="M36">
+        <v>24.4712</v>
+      </c>
+      <c r="N36">
+        <v>25.603400000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="37">
+        <v>69</v>
+      </c>
+      <c r="B37" s="38">
+        <v>0</v>
+      </c>
+      <c r="C37" s="38">
+        <v>80</v>
+      </c>
+      <c r="D37" s="38">
+        <v>10</v>
+      </c>
+      <c r="E37" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F37" s="38">
+        <v>130</v>
+      </c>
+      <c r="G37" s="38">
+        <v>20</v>
+      </c>
+      <c r="H37" s="38">
+        <v>21</v>
+      </c>
+      <c r="I37" s="5">
+        <v>25</v>
+      </c>
+      <c r="J37" s="5">
+        <v>30</v>
+      </c>
+      <c r="K37">
+        <v>1.1501300000000001</v>
+      </c>
+      <c r="L37">
+        <v>83.028800000000004</v>
+      </c>
+      <c r="M37">
+        <v>24.521799999999999</v>
+      </c>
+      <c r="N37">
+        <v>25.678899999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="37">
+        <v>70</v>
+      </c>
+      <c r="B38" s="38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="38">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="D38" s="38">
+        <v>10</v>
+      </c>
+      <c r="E38" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F38" s="38">
+        <v>130</v>
+      </c>
+      <c r="G38" s="38">
+        <v>20</v>
+      </c>
+      <c r="H38" s="38">
+        <v>23</v>
+      </c>
+      <c r="I38" s="5">
+        <v>25</v>
+      </c>
+      <c r="J38" s="5">
+        <v>30</v>
+      </c>
+      <c r="K38">
+        <v>1.1368199999999999</v>
+      </c>
+      <c r="L38">
+        <v>80.650700000000001</v>
+      </c>
+      <c r="M38">
+        <v>23.4831</v>
+      </c>
+      <c r="N38">
+        <v>25.6127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="37">
+        <v>70</v>
+      </c>
+      <c r="B39" s="38">
+        <v>0</v>
+      </c>
+      <c r="C39" s="38">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="D39" s="38">
+        <v>10</v>
+      </c>
+      <c r="E39" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F39" s="38">
+        <v>130</v>
+      </c>
+      <c r="G39" s="38">
+        <v>20</v>
+      </c>
+      <c r="H39" s="38">
+        <v>23</v>
+      </c>
+      <c r="I39" s="5">
+        <v>25</v>
+      </c>
+      <c r="J39" s="5">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>1.1418900000000001</v>
+      </c>
+      <c r="L39">
+        <v>79.173000000000002</v>
+      </c>
+      <c r="M39">
+        <v>23.256699999999999</v>
+      </c>
+      <c r="N39">
+        <v>25.724499999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="37">
+        <v>70</v>
+      </c>
+      <c r="B40" s="38">
+        <v>0</v>
+      </c>
+      <c r="C40" s="38">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="D40" s="38">
+        <v>10</v>
+      </c>
+      <c r="E40" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F40" s="38">
+        <v>130</v>
+      </c>
+      <c r="G40" s="38">
+        <v>20</v>
+      </c>
+      <c r="H40" s="38">
+        <v>23</v>
+      </c>
+      <c r="I40" s="5">
+        <v>25</v>
+      </c>
+      <c r="J40" s="5">
+        <v>30</v>
+      </c>
+      <c r="K40">
+        <v>1.1401300000000001</v>
+      </c>
+      <c r="L40">
+        <v>80.341499999999996</v>
+      </c>
+      <c r="M40">
+        <v>23.521799999999999</v>
+      </c>
+      <c r="N40">
+        <v>25.678899999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="37">
+        <v>70</v>
+      </c>
+      <c r="B41" s="38">
+        <v>0</v>
+      </c>
+      <c r="C41" s="38">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="D41" s="38">
+        <v>10</v>
+      </c>
+      <c r="E41" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F41" s="38">
+        <v>130</v>
+      </c>
+      <c r="G41" s="38">
+        <v>20</v>
+      </c>
+      <c r="H41" s="38">
+        <v>23</v>
+      </c>
+      <c r="I41" s="5">
+        <v>25</v>
+      </c>
+      <c r="J41" s="5">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <v>1.1456299999999999</v>
+      </c>
+      <c r="L41">
+        <v>78.678899999999999</v>
+      </c>
+      <c r="M41">
+        <v>23.321300000000001</v>
+      </c>
+      <c r="N41">
+        <v>25.873200000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="37">
+        <v>71</v>
+      </c>
+      <c r="B42" s="38">
+        <v>0</v>
+      </c>
+      <c r="C42" s="38">
+        <v>80</v>
+      </c>
+      <c r="D42" s="38">
+        <v>10</v>
+      </c>
+      <c r="E42" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F42" s="38">
+        <v>135</v>
+      </c>
+      <c r="G42" s="38">
+        <v>20</v>
+      </c>
+      <c r="H42" s="38">
+        <v>21</v>
+      </c>
+      <c r="I42" s="5">
+        <v>25</v>
+      </c>
+      <c r="J42" s="5">
+        <v>30</v>
+      </c>
+      <c r="K42">
+        <v>1.15567</v>
+      </c>
+      <c r="L42">
+        <v>82.086600000000004</v>
+      </c>
+      <c r="M42">
+        <v>24.027799999999999</v>
+      </c>
+      <c r="N42">
+        <v>25.328399999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="37">
+        <v>71</v>
+      </c>
+      <c r="B43" s="38">
+        <v>0</v>
+      </c>
+      <c r="C43" s="38">
+        <v>80</v>
+      </c>
+      <c r="D43" s="38">
+        <v>10</v>
+      </c>
+      <c r="E43" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F43" s="38">
+        <v>135</v>
+      </c>
+      <c r="G43" s="38">
+        <v>20</v>
+      </c>
+      <c r="H43" s="38">
+        <v>21</v>
+      </c>
+      <c r="I43" s="5">
+        <v>25</v>
+      </c>
+      <c r="J43" s="5">
+        <v>30</v>
+      </c>
+      <c r="K43">
+        <v>1.1712400000000001</v>
+      </c>
+      <c r="L43">
+        <v>80.953000000000003</v>
+      </c>
+      <c r="M43">
+        <v>24.1234</v>
+      </c>
+      <c r="N43">
+        <v>25.442499999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="37">
+        <v>71</v>
+      </c>
+      <c r="B44" s="38">
+        <v>0</v>
+      </c>
+      <c r="C44" s="38">
+        <v>80</v>
+      </c>
+      <c r="D44" s="38">
+        <v>10</v>
+      </c>
+      <c r="E44" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F44" s="38">
+        <v>135</v>
+      </c>
+      <c r="G44" s="38">
+        <v>20</v>
+      </c>
+      <c r="H44" s="38">
+        <v>21</v>
+      </c>
+      <c r="I44" s="5">
+        <v>25</v>
+      </c>
+      <c r="J44" s="5">
+        <v>30</v>
+      </c>
+      <c r="K44">
+        <v>1.1674800000000001</v>
+      </c>
+      <c r="L44">
+        <v>82.634</v>
+      </c>
+      <c r="M44">
+        <v>24.525300000000001</v>
+      </c>
+      <c r="N44">
+        <v>25.421800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="37">
+        <v>71</v>
+      </c>
+      <c r="B45" s="38">
+        <v>0</v>
+      </c>
+      <c r="C45" s="38">
+        <v>80</v>
+      </c>
+      <c r="D45" s="38">
+        <v>10</v>
+      </c>
+      <c r="E45" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F45" s="38">
+        <v>135</v>
+      </c>
+      <c r="G45" s="38">
+        <v>20</v>
+      </c>
+      <c r="H45" s="38">
+        <v>21</v>
+      </c>
+      <c r="I45" s="5">
+        <v>25</v>
+      </c>
+      <c r="J45" s="5">
+        <v>30</v>
+      </c>
+      <c r="K45">
+        <v>1.15784</v>
+      </c>
+      <c r="L45">
+        <v>82.986800000000002</v>
+      </c>
+      <c r="M45">
+        <v>24.5136</v>
+      </c>
+      <c r="N45">
+        <v>25.5123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="37">
+        <v>72</v>
+      </c>
+      <c r="B46" s="38">
+        <v>0</v>
+      </c>
+      <c r="C46" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D46" s="38">
+        <v>15</v>
+      </c>
+      <c r="E46" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F46" s="38">
+        <v>125</v>
+      </c>
+      <c r="G46" s="38">
+        <v>20</v>
+      </c>
+      <c r="H46" s="38">
+        <v>21</v>
+      </c>
+      <c r="I46" s="5">
+        <v>25</v>
+      </c>
+      <c r="J46" s="5">
+        <v>30</v>
+      </c>
+      <c r="K46">
+        <v>1.1609100000000001</v>
+      </c>
+      <c r="L46">
+        <v>82.675899999999999</v>
+      </c>
+      <c r="M46">
+        <v>24.508500000000002</v>
+      </c>
+      <c r="N46">
+        <v>25.5352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="37">
+        <v>72</v>
+      </c>
+      <c r="B47" s="38">
+        <v>0</v>
+      </c>
+      <c r="C47" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D47" s="38">
+        <v>15</v>
+      </c>
+      <c r="E47" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F47" s="38">
+        <v>125</v>
+      </c>
+      <c r="G47" s="38">
+        <v>20</v>
+      </c>
+      <c r="H47" s="38">
+        <v>21</v>
+      </c>
+      <c r="I47" s="5">
+        <v>25</v>
+      </c>
+      <c r="J47" s="5">
+        <v>30</v>
+      </c>
+      <c r="K47">
+        <v>1.17933</v>
+      </c>
+      <c r="L47">
+        <v>82.006600000000006</v>
+      </c>
+      <c r="M47">
+        <v>24.7318</v>
+      </c>
+      <c r="N47">
+        <v>25.572399999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="37">
+        <v>72</v>
+      </c>
+      <c r="B48" s="38">
+        <v>0</v>
+      </c>
+      <c r="C48" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D48" s="38">
+        <v>15</v>
+      </c>
+      <c r="E48" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F48" s="38">
+        <v>125</v>
+      </c>
+      <c r="G48" s="38">
+        <v>20</v>
+      </c>
+      <c r="H48" s="38">
+        <v>21</v>
+      </c>
+      <c r="I48" s="5">
+        <v>25</v>
+      </c>
+      <c r="J48" s="5">
+        <v>30</v>
+      </c>
+      <c r="K48">
+        <v>1.1362099999999999</v>
+      </c>
+      <c r="L48">
+        <v>84.12</v>
+      </c>
+      <c r="M48">
+        <v>24.4712</v>
+      </c>
+      <c r="N48">
+        <v>25.603400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="37">
+        <v>72</v>
+      </c>
+      <c r="B49" s="38">
+        <v>0</v>
+      </c>
+      <c r="C49" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D49" s="38">
+        <v>15</v>
+      </c>
+      <c r="E49" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F49" s="38">
+        <v>125</v>
+      </c>
+      <c r="G49" s="38">
+        <v>20</v>
+      </c>
+      <c r="H49" s="38">
+        <v>21</v>
+      </c>
+      <c r="I49" s="5">
+        <v>25</v>
+      </c>
+      <c r="J49" s="5">
+        <v>30</v>
+      </c>
+      <c r="K49">
+        <v>1.1615500000000001</v>
+      </c>
+      <c r="L49">
+        <v>82.882300000000001</v>
+      </c>
+      <c r="M49">
+        <v>24.2639</v>
+      </c>
+      <c r="N49">
+        <v>25.203499999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="37">
+        <v>73</v>
+      </c>
+      <c r="B50" s="38">
+        <v>0</v>
+      </c>
+      <c r="C50" s="38">
+        <v>75</v>
+      </c>
+      <c r="D50" s="38">
+        <v>10</v>
+      </c>
+      <c r="E50" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F50" s="38">
+        <v>130</v>
+      </c>
+      <c r="G50" s="38">
+        <v>20</v>
+      </c>
+      <c r="H50" s="38">
+        <v>21</v>
+      </c>
+      <c r="I50" s="5">
+        <v>25</v>
+      </c>
+      <c r="J50" s="5">
+        <v>30</v>
+      </c>
+      <c r="K50">
+        <v>1.15303</v>
+      </c>
+      <c r="L50">
+        <v>81.730699999999999</v>
+      </c>
+      <c r="M50">
+        <v>23.768699999999999</v>
+      </c>
+      <c r="N50">
+        <v>25.222000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="37">
+        <v>73</v>
+      </c>
+      <c r="B51" s="38">
+        <v>0</v>
+      </c>
+      <c r="C51" s="38">
+        <v>75</v>
+      </c>
+      <c r="D51" s="38">
+        <v>10</v>
+      </c>
+      <c r="E51" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F51" s="38">
+        <v>130</v>
+      </c>
+      <c r="G51" s="38">
+        <v>20</v>
+      </c>
+      <c r="H51" s="38">
+        <v>21</v>
+      </c>
+      <c r="I51" s="5">
+        <v>25</v>
+      </c>
+      <c r="J51" s="5">
+        <v>30</v>
+      </c>
+      <c r="K51">
+        <v>1.1506700000000001</v>
+      </c>
+      <c r="L51">
+        <v>82.081199999999995</v>
+      </c>
+      <c r="M51">
+        <v>23.8278</v>
+      </c>
+      <c r="N51">
+        <v>25.228400000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="37">
+        <v>73</v>
+      </c>
+      <c r="B52" s="38">
+        <v>0</v>
+      </c>
+      <c r="C52" s="38">
+        <v>75</v>
+      </c>
+      <c r="D52" s="38">
+        <v>10</v>
+      </c>
+      <c r="E52" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F52" s="38">
+        <v>130</v>
+      </c>
+      <c r="G52" s="38">
+        <v>20</v>
+      </c>
+      <c r="H52" s="38">
+        <v>21</v>
+      </c>
+      <c r="I52" s="5">
+        <v>25</v>
+      </c>
+      <c r="J52" s="5">
+        <v>30</v>
+      </c>
+      <c r="K52">
+        <v>1.1628400000000001</v>
+      </c>
+      <c r="L52">
+        <v>81.505899999999997</v>
+      </c>
+      <c r="M52">
+        <v>24.104299999999999</v>
+      </c>
+      <c r="N52">
+        <v>25.432300000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="37">
+        <v>73</v>
+      </c>
+      <c r="B53" s="38">
+        <v>0</v>
+      </c>
+      <c r="C53" s="38">
+        <v>75</v>
+      </c>
+      <c r="D53" s="38">
+        <v>10</v>
+      </c>
+      <c r="E53" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F53" s="38">
+        <v>130</v>
+      </c>
+      <c r="G53" s="38">
+        <v>20</v>
+      </c>
+      <c r="H53" s="38">
+        <v>21</v>
+      </c>
+      <c r="I53" s="5">
+        <v>25</v>
+      </c>
+      <c r="J53" s="5">
+        <v>30</v>
+      </c>
+      <c r="K53">
+        <v>1.1591199999999999</v>
+      </c>
+      <c r="L53">
+        <v>82.105000000000004</v>
+      </c>
+      <c r="M53">
+        <v>24.0854</v>
+      </c>
+      <c r="N53">
+        <v>25.3079</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="37">
+        <v>74</v>
+      </c>
+      <c r="B54" s="38">
+        <v>0</v>
+      </c>
+      <c r="C54" s="38">
+        <v>80</v>
+      </c>
+      <c r="D54" s="38">
+        <v>10</v>
+      </c>
+      <c r="E54" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F54" s="38">
+        <v>130</v>
+      </c>
+      <c r="G54" s="38">
+        <v>20</v>
+      </c>
+      <c r="H54" s="38">
+        <v>19</v>
+      </c>
+      <c r="I54" s="5">
+        <v>25</v>
+      </c>
+      <c r="J54" s="5">
+        <v>30</v>
+      </c>
+      <c r="K54">
+        <v>1.1670499999999999</v>
+      </c>
+      <c r="L54">
+        <v>83.223200000000006</v>
+      </c>
+      <c r="M54">
+        <v>24.680199999999999</v>
+      </c>
+      <c r="N54">
+        <v>25.410599999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="37">
+        <v>74</v>
+      </c>
+      <c r="B55" s="38">
+        <v>0</v>
+      </c>
+      <c r="C55" s="38">
+        <v>80</v>
+      </c>
+      <c r="D55" s="38">
+        <v>10</v>
+      </c>
+      <c r="E55" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F55" s="38">
+        <v>130</v>
+      </c>
+      <c r="G55" s="38">
+        <v>20</v>
+      </c>
+      <c r="H55" s="38">
+        <v>19</v>
+      </c>
+      <c r="I55" s="5">
+        <v>25</v>
+      </c>
+      <c r="J55" s="5">
+        <v>30</v>
+      </c>
+      <c r="K55">
+        <v>1.16635</v>
+      </c>
+      <c r="L55">
+        <v>82.411299999999997</v>
+      </c>
+      <c r="M55">
+        <v>24.516200000000001</v>
+      </c>
+      <c r="N55">
+        <v>25.505700000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="37">
+        <v>74</v>
+      </c>
+      <c r="B56" s="38">
+        <v>0</v>
+      </c>
+      <c r="C56" s="38">
+        <v>80</v>
+      </c>
+      <c r="D56" s="38">
+        <v>10</v>
+      </c>
+      <c r="E56" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F56" s="38">
+        <v>130</v>
+      </c>
+      <c r="G56" s="38">
+        <v>20</v>
+      </c>
+      <c r="H56" s="38">
+        <v>19</v>
+      </c>
+      <c r="I56" s="5">
+        <v>25</v>
+      </c>
+      <c r="J56" s="5">
+        <v>30</v>
+      </c>
+      <c r="K56">
+        <v>1.1640299999999999</v>
+      </c>
+      <c r="L56">
+        <v>82.889700000000005</v>
+      </c>
+      <c r="M56">
+        <v>24.528700000000001</v>
+      </c>
+      <c r="N56">
+        <v>25.422000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="37">
+        <v>74</v>
+      </c>
+      <c r="B57" s="38">
+        <v>0</v>
+      </c>
+      <c r="C57" s="38">
+        <v>80</v>
+      </c>
+      <c r="D57" s="38">
+        <v>10</v>
+      </c>
+      <c r="E57" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F57" s="38">
+        <v>130</v>
+      </c>
+      <c r="G57" s="38">
+        <v>20</v>
+      </c>
+      <c r="H57" s="38">
+        <v>19</v>
+      </c>
+      <c r="I57" s="5">
+        <v>25</v>
+      </c>
+      <c r="J57" s="5">
+        <v>30</v>
+      </c>
+      <c r="K57">
+        <v>1.16103</v>
+      </c>
+      <c r="L57">
+        <v>83.568100000000001</v>
+      </c>
+      <c r="M57">
+        <v>24.5687</v>
+      </c>
+      <c r="N57">
+        <v>25.321999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="37">
+        <v>75</v>
+      </c>
+      <c r="B58" s="38">
+        <v>0</v>
+      </c>
+      <c r="C58" s="38">
+        <v>80</v>
+      </c>
+      <c r="D58" s="38">
+        <v>10</v>
+      </c>
+      <c r="E58" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F58" s="38">
+        <v>135</v>
+      </c>
+      <c r="G58" s="38">
+        <v>20</v>
+      </c>
+      <c r="H58" s="38">
+        <v>19</v>
+      </c>
+      <c r="I58" s="5">
+        <v>25</v>
+      </c>
+      <c r="J58" s="5">
+        <v>30</v>
+      </c>
+      <c r="K58">
+        <v>1.13947</v>
+      </c>
+      <c r="L58">
+        <v>83.873699999999999</v>
+      </c>
+      <c r="M58">
+        <v>24.5124</v>
+      </c>
+      <c r="N58">
+        <v>25.648199999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="37">
+        <v>75</v>
+      </c>
+      <c r="B59" s="38">
+        <v>0</v>
+      </c>
+      <c r="C59" s="38">
+        <v>80</v>
+      </c>
+      <c r="D59" s="38">
+        <v>10</v>
+      </c>
+      <c r="E59" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F59" s="38">
+        <v>135</v>
+      </c>
+      <c r="G59" s="38">
+        <v>20</v>
+      </c>
+      <c r="H59" s="38">
+        <v>19</v>
+      </c>
+      <c r="I59" s="5">
+        <v>25</v>
+      </c>
+      <c r="J59" s="5">
+        <v>30</v>
+      </c>
+      <c r="K59">
+        <v>1.1368199999999999</v>
+      </c>
+      <c r="L59">
+        <v>84.0852</v>
+      </c>
+      <c r="M59">
+        <v>24.4831</v>
+      </c>
+      <c r="N59">
+        <v>25.6127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="37">
+        <v>75</v>
+      </c>
+      <c r="B60" s="38">
+        <v>0</v>
+      </c>
+      <c r="C60" s="38">
+        <v>80</v>
+      </c>
+      <c r="D60" s="38">
+        <v>10</v>
+      </c>
+      <c r="E60" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F60" s="38">
+        <v>135</v>
+      </c>
+      <c r="G60" s="38">
+        <v>20</v>
+      </c>
+      <c r="H60" s="38">
+        <v>19</v>
+      </c>
+      <c r="I60" s="5">
+        <v>25</v>
+      </c>
+      <c r="J60" s="5">
+        <v>30</v>
+      </c>
+      <c r="K60">
+        <v>1.1427799999999999</v>
+      </c>
+      <c r="L60">
+        <v>82.484499999999997</v>
+      </c>
+      <c r="M60">
+        <v>24.278400000000001</v>
+      </c>
+      <c r="N60">
+        <v>25.756399999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="37">
+        <v>75</v>
+      </c>
+      <c r="B61" s="38">
+        <v>0</v>
+      </c>
+      <c r="C61" s="38">
+        <v>80</v>
+      </c>
+      <c r="D61" s="38">
+        <v>10</v>
+      </c>
+      <c r="E61" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F61" s="38">
+        <v>135</v>
+      </c>
+      <c r="G61" s="38">
+        <v>20</v>
+      </c>
+      <c r="H61" s="38">
+        <v>19</v>
+      </c>
+      <c r="I61" s="5">
+        <v>25</v>
+      </c>
+      <c r="J61" s="5">
+        <v>30</v>
+      </c>
+      <c r="K61">
+        <v>1.1534500000000001</v>
+      </c>
+      <c r="L61">
+        <v>83.164100000000005</v>
+      </c>
+      <c r="M61">
+        <v>24.395600000000002</v>
+      </c>
+      <c r="N61">
+        <v>25.431799999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="37">
+        <v>76</v>
+      </c>
+      <c r="B62" s="38">
+        <v>0</v>
+      </c>
+      <c r="C62" s="38">
+        <v>80</v>
+      </c>
+      <c r="D62" s="38">
+        <v>15</v>
+      </c>
+      <c r="E62" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F62" s="38">
+        <v>135</v>
+      </c>
+      <c r="G62" s="38">
+        <v>20</v>
+      </c>
+      <c r="H62" s="38">
+        <v>19</v>
+      </c>
+      <c r="I62" s="5">
+        <v>25</v>
+      </c>
+      <c r="J62" s="5">
+        <v>30</v>
+      </c>
+      <c r="K62">
+        <v>1.1456299999999999</v>
+      </c>
+      <c r="L62">
+        <v>82.7273</v>
+      </c>
+      <c r="M62">
+        <v>24.5213</v>
+      </c>
+      <c r="N62">
+        <v>25.873200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="37">
+        <v>76</v>
+      </c>
+      <c r="B63" s="38">
+        <v>0</v>
+      </c>
+      <c r="C63" s="38">
+        <v>80</v>
+      </c>
+      <c r="D63" s="38">
+        <v>15</v>
+      </c>
+      <c r="E63" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F63" s="38">
+        <v>135</v>
+      </c>
+      <c r="G63" s="38">
+        <v>20</v>
+      </c>
+      <c r="H63" s="38">
+        <v>19</v>
+      </c>
+      <c r="I63" s="5">
+        <v>25</v>
+      </c>
+      <c r="J63" s="5">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>1.1541300000000001</v>
+      </c>
+      <c r="L63">
+        <v>83.551500000000004</v>
+      </c>
+      <c r="M63">
+        <v>24.515599999999999</v>
+      </c>
+      <c r="N63">
+        <v>25.423400000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="37">
+        <v>76</v>
+      </c>
+      <c r="B64" s="38">
+        <v>0</v>
+      </c>
+      <c r="C64" s="38">
+        <v>80</v>
+      </c>
+      <c r="D64" s="38">
+        <v>15</v>
+      </c>
+      <c r="E64" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F64" s="38">
+        <v>135</v>
+      </c>
+      <c r="G64" s="38">
+        <v>20</v>
+      </c>
+      <c r="H64" s="38">
+        <v>19</v>
+      </c>
+      <c r="I64" s="5">
+        <v>25</v>
+      </c>
+      <c r="J64" s="5">
+        <v>30</v>
+      </c>
+      <c r="K64">
+        <v>1.1609100000000001</v>
+      </c>
+      <c r="L64">
+        <v>85.7102</v>
+      </c>
+      <c r="M64">
+        <v>25.308499999999999</v>
+      </c>
+      <c r="N64">
+        <v>25.435199999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="37">
+        <v>76</v>
+      </c>
+      <c r="B65" s="38">
+        <v>0</v>
+      </c>
+      <c r="C65" s="38">
+        <v>80</v>
+      </c>
+      <c r="D65" s="38">
+        <v>15</v>
+      </c>
+      <c r="E65" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F65" s="38">
+        <v>135</v>
+      </c>
+      <c r="G65" s="38">
+        <v>20</v>
+      </c>
+      <c r="H65" s="38">
+        <v>19</v>
+      </c>
+      <c r="I65" s="5">
+        <v>25</v>
+      </c>
+      <c r="J65" s="5">
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <v>1.1640299999999999</v>
+      </c>
+      <c r="L65">
+        <v>85.593199999999996</v>
+      </c>
+      <c r="M65">
+        <v>25.328700000000001</v>
+      </c>
+      <c r="N65">
+        <v>25.422000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="37">
+        <v>77</v>
+      </c>
+      <c r="B66" s="38">
+        <v>0</v>
+      </c>
+      <c r="C66" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D66" s="38">
+        <v>10</v>
+      </c>
+      <c r="E66" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F66" s="38">
+        <v>135</v>
+      </c>
+      <c r="G66" s="38">
+        <v>20</v>
+      </c>
+      <c r="H66" s="38">
+        <v>19</v>
+      </c>
+      <c r="I66" s="5">
+        <v>25</v>
+      </c>
+      <c r="J66" s="5">
+        <v>30</v>
+      </c>
+      <c r="K66">
+        <v>1.17384</v>
+      </c>
+      <c r="L66">
+        <v>83.705600000000004</v>
+      </c>
+      <c r="M66">
+        <v>24.0657</v>
+      </c>
+      <c r="N66">
+        <v>24.492599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="37">
+        <v>77</v>
+      </c>
+      <c r="B67" s="38">
+        <v>0</v>
+      </c>
+      <c r="C67" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D67" s="38">
+        <v>10</v>
+      </c>
+      <c r="E67" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F67" s="38">
+        <v>135</v>
+      </c>
+      <c r="G67" s="38">
+        <v>20</v>
+      </c>
+      <c r="H67" s="38">
+        <v>19</v>
+      </c>
+      <c r="I67" s="5">
+        <v>25</v>
+      </c>
+      <c r="J67" s="5">
+        <v>30</v>
+      </c>
+      <c r="K67">
+        <v>1.1715500000000001</v>
+      </c>
+      <c r="L67">
+        <v>81.527900000000002</v>
+      </c>
+      <c r="M67">
+        <v>24.2639</v>
+      </c>
+      <c r="N67">
+        <v>25.403500000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="37">
+        <v>77</v>
+      </c>
+      <c r="B68" s="38">
+        <v>0</v>
+      </c>
+      <c r="C68" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D68" s="38">
+        <v>10</v>
+      </c>
+      <c r="E68" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F68" s="38">
+        <v>135</v>
+      </c>
+      <c r="G68" s="38">
+        <v>20</v>
+      </c>
+      <c r="H68" s="38">
+        <v>19</v>
+      </c>
+      <c r="I68" s="5">
+        <v>25</v>
+      </c>
+      <c r="J68" s="5">
+        <v>30</v>
+      </c>
+      <c r="K68">
+        <v>1.16784</v>
+      </c>
+      <c r="L68">
+        <v>82.603700000000003</v>
+      </c>
+      <c r="M68">
+        <v>24.580400000000001</v>
+      </c>
+      <c r="N68">
+        <v>25.480399999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="37">
+        <v>77</v>
+      </c>
+      <c r="B69" s="38">
+        <v>0</v>
+      </c>
+      <c r="C69" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D69" s="38">
+        <v>10</v>
+      </c>
+      <c r="E69" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F69" s="38">
+        <v>135</v>
+      </c>
+      <c r="G69" s="38">
+        <v>20</v>
+      </c>
+      <c r="H69" s="38">
+        <v>19</v>
+      </c>
+      <c r="I69" s="5">
+        <v>25</v>
+      </c>
+      <c r="J69" s="5">
+        <v>30</v>
+      </c>
+      <c r="K69">
+        <v>1.1723399999999999</v>
+      </c>
+      <c r="L69">
+        <v>82.503200000000007</v>
+      </c>
+      <c r="M69">
+        <v>24.7546</v>
+      </c>
+      <c r="N69">
+        <v>25.593599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="37">
+        <v>78</v>
+      </c>
+      <c r="B70" s="38">
+        <v>0</v>
+      </c>
+      <c r="C70" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D70" s="38">
+        <v>10</v>
+      </c>
+      <c r="E70" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F70" s="38">
+        <v>135</v>
+      </c>
+      <c r="G70" s="38">
+        <v>20</v>
+      </c>
+      <c r="H70" s="38">
+        <v>21</v>
+      </c>
+      <c r="I70" s="5">
+        <v>25</v>
+      </c>
+      <c r="J70" s="5">
+        <v>30</v>
+      </c>
+      <c r="K70">
+        <v>1.16784</v>
+      </c>
+      <c r="L70">
+        <v>82.603700000000003</v>
+      </c>
+      <c r="M70">
+        <v>24.580400000000001</v>
+      </c>
+      <c r="N70">
+        <v>25.480399999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="37">
+        <v>78</v>
+      </c>
+      <c r="B71" s="38">
+        <v>0</v>
+      </c>
+      <c r="C71" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D71" s="38">
+        <v>10</v>
+      </c>
+      <c r="E71" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F71" s="38">
+        <v>135</v>
+      </c>
+      <c r="G71" s="38">
+        <v>20</v>
+      </c>
+      <c r="H71" s="38">
+        <v>21</v>
+      </c>
+      <c r="I71" s="5">
+        <v>25</v>
+      </c>
+      <c r="J71" s="5">
+        <v>30</v>
+      </c>
+      <c r="K71">
+        <v>1.1508100000000001</v>
+      </c>
+      <c r="L71">
+        <v>81.338200000000001</v>
+      </c>
+      <c r="M71">
+        <v>23.867999999999999</v>
+      </c>
+      <c r="N71">
+        <v>25.498699999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="37">
+        <v>78</v>
+      </c>
+      <c r="B72" s="38">
+        <v>0</v>
+      </c>
+      <c r="C72" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D72" s="38">
+        <v>10</v>
+      </c>
+      <c r="E72" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F72" s="38">
+        <v>135</v>
+      </c>
+      <c r="G72" s="38">
+        <v>20</v>
+      </c>
+      <c r="H72" s="38">
+        <v>21</v>
+      </c>
+      <c r="I72" s="5">
+        <v>25</v>
+      </c>
+      <c r="J72" s="5">
+        <v>30</v>
+      </c>
+      <c r="K72">
+        <v>1.1670499999999999</v>
+      </c>
+      <c r="L72">
+        <v>79.851100000000002</v>
+      </c>
+      <c r="M72">
+        <v>23.680199999999999</v>
+      </c>
+      <c r="N72">
+        <v>25.410599999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="37">
+        <v>78</v>
+      </c>
+      <c r="B73" s="38">
+        <v>0</v>
+      </c>
+      <c r="C73" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D73" s="38">
+        <v>10</v>
+      </c>
+      <c r="E73" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F73" s="38">
+        <v>135</v>
+      </c>
+      <c r="G73" s="38">
+        <v>20</v>
+      </c>
+      <c r="H73" s="38">
+        <v>21</v>
+      </c>
+      <c r="I73" s="5">
+        <v>25</v>
+      </c>
+      <c r="J73" s="5">
+        <v>30</v>
+      </c>
+      <c r="K73">
+        <v>1.1606700000000001</v>
+      </c>
+      <c r="L73">
+        <v>81.373999999999995</v>
+      </c>
+      <c r="M73">
+        <v>23.8278</v>
+      </c>
+      <c r="N73">
+        <v>25.228400000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="37">
+        <v>79</v>
+      </c>
+      <c r="B74" s="38">
+        <v>0</v>
+      </c>
+      <c r="C74" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D74" s="38">
+        <v>10</v>
+      </c>
+      <c r="E74" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F74" s="38">
+        <v>130</v>
+      </c>
+      <c r="G74" s="38">
+        <v>20</v>
+      </c>
+      <c r="H74" s="38">
+        <v>19</v>
+      </c>
+      <c r="I74" s="5">
+        <v>25</v>
+      </c>
+      <c r="J74" s="5">
+        <v>30</v>
+      </c>
+      <c r="K74">
+        <v>1.1720299999999999</v>
+      </c>
+      <c r="L74">
+        <v>81.846199999999996</v>
+      </c>
+      <c r="M74">
+        <v>24.482299999999999</v>
+      </c>
+      <c r="N74">
+        <v>25.521999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="37">
+        <v>79</v>
+      </c>
+      <c r="B75" s="38">
+        <v>0</v>
+      </c>
+      <c r="C75" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D75" s="38">
+        <v>10</v>
+      </c>
+      <c r="E75" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F75" s="38">
+        <v>130</v>
+      </c>
+      <c r="G75" s="38">
+        <v>20</v>
+      </c>
+      <c r="H75" s="38">
+        <v>19</v>
+      </c>
+      <c r="I75" s="5">
+        <v>25</v>
+      </c>
+      <c r="J75" s="5">
+        <v>30</v>
+      </c>
+      <c r="K75">
+        <v>1.1809799999999999</v>
+      </c>
+      <c r="L75">
+        <v>82.498099999999994</v>
+      </c>
+      <c r="M75">
+        <v>24.859100000000002</v>
+      </c>
+      <c r="N75">
+        <v>25.5152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="37">
+        <v>79</v>
+      </c>
+      <c r="B76" s="38">
+        <v>0</v>
+      </c>
+      <c r="C76" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D76" s="38">
+        <v>10</v>
+      </c>
+      <c r="E76" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F76" s="38">
+        <v>130</v>
+      </c>
+      <c r="G76" s="38">
+        <v>20</v>
+      </c>
+      <c r="H76" s="38">
+        <v>19</v>
+      </c>
+      <c r="I76" s="5">
+        <v>25</v>
+      </c>
+      <c r="J76" s="5">
+        <v>30</v>
+      </c>
+      <c r="K76">
+        <v>1.16682</v>
+      </c>
+      <c r="L76">
+        <v>81.923299999999998</v>
+      </c>
+      <c r="M76">
+        <v>24.4831</v>
+      </c>
+      <c r="N76">
+        <v>25.6127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="37">
+        <v>79</v>
+      </c>
+      <c r="B77" s="38">
+        <v>0</v>
+      </c>
+      <c r="C77" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D77" s="38">
+        <v>10</v>
+      </c>
+      <c r="E77" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="F77" s="38">
+        <v>130</v>
+      </c>
+      <c r="G77" s="38">
+        <v>20</v>
+      </c>
+      <c r="H77" s="38">
+        <v>19</v>
+      </c>
+      <c r="I77" s="5">
+        <v>25</v>
+      </c>
+      <c r="J77" s="5">
+        <v>30</v>
+      </c>
+      <c r="K77">
+        <v>1.1518900000000001</v>
+      </c>
+      <c r="L77">
+        <v>81.860399999999998</v>
+      </c>
+      <c r="M77">
+        <v>24.256699999999999</v>
+      </c>
+      <c r="N77">
+        <v>25.724499999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="37">
+        <v>80</v>
+      </c>
+      <c r="B78" s="38">
+        <v>0</v>
+      </c>
+      <c r="C78" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D78" s="38">
+        <v>15</v>
+      </c>
+      <c r="E78" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F78" s="38">
+        <v>130</v>
+      </c>
+      <c r="G78" s="38">
+        <v>20</v>
+      </c>
+      <c r="H78" s="38">
+        <v>19</v>
+      </c>
+      <c r="I78" s="5">
+        <v>25</v>
+      </c>
+      <c r="J78" s="5">
+        <v>30</v>
+      </c>
+      <c r="K78">
+        <v>1.16103</v>
+      </c>
+      <c r="L78">
+        <v>83.568100000000001</v>
+      </c>
+      <c r="M78">
+        <v>24.5687</v>
+      </c>
+      <c r="N78">
+        <v>25.321999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="37">
+        <v>80</v>
+      </c>
+      <c r="B79" s="38">
+        <v>0</v>
+      </c>
+      <c r="C79" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D79" s="38">
+        <v>15</v>
+      </c>
+      <c r="E79" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F79" s="38">
+        <v>130</v>
+      </c>
+      <c r="G79" s="38">
+        <v>20</v>
+      </c>
+      <c r="H79" s="38">
+        <v>19</v>
+      </c>
+      <c r="I79" s="5">
+        <v>25</v>
+      </c>
+      <c r="J79" s="5">
+        <v>30</v>
+      </c>
+      <c r="K79">
+        <v>1.1674800000000001</v>
+      </c>
+      <c r="L79">
+        <v>82.960300000000004</v>
+      </c>
+      <c r="M79">
+        <v>24.525300000000001</v>
+      </c>
+      <c r="N79">
+        <v>25.3218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="37">
+        <v>80</v>
+      </c>
+      <c r="B80" s="38">
+        <v>0</v>
+      </c>
+      <c r="C80" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D80" s="38">
+        <v>15</v>
+      </c>
+      <c r="E80" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F80" s="38">
+        <v>130</v>
+      </c>
+      <c r="G80" s="38">
+        <v>20</v>
+      </c>
+      <c r="H80" s="38">
+        <v>19</v>
+      </c>
+      <c r="I80" s="5">
+        <v>25</v>
+      </c>
+      <c r="J80" s="5">
+        <v>30</v>
+      </c>
+      <c r="K80">
+        <v>1.17784</v>
+      </c>
+      <c r="L80">
+        <v>82.548299999999998</v>
+      </c>
+      <c r="M80">
+        <v>24.5136</v>
+      </c>
+      <c r="N80">
+        <v>25.212299999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="37">
+        <v>80</v>
+      </c>
+      <c r="B81" s="38">
+        <v>0</v>
+      </c>
+      <c r="C81" s="38">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D81" s="38">
+        <v>15</v>
+      </c>
+      <c r="E81" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="F81" s="38">
+        <v>130</v>
+      </c>
+      <c r="G81" s="38">
+        <v>20</v>
+      </c>
+      <c r="H81" s="38">
+        <v>19</v>
+      </c>
+      <c r="I81" s="5">
+        <v>25</v>
+      </c>
+      <c r="J81" s="5">
+        <v>30</v>
+      </c>
+      <c r="K81">
+        <v>1.17303</v>
+      </c>
+      <c r="L81">
+        <v>83.717200000000005</v>
+      </c>
+      <c r="M81">
+        <v>24.768699999999999</v>
+      </c>
+      <c r="N81">
+        <v>25.222000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA6646A-5266-DF4B-B9A0-238E392969BE}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="48">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="39">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1.4</v>
+      </c>
+      <c r="F2">
+        <v>135</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="39">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1.3</v>
+      </c>
+      <c r="F3">
+        <v>130</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="39">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1.3</v>
+      </c>
+      <c r="F4">
+        <v>130</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="39">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1.4</v>
+      </c>
+      <c r="F5">
+        <v>135</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5">
+        <v>25</v>
+      </c>
+      <c r="J5" s="5">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="39">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1.4</v>
+      </c>
+      <c r="F6">
+        <v>135</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5">
+        <v>30</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="39">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1.4</v>
+      </c>
+      <c r="F7">
+        <v>130</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5">
+        <v>25</v>
+      </c>
+      <c r="J7" s="5">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="39">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1.3</v>
+      </c>
+      <c r="F8">
+        <v>130</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5">
+        <v>25</v>
+      </c>
+      <c r="J8" s="5">
+        <v>30</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="39">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1.4</v>
+      </c>
+      <c r="F9">
+        <v>130</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5">
+        <v>30</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="39">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1.4</v>
+      </c>
+      <c r="F10">
+        <v>130</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10" s="5">
+        <v>25</v>
+      </c>
+      <c r="J10" s="5">
+        <v>30</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="39">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>60.000000000000007</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1.3</v>
+      </c>
+      <c r="F11">
+        <v>130</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5">
+        <v>30</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="39">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1.4</v>
+      </c>
+      <c r="F12">
+        <v>135</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="39">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>1.3</v>
+      </c>
+      <c r="F13">
+        <v>125</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13" s="5">
+        <v>25</v>
+      </c>
+      <c r="J13" s="5">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="39">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1.3</v>
+      </c>
+      <c r="F14">
+        <v>130</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>21</v>
+      </c>
+      <c r="I14" s="5">
+        <v>25</v>
+      </c>
+      <c r="J14" s="5">
+        <v>30</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="39">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1.4</v>
+      </c>
+      <c r="F15">
+        <v>130</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5">
+        <v>30</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="39">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1.4</v>
+      </c>
+      <c r="F16">
+        <v>135</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+      <c r="I16" s="5">
+        <v>25</v>
+      </c>
+      <c r="J16" s="5">
+        <v>30</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="39">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1.4</v>
+      </c>
+      <c r="F17">
+        <v>135</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17" s="5">
+        <v>25</v>
+      </c>
+      <c r="J17" s="5">
+        <v>30</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="39">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1.4</v>
+      </c>
+      <c r="F18">
+        <v>135</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="I18" s="5">
+        <v>25</v>
+      </c>
+      <c r="J18" s="5">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="39">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>1.3</v>
+      </c>
+      <c r="F19">
+        <v>135</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+      <c r="I19" s="5">
+        <v>25</v>
+      </c>
+      <c r="J19" s="5">
+        <v>30</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="39">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>1.3</v>
+      </c>
+      <c r="F20">
+        <v>130</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20" s="5">
+        <v>25</v>
+      </c>
+      <c r="J20" s="5">
+        <v>30</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="39">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>85.000000000000014</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>1.4</v>
+      </c>
+      <c r="F21">
+        <v>130</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5">
+        <v>25</v>
+      </c>
+      <c r="J21" s="5">
+        <v>30</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>